--- a/Load/src/ontology/ICEMR/PRISM_metadata.xlsx
+++ b/Load/src/ontology/ICEMR/PRISM_metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="300" windowWidth="24240" windowHeight="11775" tabRatio="922" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="300" windowWidth="24240" windowHeight="11775" tabRatio="922" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PRISM classes" sheetId="19" r:id="rId1"/>
@@ -8283,9 +8283,6 @@
     <t>all terms added with annotationProp, "term type" ICEMR_0000025, with value 'value'</t>
   </si>
   <si>
-    <t>duration og vomiting</t>
-  </si>
-  <si>
     <t>ICEMR_0000028</t>
   </si>
   <si>
@@ -8308,6 +8305,9 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/EUPATH_0000134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        duration of vomiting</t>
   </si>
 </sst>
 </file>
@@ -13176,7 +13176,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13186,8 +13186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G287"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A90" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -13216,32 +13216,32 @@
         <v>1782</v>
       </c>
       <c r="E1" s="154" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="F1" s="154" t="s">
         <v>1784</v>
       </c>
       <c r="G1" s="154" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="155" customFormat="1" ht="15.75">
       <c r="A2" s="154"/>
       <c r="B2" s="154"/>
       <c r="C2" s="154" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D2" s="154" t="s">
         <v>1835</v>
       </c>
-      <c r="D2" s="154" t="s">
+      <c r="E2" s="154" t="s">
+        <v>1839</v>
+      </c>
+      <c r="F2" s="154" t="s">
         <v>1836</v>
       </c>
-      <c r="E2" s="154" t="s">
+      <c r="G2" s="154" t="s">
         <v>1840</v>
-      </c>
-      <c r="F2" s="154" t="s">
-        <v>1837</v>
-      </c>
-      <c r="G2" s="154" t="s">
-        <v>1841</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -14189,7 +14189,7 @@
     </row>
     <row r="44" spans="1:7" s="13" customFormat="1">
       <c r="A44" s="143" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="B44" s="87" t="s">
         <v>1733</v>
@@ -15794,7 +15794,7 @@
         <v>181</v>
       </c>
       <c r="E119" s="152" t="s">
-        <v>1834</v>
+        <v>1206</v>
       </c>
       <c r="F119" s="87"/>
       <c r="G119" s="87"/>
@@ -17137,7 +17137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A91" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
@@ -17162,15 +17162,15 @@
         <v>1782</v>
       </c>
       <c r="D1" s="154" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="148" customFormat="1" ht="15.75">
       <c r="C2" s="154" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="D2" s="154" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="E2" s="154"/>
       <c r="F2" s="154"/>
@@ -28342,11 +28342,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T287"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="I243" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="I222" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J259" sqref="J259"/>
+      <selection pane="bottomRight" activeCell="I229" sqref="I229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -31760,10 +31760,10 @@
         <v>1235</v>
       </c>
       <c r="L106" s="143" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="M106" s="143" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="N106" s="10" t="s">
         <v>316</v>
@@ -36369,7 +36369,7 @@
         <v>181</v>
       </c>
       <c r="I222" s="63" t="s">
-        <v>820</v>
+        <v>1842</v>
       </c>
       <c r="J222" s="3" t="s">
         <v>197</v>
@@ -37914,10 +37914,10 @@
   <dimension ref="A1:K294"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="D247" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="D222" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H264" sqref="H264"/>
+      <selection pane="bottomRight" activeCell="E222" sqref="E222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -40189,7 +40189,7 @@
         <v>1235</v>
       </c>
       <c r="H106" s="143" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="I106" s="10" t="s">
         <v>316</v>
@@ -42947,7 +42947,7 @@
         <v>181</v>
       </c>
       <c r="E222" s="63" t="s">
-        <v>820</v>
+        <v>1842</v>
       </c>
       <c r="F222" s="3" t="s">
         <v>197</v>

--- a/Load/src/ontology/ICEMR/PRISM_metadata.xlsx
+++ b/Load/src/ontology/ICEMR/PRISM_metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="300" windowWidth="24240" windowHeight="11775" tabRatio="922" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="24240" windowHeight="11715" tabRatio="922"/>
   </bookViews>
   <sheets>
     <sheet name="PRISM classes" sheetId="19" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="PRISMCuratedRelationships" sheetId="8" r:id="rId6"/>
     <sheet name="PRISMCuratedSynonyms" sheetId="11" r:id="rId7"/>
     <sheet name="PRISMCuratedTerms" sheetId="12" r:id="rId8"/>
+    <sheet name="duplicate" sheetId="21" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Proposed Revision'!$A$3:$Y$194</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10660" uniqueCount="1843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11873" uniqueCount="1857">
   <si>
     <t>abdominal pain</t>
   </si>
@@ -8308,6 +8309,48 @@
   </si>
   <si>
     <t xml:space="preserve">        duration of vomiting</t>
+  </si>
+  <si>
+    <t>roof metal</t>
+  </si>
+  <si>
+    <t>wall metal</t>
+  </si>
+  <si>
+    <t>floor wood</t>
+  </si>
+  <si>
+    <t>cooking fuel wood</t>
+  </si>
+  <si>
+    <t>wall wood</t>
+  </si>
+  <si>
+    <t>wall cement</t>
+  </si>
+  <si>
+    <t>floor concrete</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/EUPATH_0000142</t>
+  </si>
+  <si>
+    <t>If no id assign, will assign ID with domain TEMP to indicate the terms might be removed eventually</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/TEMP_00002</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/TEMP_00001</t>
+  </si>
+  <si>
+    <t>icemr.owll#hasRelatedSynonym</t>
+  </si>
+  <si>
+    <t>Related Synonym</t>
+  </si>
+  <si>
+    <t>PRISM data dictionary label (en)</t>
   </si>
 </sst>
 </file>
@@ -10847,7 +10890,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -11073,6 +11116,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="1822" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1822" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1822" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1825">
     <cellStyle name="20% - Accent1" xfId="1799" builtinId="30" customBuiltin="1"/>
@@ -13176,7 +13226,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13186,17 +13236,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G287"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E119" sqref="E119"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="45" style="143" customWidth="1"/>
     <col min="2" max="2" width="43.140625" style="143" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="44" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" style="143" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" style="143" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="44" customWidth="1"/>
     <col min="6" max="6" width="38" style="143" customWidth="1"/>
     <col min="7" max="7" width="36.7109375" style="143" customWidth="1"/>
     <col min="8" max="16384" width="8.85546875" style="143"/>
@@ -13210,13 +13260,13 @@
         <v>1727</v>
       </c>
       <c r="C1" s="154" t="s">
+        <v>1856</v>
+      </c>
+      <c r="D1" s="154" t="s">
+        <v>1838</v>
+      </c>
+      <c r="E1" s="154" t="s">
         <v>511</v>
-      </c>
-      <c r="D1" s="154" t="s">
-        <v>1782</v>
-      </c>
-      <c r="E1" s="154" t="s">
-        <v>1838</v>
       </c>
       <c r="F1" s="154" t="s">
         <v>1784</v>
@@ -13229,13 +13279,13 @@
       <c r="A2" s="154"/>
       <c r="B2" s="154"/>
       <c r="C2" s="154" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D2" s="154" t="s">
+        <v>1839</v>
+      </c>
+      <c r="E2" s="154" t="s">
         <v>1834</v>
-      </c>
-      <c r="D2" s="154" t="s">
-        <v>1835</v>
-      </c>
-      <c r="E2" s="154" t="s">
-        <v>1839</v>
       </c>
       <c r="F2" s="154" t="s">
         <v>1836</v>
@@ -13251,14 +13301,14 @@
       <c r="B3" s="87" t="s">
         <v>1728</v>
       </c>
-      <c r="C3" s="86">
+      <c r="C3" s="87" t="s">
+        <v>338</v>
+      </c>
+      <c r="D3" s="87" t="s">
+        <v>544</v>
+      </c>
+      <c r="E3" s="86">
         <v>1.1000000000000001</v>
-      </c>
-      <c r="D3" s="87" t="s">
-        <v>338</v>
-      </c>
-      <c r="E3" s="87" t="s">
-        <v>544</v>
       </c>
       <c r="F3" s="87" t="s">
         <v>213</v>
@@ -13274,14 +13324,14 @@
       <c r="B4" s="87" t="s">
         <v>1729</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="87" t="s">
+        <v>356</v>
+      </c>
+      <c r="D4" s="87" t="s">
+        <v>532</v>
+      </c>
+      <c r="E4" s="86" t="s">
         <v>686</v>
-      </c>
-      <c r="D4" s="87" t="s">
-        <v>356</v>
-      </c>
-      <c r="E4" s="87" t="s">
-        <v>532</v>
       </c>
       <c r="F4" s="87" t="s">
         <v>537</v>
@@ -13297,14 +13347,14 @@
       <c r="B5" s="87" t="s">
         <v>1729</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="87" t="s">
+        <v>349</v>
+      </c>
+      <c r="D5" s="87" t="s">
+        <v>535</v>
+      </c>
+      <c r="E5" s="86" t="s">
         <v>687</v>
-      </c>
-      <c r="D5" s="87" t="s">
-        <v>349</v>
-      </c>
-      <c r="E5" s="87" t="s">
-        <v>535</v>
       </c>
       <c r="F5" s="87" t="s">
         <v>541</v>
@@ -13320,14 +13370,14 @@
       <c r="B6" s="87" t="s">
         <v>1729</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="87" t="s">
+        <v>397</v>
+      </c>
+      <c r="D6" s="87" t="s">
+        <v>536</v>
+      </c>
+      <c r="E6" s="86" t="s">
         <v>688</v>
-      </c>
-      <c r="D6" s="87" t="s">
-        <v>397</v>
-      </c>
-      <c r="E6" s="87" t="s">
-        <v>536</v>
       </c>
       <c r="F6" s="87" t="s">
         <v>542</v>
@@ -13343,14 +13393,14 @@
       <c r="B7" s="87" t="s">
         <v>1729</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="82" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" s="87" t="s">
+        <v>540</v>
+      </c>
+      <c r="E7" s="86" t="s">
         <v>689</v>
-      </c>
-      <c r="D7" s="82" t="s">
-        <v>236</v>
-      </c>
-      <c r="E7" s="87" t="s">
-        <v>540</v>
       </c>
       <c r="F7" s="87" t="s">
         <v>543</v>
@@ -13366,14 +13416,14 @@
       <c r="B8" s="87" t="s">
         <v>1729</v>
       </c>
-      <c r="C8" s="86" t="s">
-        <v>690</v>
+      <c r="C8" s="87" t="s">
+        <v>393</v>
       </c>
       <c r="D8" s="87" t="s">
         <v>393</v>
       </c>
-      <c r="E8" s="87" t="s">
-        <v>393</v>
+      <c r="E8" s="86" t="s">
+        <v>690</v>
       </c>
       <c r="F8" s="87" t="s">
         <v>547</v>
@@ -13389,14 +13439,14 @@
       <c r="B9" s="87" t="s">
         <v>1729</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="87" t="s">
+        <v>378</v>
+      </c>
+      <c r="D9" s="87" t="s">
+        <v>545</v>
+      </c>
+      <c r="E9" s="86" t="s">
         <v>691</v>
-      </c>
-      <c r="D9" s="87" t="s">
-        <v>378</v>
-      </c>
-      <c r="E9" s="87" t="s">
-        <v>545</v>
       </c>
       <c r="F9" s="87" t="s">
         <v>546</v>
@@ -13412,14 +13462,14 @@
       <c r="B10" s="87" t="s">
         <v>1729</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="87" t="s">
+        <v>412</v>
+      </c>
+      <c r="D10" s="87" t="s">
+        <v>548</v>
+      </c>
+      <c r="E10" s="86" t="s">
         <v>692</v>
-      </c>
-      <c r="D10" s="87" t="s">
-        <v>412</v>
-      </c>
-      <c r="E10" s="87" t="s">
-        <v>548</v>
       </c>
       <c r="F10" s="87" t="s">
         <v>549</v>
@@ -13435,14 +13485,14 @@
       <c r="B11" s="87" t="s">
         <v>1729</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="87" t="s">
+        <v>420</v>
+      </c>
+      <c r="D11" s="87" t="s">
+        <v>551</v>
+      </c>
+      <c r="E11" s="86" t="s">
         <v>693</v>
-      </c>
-      <c r="D11" s="87" t="s">
-        <v>420</v>
-      </c>
-      <c r="E11" s="87" t="s">
-        <v>551</v>
       </c>
       <c r="F11" s="87" t="s">
         <v>550</v>
@@ -13458,14 +13508,14 @@
       <c r="B12" s="87" t="s">
         <v>1729</v>
       </c>
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="87" t="s">
+        <v>395</v>
+      </c>
+      <c r="D12" s="87" t="s">
+        <v>552</v>
+      </c>
+      <c r="E12" s="86" t="s">
         <v>694</v>
-      </c>
-      <c r="D12" s="87" t="s">
-        <v>395</v>
-      </c>
-      <c r="E12" s="87" t="s">
-        <v>552</v>
       </c>
       <c r="F12" s="87" t="s">
         <v>553</v>
@@ -13481,14 +13531,14 @@
       <c r="B13" s="87" t="s">
         <v>1730</v>
       </c>
-      <c r="C13" s="86" t="s">
+      <c r="C13" s="87" t="s">
+        <v>346</v>
+      </c>
+      <c r="D13" s="87" t="s">
+        <v>555</v>
+      </c>
+      <c r="E13" s="86" t="s">
         <v>695</v>
-      </c>
-      <c r="D13" s="87" t="s">
-        <v>346</v>
-      </c>
-      <c r="E13" s="87" t="s">
-        <v>555</v>
       </c>
       <c r="F13" s="87" t="s">
         <v>554</v>
@@ -13504,14 +13554,14 @@
       <c r="B14" s="87" t="s">
         <v>1730</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="87" t="s">
+        <v>347</v>
+      </c>
+      <c r="D14" s="87" t="s">
+        <v>556</v>
+      </c>
+      <c r="E14" s="86" t="s">
         <v>482</v>
-      </c>
-      <c r="D14" s="87" t="s">
-        <v>347</v>
-      </c>
-      <c r="E14" s="87" t="s">
-        <v>556</v>
       </c>
       <c r="F14" s="87" t="s">
         <v>558</v>
@@ -13527,14 +13577,14 @@
       <c r="B15" s="87" t="s">
         <v>1730</v>
       </c>
-      <c r="C15" s="86" t="s">
+      <c r="C15" s="87" t="s">
+        <v>348</v>
+      </c>
+      <c r="D15" s="87" t="s">
+        <v>557</v>
+      </c>
+      <c r="E15" s="86" t="s">
         <v>696</v>
-      </c>
-      <c r="D15" s="87" t="s">
-        <v>348</v>
-      </c>
-      <c r="E15" s="87" t="s">
-        <v>557</v>
       </c>
       <c r="F15" s="87" t="s">
         <v>559</v>
@@ -13550,14 +13600,14 @@
       <c r="B16" s="87" t="s">
         <v>1730</v>
       </c>
-      <c r="C16" s="86" t="s">
+      <c r="C16" s="87" t="s">
+        <v>419</v>
+      </c>
+      <c r="D16" s="87" t="s">
+        <v>560</v>
+      </c>
+      <c r="E16" s="86" t="s">
         <v>491</v>
-      </c>
-      <c r="D16" s="87" t="s">
-        <v>419</v>
-      </c>
-      <c r="E16" s="87" t="s">
-        <v>560</v>
       </c>
       <c r="F16" s="87" t="s">
         <v>561</v>
@@ -13573,14 +13623,14 @@
       <c r="B17" s="87" t="s">
         <v>1731</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="87" t="s">
+        <v>352</v>
+      </c>
+      <c r="D17" s="87" t="s">
+        <v>562</v>
+      </c>
+      <c r="E17" s="86" t="s">
         <v>498</v>
-      </c>
-      <c r="D17" s="87" t="s">
-        <v>352</v>
-      </c>
-      <c r="E17" s="87" t="s">
-        <v>562</v>
       </c>
       <c r="F17" s="87" t="s">
         <v>564</v>
@@ -13596,14 +13646,14 @@
       <c r="B18" s="87" t="s">
         <v>1731</v>
       </c>
-      <c r="C18" s="86" t="s">
+      <c r="C18" s="87" t="s">
+        <v>418</v>
+      </c>
+      <c r="D18" s="87" t="s">
+        <v>563</v>
+      </c>
+      <c r="E18" s="86" t="s">
         <v>499</v>
-      </c>
-      <c r="D18" s="87" t="s">
-        <v>418</v>
-      </c>
-      <c r="E18" s="87" t="s">
-        <v>563</v>
       </c>
       <c r="F18" s="87" t="s">
         <v>565</v>
@@ -13619,14 +13669,14 @@
       <c r="B19" s="87" t="s">
         <v>1731</v>
       </c>
-      <c r="C19" s="86" t="s">
+      <c r="C19" s="87" t="s">
+        <v>353</v>
+      </c>
+      <c r="D19" s="87" t="s">
+        <v>566</v>
+      </c>
+      <c r="E19" s="86" t="s">
         <v>697</v>
-      </c>
-      <c r="D19" s="87" t="s">
-        <v>353</v>
-      </c>
-      <c r="E19" s="87" t="s">
-        <v>566</v>
       </c>
       <c r="F19" s="87" t="s">
         <v>570</v>
@@ -13642,14 +13692,14 @@
       <c r="B20" s="87" t="s">
         <v>1731</v>
       </c>
-      <c r="C20" s="86" t="s">
+      <c r="C20" s="87" t="s">
+        <v>355</v>
+      </c>
+      <c r="D20" s="87" t="s">
+        <v>567</v>
+      </c>
+      <c r="E20" s="86" t="s">
         <v>698</v>
-      </c>
-      <c r="D20" s="87" t="s">
-        <v>355</v>
-      </c>
-      <c r="E20" s="87" t="s">
-        <v>567</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>571</v>
@@ -13665,14 +13715,14 @@
       <c r="B21" s="87" t="s">
         <v>1731</v>
       </c>
-      <c r="C21" s="86" t="s">
+      <c r="C21" s="87" t="s">
+        <v>351</v>
+      </c>
+      <c r="D21" s="87" t="s">
+        <v>568</v>
+      </c>
+      <c r="E21" s="86" t="s">
         <v>699</v>
-      </c>
-      <c r="D21" s="87" t="s">
-        <v>351</v>
-      </c>
-      <c r="E21" s="87" t="s">
-        <v>568</v>
       </c>
       <c r="F21" s="87" t="s">
         <v>572</v>
@@ -13688,14 +13738,14 @@
       <c r="B22" s="87" t="s">
         <v>1731</v>
       </c>
-      <c r="C22" s="86" t="s">
+      <c r="C22" s="87" t="s">
+        <v>354</v>
+      </c>
+      <c r="D22" s="87" t="s">
+        <v>569</v>
+      </c>
+      <c r="E22" s="86" t="s">
         <v>700</v>
-      </c>
-      <c r="D22" s="87" t="s">
-        <v>354</v>
-      </c>
-      <c r="E22" s="87" t="s">
-        <v>569</v>
       </c>
       <c r="F22" s="87" t="s">
         <v>573</v>
@@ -13711,14 +13761,14 @@
       <c r="B23" s="86" t="s">
         <v>1732</v>
       </c>
-      <c r="C23" s="86" t="s">
+      <c r="C23" s="87" t="s">
+        <v>380</v>
+      </c>
+      <c r="D23" s="87" t="s">
+        <v>574</v>
+      </c>
+      <c r="E23" s="86" t="s">
         <v>701</v>
-      </c>
-      <c r="D23" s="87" t="s">
-        <v>380</v>
-      </c>
-      <c r="E23" s="87" t="s">
-        <v>574</v>
       </c>
       <c r="F23" s="87" t="s">
         <v>575</v>
@@ -13734,14 +13784,14 @@
       <c r="B24" s="86" t="s">
         <v>1732</v>
       </c>
-      <c r="C24" s="86" t="s">
-        <v>710</v>
+      <c r="C24" s="87" t="s">
+        <v>388</v>
       </c>
       <c r="D24" s="87" t="s">
         <v>388</v>
       </c>
-      <c r="E24" s="87" t="s">
-        <v>388</v>
+      <c r="E24" s="86" t="s">
+        <v>710</v>
       </c>
       <c r="F24" s="87" t="s">
         <v>581</v>
@@ -13757,14 +13807,14 @@
       <c r="B25" s="86" t="s">
         <v>1732</v>
       </c>
-      <c r="C25" s="86" t="s">
-        <v>711</v>
+      <c r="C25" s="87" t="s">
+        <v>389</v>
       </c>
       <c r="D25" s="87" t="s">
         <v>389</v>
       </c>
-      <c r="E25" s="87" t="s">
-        <v>389</v>
+      <c r="E25" s="86" t="s">
+        <v>711</v>
       </c>
       <c r="F25" s="87" t="s">
         <v>582</v>
@@ -13780,14 +13830,14 @@
       <c r="B26" s="86" t="s">
         <v>1732</v>
       </c>
-      <c r="C26" s="86" t="s">
-        <v>712</v>
+      <c r="C26" s="87" t="s">
+        <v>394</v>
       </c>
       <c r="D26" s="87" t="s">
         <v>394</v>
       </c>
-      <c r="E26" s="87" t="s">
-        <v>394</v>
+      <c r="E26" s="86" t="s">
+        <v>712</v>
       </c>
       <c r="F26" s="87" t="s">
         <v>585</v>
@@ -13803,14 +13853,14 @@
       <c r="B27" s="86" t="s">
         <v>1732</v>
       </c>
-      <c r="C27" s="86" t="s">
-        <v>713</v>
+      <c r="C27" s="87" t="s">
+        <v>396</v>
       </c>
       <c r="D27" s="87" t="s">
         <v>396</v>
       </c>
-      <c r="E27" s="87" t="s">
-        <v>396</v>
+      <c r="E27" s="86" t="s">
+        <v>713</v>
       </c>
       <c r="F27" s="87" t="s">
         <v>586</v>
@@ -13826,14 +13876,14 @@
       <c r="B28" s="86" t="s">
         <v>1732</v>
       </c>
-      <c r="C28" s="86" t="s">
+      <c r="C28" s="87" t="s">
+        <v>403</v>
+      </c>
+      <c r="D28" s="87" t="s">
+        <v>577</v>
+      </c>
+      <c r="E28" s="86" t="s">
         <v>760</v>
-      </c>
-      <c r="D28" s="87" t="s">
-        <v>403</v>
-      </c>
-      <c r="E28" s="87" t="s">
-        <v>577</v>
       </c>
       <c r="F28" s="87" t="s">
         <v>588</v>
@@ -13849,14 +13899,14 @@
       <c r="B29" s="86" t="s">
         <v>1732</v>
       </c>
-      <c r="C29" s="86" t="s">
+      <c r="C29" s="87" t="s">
+        <v>408</v>
+      </c>
+      <c r="D29" s="87" t="s">
+        <v>593</v>
+      </c>
+      <c r="E29" s="86" t="s">
         <v>714</v>
-      </c>
-      <c r="D29" s="87" t="s">
-        <v>408</v>
-      </c>
-      <c r="E29" s="87" t="s">
-        <v>593</v>
       </c>
       <c r="F29" s="87" t="s">
         <v>594</v>
@@ -13872,14 +13922,14 @@
       <c r="B30" s="86" t="s">
         <v>1732</v>
       </c>
-      <c r="C30" s="86" t="s">
+      <c r="C30" s="87" t="s">
+        <v>462</v>
+      </c>
+      <c r="D30" s="87" t="s">
+        <v>409</v>
+      </c>
+      <c r="E30" s="86" t="s">
         <v>715</v>
-      </c>
-      <c r="D30" s="87" t="s">
-        <v>462</v>
-      </c>
-      <c r="E30" s="87" t="s">
-        <v>409</v>
       </c>
       <c r="F30" s="87" t="s">
         <v>589</v>
@@ -13895,14 +13945,14 @@
       <c r="B31" s="86" t="s">
         <v>1732</v>
       </c>
-      <c r="C31" s="86" t="s">
+      <c r="C31" s="87" t="s">
+        <v>413</v>
+      </c>
+      <c r="D31" s="87" t="s">
+        <v>600</v>
+      </c>
+      <c r="E31" s="86" t="s">
         <v>716</v>
-      </c>
-      <c r="D31" s="87" t="s">
-        <v>413</v>
-      </c>
-      <c r="E31" s="87" t="s">
-        <v>600</v>
       </c>
       <c r="F31" s="87" t="s">
         <v>595</v>
@@ -13918,14 +13968,14 @@
       <c r="B32" s="86" t="s">
         <v>1732</v>
       </c>
-      <c r="C32" s="86" t="s">
-        <v>717</v>
+      <c r="C32" s="87" t="s">
+        <v>415</v>
       </c>
       <c r="D32" s="87" t="s">
         <v>415</v>
       </c>
-      <c r="E32" s="87" t="s">
-        <v>415</v>
+      <c r="E32" s="86" t="s">
+        <v>717</v>
       </c>
       <c r="F32" s="87" t="s">
         <v>590</v>
@@ -13941,14 +13991,14 @@
       <c r="B33" s="86" t="s">
         <v>1732</v>
       </c>
-      <c r="C33" s="86" t="s">
+      <c r="C33" s="87" t="s">
+        <v>417</v>
+      </c>
+      <c r="D33" s="87" t="s">
+        <v>596</v>
+      </c>
+      <c r="E33" s="86" t="s">
         <v>718</v>
-      </c>
-      <c r="D33" s="87" t="s">
-        <v>417</v>
-      </c>
-      <c r="E33" s="87" t="s">
-        <v>596</v>
       </c>
       <c r="F33" s="87" t="s">
         <v>591</v>
@@ -13964,14 +14014,14 @@
       <c r="B34" s="86" t="s">
         <v>1732</v>
       </c>
-      <c r="C34" s="86" t="s">
-        <v>702</v>
+      <c r="C34" s="87" t="s">
+        <v>381</v>
       </c>
       <c r="D34" s="87" t="s">
         <v>381</v>
       </c>
-      <c r="E34" s="87" t="s">
-        <v>381</v>
+      <c r="E34" s="86" t="s">
+        <v>702</v>
       </c>
       <c r="F34" s="87" t="s">
         <v>576</v>
@@ -13987,14 +14037,14 @@
       <c r="B35" s="86" t="s">
         <v>1732</v>
       </c>
-      <c r="C35" s="86" t="s">
+      <c r="C35" s="87" t="s">
+        <v>425</v>
+      </c>
+      <c r="D35" s="87" t="s">
+        <v>597</v>
+      </c>
+      <c r="E35" s="86" t="s">
         <v>719</v>
-      </c>
-      <c r="D35" s="87" t="s">
-        <v>425</v>
-      </c>
-      <c r="E35" s="87" t="s">
-        <v>597</v>
       </c>
       <c r="F35" s="87" t="s">
         <v>592</v>
@@ -14010,14 +14060,14 @@
       <c r="B36" s="86" t="s">
         <v>1732</v>
       </c>
-      <c r="C36" s="86" t="s">
-        <v>759</v>
+      <c r="C36" s="87" t="s">
+        <v>421</v>
       </c>
       <c r="D36" s="87" t="s">
         <v>421</v>
       </c>
-      <c r="E36" s="87" t="s">
-        <v>421</v>
+      <c r="E36" s="86" t="s">
+        <v>759</v>
       </c>
       <c r="F36" s="87" t="s">
         <v>307</v>
@@ -14033,14 +14083,14 @@
       <c r="B37" s="86" t="s">
         <v>1732</v>
       </c>
-      <c r="C37" s="86" t="s">
-        <v>703</v>
+      <c r="C37" s="87" t="s">
+        <v>382</v>
       </c>
       <c r="D37" s="87" t="s">
         <v>382</v>
       </c>
-      <c r="E37" s="87" t="s">
-        <v>382</v>
+      <c r="E37" s="86" t="s">
+        <v>703</v>
       </c>
       <c r="F37" s="87" t="s">
         <v>583</v>
@@ -14056,14 +14106,14 @@
       <c r="B38" s="86" t="s">
         <v>1732</v>
       </c>
-      <c r="C38" s="86" t="s">
+      <c r="C38" s="87" t="s">
+        <v>402</v>
+      </c>
+      <c r="D38" s="87" t="s">
+        <v>598</v>
+      </c>
+      <c r="E38" s="86" t="s">
         <v>704</v>
-      </c>
-      <c r="D38" s="87" t="s">
-        <v>402</v>
-      </c>
-      <c r="E38" s="87" t="s">
-        <v>598</v>
       </c>
       <c r="F38" s="87" t="s">
         <v>599</v>
@@ -14079,14 +14129,14 @@
       <c r="B39" s="86" t="s">
         <v>1732</v>
       </c>
-      <c r="C39" s="86" t="s">
+      <c r="C39" s="87" t="s">
+        <v>405</v>
+      </c>
+      <c r="D39" s="87" t="s">
+        <v>578</v>
+      </c>
+      <c r="E39" s="86" t="s">
         <v>705</v>
-      </c>
-      <c r="D39" s="87" t="s">
-        <v>405</v>
-      </c>
-      <c r="E39" s="87" t="s">
-        <v>578</v>
       </c>
       <c r="F39" s="87" t="s">
         <v>587</v>
@@ -14102,14 +14152,14 @@
       <c r="B40" s="86" t="s">
         <v>1732</v>
       </c>
-      <c r="C40" s="86" t="s">
-        <v>706</v>
+      <c r="C40" s="87" t="s">
+        <v>383</v>
       </c>
       <c r="D40" s="87" t="s">
         <v>383</v>
       </c>
-      <c r="E40" s="87" t="s">
-        <v>383</v>
+      <c r="E40" s="86" t="s">
+        <v>706</v>
       </c>
       <c r="F40" s="87" t="s">
         <v>584</v>
@@ -14125,14 +14175,14 @@
       <c r="B41" s="86" t="s">
         <v>1732</v>
       </c>
-      <c r="C41" s="86" t="s">
-        <v>707</v>
+      <c r="C41" s="87" t="s">
+        <v>384</v>
       </c>
       <c r="D41" s="87" t="s">
         <v>384</v>
       </c>
-      <c r="E41" s="87" t="s">
-        <v>384</v>
+      <c r="E41" s="86" t="s">
+        <v>707</v>
       </c>
       <c r="F41" s="87" t="s">
         <v>273</v>
@@ -14148,14 +14198,14 @@
       <c r="B42" s="86" t="s">
         <v>1732</v>
       </c>
-      <c r="C42" s="86" t="s">
-        <v>708</v>
+      <c r="C42" s="87" t="s">
+        <v>385</v>
       </c>
       <c r="D42" s="87" t="s">
         <v>385</v>
       </c>
-      <c r="E42" s="87" t="s">
-        <v>385</v>
+      <c r="E42" s="86" t="s">
+        <v>708</v>
       </c>
       <c r="F42" s="87" t="s">
         <v>579</v>
@@ -14171,14 +14221,14 @@
       <c r="B43" s="86" t="s">
         <v>1732</v>
       </c>
-      <c r="C43" s="86" t="s">
-        <v>709</v>
+      <c r="C43" s="87" t="s">
+        <v>387</v>
       </c>
       <c r="D43" s="87" t="s">
         <v>387</v>
       </c>
-      <c r="E43" s="87" t="s">
-        <v>387</v>
+      <c r="E43" s="86" t="s">
+        <v>709</v>
       </c>
       <c r="F43" s="87" t="s">
         <v>580</v>
@@ -14194,14 +14244,14 @@
       <c r="B44" s="87" t="s">
         <v>1733</v>
       </c>
-      <c r="C44" s="86" t="s">
+      <c r="C44" s="87" t="s">
+        <v>343</v>
+      </c>
+      <c r="D44" s="87" t="s">
+        <v>601</v>
+      </c>
+      <c r="E44" s="86" t="s">
         <v>487</v>
-      </c>
-      <c r="D44" s="87" t="s">
-        <v>343</v>
-      </c>
-      <c r="E44" s="87" t="s">
-        <v>601</v>
       </c>
       <c r="F44" s="87" t="s">
         <v>316</v>
@@ -14217,14 +14267,14 @@
       <c r="B45" s="87" t="s">
         <v>1733</v>
       </c>
-      <c r="C45" s="86" t="s">
+      <c r="C45" s="87" t="s">
+        <v>342</v>
+      </c>
+      <c r="D45" s="87" t="s">
+        <v>317</v>
+      </c>
+      <c r="E45" s="86" t="s">
         <v>488</v>
-      </c>
-      <c r="D45" s="87" t="s">
-        <v>342</v>
-      </c>
-      <c r="E45" s="87" t="s">
-        <v>317</v>
       </c>
       <c r="F45" s="87" t="s">
         <v>602</v>
@@ -14240,14 +14290,14 @@
       <c r="B46" s="87" t="s">
         <v>1733</v>
       </c>
-      <c r="C46" s="86" t="s">
+      <c r="C46" s="87" t="s">
+        <v>455</v>
+      </c>
+      <c r="D46" s="87" t="s">
+        <v>1785</v>
+      </c>
+      <c r="E46" s="86" t="s">
         <v>489</v>
-      </c>
-      <c r="D46" s="87" t="s">
-        <v>455</v>
-      </c>
-      <c r="E46" s="87" t="s">
-        <v>1785</v>
       </c>
       <c r="F46" s="87" t="s">
         <v>1559</v>
@@ -14263,14 +14313,14 @@
       <c r="B47" s="149" t="s">
         <v>1734</v>
       </c>
-      <c r="C47" s="86" t="s">
+      <c r="C47" s="87" t="s">
+        <v>457</v>
+      </c>
+      <c r="D47" s="87" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E47" s="86" t="s">
         <v>720</v>
-      </c>
-      <c r="D47" s="87" t="s">
-        <v>457</v>
-      </c>
-      <c r="E47" s="87" t="s">
-        <v>1786</v>
       </c>
       <c r="F47" s="87" t="s">
         <v>1558</v>
@@ -14286,14 +14336,14 @@
       <c r="B48" s="149" t="s">
         <v>1734</v>
       </c>
-      <c r="C48" s="86" t="s">
+      <c r="C48" s="87" t="s">
+        <v>279</v>
+      </c>
+      <c r="D48" s="87" t="s">
+        <v>1787</v>
+      </c>
+      <c r="E48" s="86" t="s">
         <v>721</v>
-      </c>
-      <c r="D48" s="87" t="s">
-        <v>279</v>
-      </c>
-      <c r="E48" s="87" t="s">
-        <v>1787</v>
       </c>
       <c r="F48" s="87" t="s">
         <v>1810</v>
@@ -14309,14 +14359,14 @@
       <c r="B49" s="149" t="s">
         <v>1734</v>
       </c>
-      <c r="C49" s="86" t="s">
+      <c r="C49" s="87" t="s">
+        <v>306</v>
+      </c>
+      <c r="D49" s="87" t="s">
+        <v>1788</v>
+      </c>
+      <c r="E49" s="86" t="s">
         <v>722</v>
-      </c>
-      <c r="D49" s="87" t="s">
-        <v>306</v>
-      </c>
-      <c r="E49" s="87" t="s">
-        <v>1788</v>
       </c>
       <c r="F49" s="87" t="s">
         <v>1811</v>
@@ -14332,14 +14382,14 @@
       <c r="B50" s="149" t="s">
         <v>1734</v>
       </c>
-      <c r="C50" s="86" t="s">
+      <c r="C50" s="87" t="s">
+        <v>451</v>
+      </c>
+      <c r="D50" s="87" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E50" s="86" t="s">
         <v>723</v>
-      </c>
-      <c r="D50" s="87" t="s">
-        <v>451</v>
-      </c>
-      <c r="E50" s="87" t="s">
-        <v>1789</v>
       </c>
       <c r="F50" s="87" t="s">
         <v>1812</v>
@@ -14355,14 +14405,14 @@
       <c r="B51" s="149" t="s">
         <v>1734</v>
       </c>
-      <c r="C51" s="86" t="s">
+      <c r="C51" s="87" t="s">
+        <v>449</v>
+      </c>
+      <c r="D51" s="87" t="s">
+        <v>619</v>
+      </c>
+      <c r="E51" s="86" t="s">
         <v>724</v>
-      </c>
-      <c r="D51" s="87" t="s">
-        <v>449</v>
-      </c>
-      <c r="E51" s="87" t="s">
-        <v>619</v>
       </c>
       <c r="F51" s="87" t="s">
         <v>1813</v>
@@ -14378,14 +14428,14 @@
       <c r="B52" s="149" t="s">
         <v>1735</v>
       </c>
-      <c r="C52" s="86" t="s">
+      <c r="C52" s="87" t="s">
+        <v>456</v>
+      </c>
+      <c r="D52" s="87" t="s">
+        <v>1790</v>
+      </c>
+      <c r="E52" s="86" t="s">
         <v>725</v>
-      </c>
-      <c r="D52" s="87" t="s">
-        <v>456</v>
-      </c>
-      <c r="E52" s="87" t="s">
-        <v>1790</v>
       </c>
       <c r="F52" s="87" t="s">
         <v>1557</v>
@@ -14401,14 +14451,14 @@
       <c r="B53" s="149" t="s">
         <v>1735</v>
       </c>
-      <c r="C53" s="86" t="s">
+      <c r="C53" s="87" t="s">
+        <v>278</v>
+      </c>
+      <c r="D53" s="87" t="s">
+        <v>1791</v>
+      </c>
+      <c r="E53" s="86" t="s">
         <v>726</v>
-      </c>
-      <c r="D53" s="87" t="s">
-        <v>278</v>
-      </c>
-      <c r="E53" s="87" t="s">
-        <v>1791</v>
       </c>
       <c r="F53" s="87" t="s">
         <v>1814</v>
@@ -14424,14 +14474,14 @@
       <c r="B54" s="149" t="s">
         <v>1735</v>
       </c>
-      <c r="C54" s="86" t="s">
+      <c r="C54" s="87" t="s">
+        <v>305</v>
+      </c>
+      <c r="D54" s="87" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E54" s="86" t="s">
         <v>727</v>
-      </c>
-      <c r="D54" s="87" t="s">
-        <v>305</v>
-      </c>
-      <c r="E54" s="87" t="s">
-        <v>1792</v>
       </c>
       <c r="F54" s="87" t="s">
         <v>1815</v>
@@ -14447,14 +14497,14 @@
       <c r="B55" s="149" t="s">
         <v>1735</v>
       </c>
-      <c r="C55" s="86" t="s">
+      <c r="C55" s="87" t="s">
+        <v>450</v>
+      </c>
+      <c r="D55" s="87" t="s">
+        <v>1793</v>
+      </c>
+      <c r="E55" s="86" t="s">
         <v>728</v>
-      </c>
-      <c r="D55" s="87" t="s">
-        <v>450</v>
-      </c>
-      <c r="E55" s="87" t="s">
-        <v>1793</v>
       </c>
       <c r="F55" s="87" t="s">
         <v>1816</v>
@@ -14470,14 +14520,14 @@
       <c r="B56" s="149" t="s">
         <v>1735</v>
       </c>
-      <c r="C56" s="86" t="s">
+      <c r="C56" s="87" t="s">
+        <v>448</v>
+      </c>
+      <c r="D56" s="87" t="s">
+        <v>619</v>
+      </c>
+      <c r="E56" s="86" t="s">
         <v>729</v>
-      </c>
-      <c r="D56" s="87" t="s">
-        <v>448</v>
-      </c>
-      <c r="E56" s="87" t="s">
-        <v>619</v>
       </c>
       <c r="F56" s="87" t="s">
         <v>1817</v>
@@ -14493,14 +14543,14 @@
       <c r="B57" s="87" t="s">
         <v>1733</v>
       </c>
-      <c r="C57" s="86" t="s">
+      <c r="C57" s="87" t="s">
+        <v>280</v>
+      </c>
+      <c r="D57" s="87" t="s">
+        <v>1794</v>
+      </c>
+      <c r="E57" s="86" t="s">
         <v>490</v>
-      </c>
-      <c r="D57" s="87" t="s">
-        <v>280</v>
-      </c>
-      <c r="E57" s="87" t="s">
-        <v>1794</v>
       </c>
       <c r="F57" s="87" t="s">
         <v>1818</v>
@@ -14516,14 +14566,14 @@
       <c r="B58" s="86" t="s">
         <v>1736</v>
       </c>
-      <c r="C58" s="86" t="s">
+      <c r="C58" s="87" t="s">
+        <v>340</v>
+      </c>
+      <c r="D58" s="87" t="s">
+        <v>1795</v>
+      </c>
+      <c r="E58" s="86" t="s">
         <v>730</v>
-      </c>
-      <c r="D58" s="87" t="s">
-        <v>340</v>
-      </c>
-      <c r="E58" s="87" t="s">
-        <v>1795</v>
       </c>
       <c r="F58" s="87" t="s">
         <v>1554</v>
@@ -14539,14 +14589,14 @@
       <c r="B59" s="86" t="s">
         <v>1736</v>
       </c>
-      <c r="C59" s="86" t="s">
+      <c r="C59" s="87" t="s">
+        <v>339</v>
+      </c>
+      <c r="D59" s="87" t="s">
+        <v>1796</v>
+      </c>
+      <c r="E59" s="86" t="s">
         <v>731</v>
-      </c>
-      <c r="D59" s="87" t="s">
-        <v>339</v>
-      </c>
-      <c r="E59" s="87" t="s">
-        <v>1796</v>
       </c>
       <c r="F59" s="87" t="s">
         <v>1555</v>
@@ -14562,14 +14612,14 @@
       <c r="B60" s="86" t="s">
         <v>1736</v>
       </c>
-      <c r="C60" s="86" t="s">
+      <c r="C60" s="87" t="s">
+        <v>341</v>
+      </c>
+      <c r="D60" s="87" t="s">
+        <v>1797</v>
+      </c>
+      <c r="E60" s="86" t="s">
         <v>732</v>
-      </c>
-      <c r="D60" s="87" t="s">
-        <v>341</v>
-      </c>
-      <c r="E60" s="87" t="s">
-        <v>1797</v>
       </c>
       <c r="F60" s="87" t="s">
         <v>1556</v>
@@ -14585,14 +14635,14 @@
       <c r="B61" s="86" t="s">
         <v>1736</v>
       </c>
-      <c r="C61" s="86" t="s">
+      <c r="C61" s="87" t="s">
+        <v>296</v>
+      </c>
+      <c r="D61" s="87" t="s">
+        <v>1798</v>
+      </c>
+      <c r="E61" s="86" t="s">
         <v>733</v>
-      </c>
-      <c r="D61" s="87" t="s">
-        <v>296</v>
-      </c>
-      <c r="E61" s="87" t="s">
-        <v>1798</v>
       </c>
       <c r="F61" s="87" t="s">
         <v>1819</v>
@@ -14608,14 +14658,14 @@
       <c r="B62" s="86" t="s">
         <v>1736</v>
       </c>
-      <c r="C62" s="86" t="s">
+      <c r="C62" s="87" t="s">
+        <v>295</v>
+      </c>
+      <c r="D62" s="87" t="s">
+        <v>1799</v>
+      </c>
+      <c r="E62" s="86" t="s">
         <v>734</v>
-      </c>
-      <c r="D62" s="87" t="s">
-        <v>295</v>
-      </c>
-      <c r="E62" s="87" t="s">
-        <v>1799</v>
       </c>
       <c r="F62" s="87" t="s">
         <v>1820</v>
@@ -14631,14 +14681,14 @@
       <c r="B63" s="86" t="s">
         <v>1737</v>
       </c>
-      <c r="C63" s="86" t="s">
-        <v>736</v>
+      <c r="C63" s="87" t="s">
+        <v>433</v>
       </c>
       <c r="D63" s="87" t="s">
         <v>433</v>
       </c>
-      <c r="E63" s="87" t="s">
-        <v>433</v>
+      <c r="E63" s="86" t="s">
+        <v>736</v>
       </c>
       <c r="F63" s="87" t="s">
         <v>1263</v>
@@ -14654,14 +14704,14 @@
       <c r="B64" s="86" t="s">
         <v>1737</v>
       </c>
-      <c r="C64" s="86" t="s">
-        <v>735</v>
+      <c r="C64" s="87" t="s">
+        <v>454</v>
       </c>
       <c r="D64" s="87" t="s">
         <v>454</v>
       </c>
-      <c r="E64" s="87" t="s">
-        <v>454</v>
+      <c r="E64" s="86" t="s">
+        <v>735</v>
       </c>
       <c r="F64" s="87" t="s">
         <v>1264</v>
@@ -14677,14 +14727,14 @@
       <c r="B65" s="86" t="s">
         <v>1737</v>
       </c>
-      <c r="C65" s="86" t="s">
-        <v>737</v>
+      <c r="C65" s="87" t="s">
+        <v>453</v>
       </c>
       <c r="D65" s="87" t="s">
         <v>453</v>
       </c>
-      <c r="E65" s="87" t="s">
-        <v>453</v>
+      <c r="E65" s="86" t="s">
+        <v>737</v>
       </c>
       <c r="F65" s="87" t="s">
         <v>1265</v>
@@ -14700,14 +14750,14 @@
       <c r="B66" s="87" t="s">
         <v>1738</v>
       </c>
-      <c r="C66" s="86" t="s">
+      <c r="C66" s="87" t="s">
+        <v>331</v>
+      </c>
+      <c r="D66" s="87" t="s">
+        <v>670</v>
+      </c>
+      <c r="E66" s="86" t="s">
         <v>738</v>
-      </c>
-      <c r="D66" s="87" t="s">
-        <v>331</v>
-      </c>
-      <c r="E66" s="87" t="s">
-        <v>670</v>
       </c>
       <c r="F66" s="87" t="s">
         <v>676</v>
@@ -14723,14 +14773,14 @@
       <c r="B67" s="87" t="s">
         <v>1738</v>
       </c>
-      <c r="C67" s="86" t="s">
+      <c r="C67" s="87" t="s">
+        <v>325</v>
+      </c>
+      <c r="D67" s="87" t="s">
+        <v>517</v>
+      </c>
+      <c r="E67" s="86" t="s">
         <v>739</v>
-      </c>
-      <c r="D67" s="87" t="s">
-        <v>325</v>
-      </c>
-      <c r="E67" s="87" t="s">
-        <v>517</v>
       </c>
       <c r="F67" s="87" t="s">
         <v>669</v>
@@ -14746,14 +14796,14 @@
       <c r="B68" s="87" t="s">
         <v>1738</v>
       </c>
-      <c r="C68" s="86" t="s">
+      <c r="C68" s="87" t="s">
+        <v>400</v>
+      </c>
+      <c r="D68" s="87" t="s">
+        <v>671</v>
+      </c>
+      <c r="E68" s="86" t="s">
         <v>740</v>
-      </c>
-      <c r="D68" s="87" t="s">
-        <v>400</v>
-      </c>
-      <c r="E68" s="87" t="s">
-        <v>671</v>
       </c>
       <c r="F68" s="87" t="s">
         <v>672</v>
@@ -14769,14 +14819,14 @@
       <c r="B69" s="87" t="s">
         <v>1738</v>
       </c>
-      <c r="C69" s="86" t="s">
+      <c r="C69" s="87" t="s">
+        <v>407</v>
+      </c>
+      <c r="D69" s="87" t="s">
+        <v>406</v>
+      </c>
+      <c r="E69" s="86" t="s">
         <v>741</v>
-      </c>
-      <c r="D69" s="87" t="s">
-        <v>407</v>
-      </c>
-      <c r="E69" s="87" t="s">
-        <v>406</v>
       </c>
       <c r="F69" s="87"/>
       <c r="G69" s="87"/>
@@ -14788,14 +14838,14 @@
       <c r="B70" s="87" t="s">
         <v>1738</v>
       </c>
-      <c r="C70" s="86" t="s">
+      <c r="C70" s="87" t="s">
+        <v>414</v>
+      </c>
+      <c r="D70" s="87" t="s">
+        <v>302</v>
+      </c>
+      <c r="E70" s="86" t="s">
         <v>742</v>
-      </c>
-      <c r="D70" s="87" t="s">
-        <v>414</v>
-      </c>
-      <c r="E70" s="87" t="s">
-        <v>302</v>
       </c>
       <c r="F70" s="87"/>
       <c r="G70" s="87"/>
@@ -14807,14 +14857,14 @@
       <c r="B71" s="87" t="s">
         <v>1738</v>
       </c>
-      <c r="C71" s="86" t="s">
+      <c r="C71" s="87" t="s">
+        <v>422</v>
+      </c>
+      <c r="D71" s="87" t="s">
+        <v>675</v>
+      </c>
+      <c r="E71" s="86" t="s">
         <v>743</v>
-      </c>
-      <c r="D71" s="87" t="s">
-        <v>422</v>
-      </c>
-      <c r="E71" s="87" t="s">
-        <v>675</v>
       </c>
       <c r="F71" s="87"/>
       <c r="G71" s="87"/>
@@ -14826,14 +14876,14 @@
       <c r="B72" s="87" t="s">
         <v>1739</v>
       </c>
-      <c r="C72" s="86" t="s">
-        <v>744</v>
+      <c r="C72" s="87" t="s">
+        <v>358</v>
       </c>
       <c r="D72" s="87" t="s">
         <v>358</v>
       </c>
-      <c r="E72" s="87" t="s">
-        <v>358</v>
+      <c r="E72" s="86" t="s">
+        <v>744</v>
       </c>
       <c r="F72" s="87" t="s">
         <v>673</v>
@@ -14849,14 +14899,14 @@
       <c r="B73" s="87" t="s">
         <v>1739</v>
       </c>
-      <c r="C73" s="86" t="s">
+      <c r="C73" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="D73" s="87" t="s">
+        <v>678</v>
+      </c>
+      <c r="E73" s="86" t="s">
         <v>745</v>
-      </c>
-      <c r="D73" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="E73" s="87" t="s">
-        <v>678</v>
       </c>
       <c r="F73" s="87"/>
       <c r="G73" s="87"/>
@@ -14868,14 +14918,14 @@
       <c r="B74" s="87" t="s">
         <v>1739</v>
       </c>
-      <c r="C74" s="86" t="s">
+      <c r="C74" s="82" t="s">
+        <v>359</v>
+      </c>
+      <c r="D74" s="87" t="s">
+        <v>359</v>
+      </c>
+      <c r="E74" s="86" t="s">
         <v>746</v>
-      </c>
-      <c r="D74" s="82" t="s">
-        <v>359</v>
-      </c>
-      <c r="E74" s="87" t="s">
-        <v>359</v>
       </c>
       <c r="F74" s="87"/>
       <c r="G74" s="87"/>
@@ -14887,14 +14937,14 @@
       <c r="B75" s="87" t="s">
         <v>1740</v>
       </c>
-      <c r="C75" s="86" t="s">
-        <v>747</v>
+      <c r="C75" s="87" t="s">
+        <v>460</v>
       </c>
       <c r="D75" s="87" t="s">
         <v>460</v>
       </c>
-      <c r="E75" s="87" t="s">
-        <v>460</v>
+      <c r="E75" s="86" t="s">
+        <v>747</v>
       </c>
       <c r="F75" s="87"/>
       <c r="G75" s="87"/>
@@ -14906,14 +14956,14 @@
       <c r="B76" s="87" t="s">
         <v>1740</v>
       </c>
-      <c r="C76" s="86" t="s">
-        <v>748</v>
+      <c r="C76" s="87" t="s">
+        <v>375</v>
       </c>
       <c r="D76" s="87" t="s">
         <v>375</v>
       </c>
-      <c r="E76" s="87" t="s">
-        <v>375</v>
+      <c r="E76" s="86" t="s">
+        <v>748</v>
       </c>
       <c r="F76" s="87"/>
       <c r="G76" s="87"/>
@@ -14925,14 +14975,14 @@
       <c r="B77" s="87" t="s">
         <v>1740</v>
       </c>
-      <c r="C77" s="86" t="s">
-        <v>749</v>
+      <c r="C77" s="87" t="s">
+        <v>376</v>
       </c>
       <c r="D77" s="87" t="s">
         <v>376</v>
       </c>
-      <c r="E77" s="87" t="s">
-        <v>376</v>
+      <c r="E77" s="86" t="s">
+        <v>749</v>
       </c>
       <c r="F77" s="87"/>
       <c r="G77" s="87"/>
@@ -14944,14 +14994,14 @@
       <c r="B78" s="87" t="s">
         <v>1742</v>
       </c>
-      <c r="C78" s="86" t="s">
+      <c r="C78" s="87" t="s">
+        <v>392</v>
+      </c>
+      <c r="D78" s="87" t="s">
+        <v>274</v>
+      </c>
+      <c r="E78" s="86" t="s">
         <v>750</v>
-      </c>
-      <c r="D78" s="87" t="s">
-        <v>392</v>
-      </c>
-      <c r="E78" s="87" t="s">
-        <v>274</v>
       </c>
       <c r="F78" s="87"/>
       <c r="G78" s="87"/>
@@ -14963,14 +15013,14 @@
       <c r="B79" s="87" t="s">
         <v>1742</v>
       </c>
-      <c r="C79" s="86" t="s">
+      <c r="C79" s="87" t="s">
+        <v>386</v>
+      </c>
+      <c r="D79" s="87" t="s">
+        <v>679</v>
+      </c>
+      <c r="E79" s="86" t="s">
         <v>751</v>
-      </c>
-      <c r="D79" s="87" t="s">
-        <v>386</v>
-      </c>
-      <c r="E79" s="87" t="s">
-        <v>679</v>
       </c>
       <c r="F79" s="87"/>
       <c r="G79" s="87"/>
@@ -14982,14 +15032,14 @@
       <c r="B80" s="87" t="s">
         <v>1742</v>
       </c>
-      <c r="C80" s="86" t="s">
+      <c r="C80" s="87" t="s">
+        <v>142</v>
+      </c>
+      <c r="D80" s="87" t="s">
+        <v>506</v>
+      </c>
+      <c r="E80" s="86" t="s">
         <v>752</v>
-      </c>
-      <c r="D80" s="87" t="s">
-        <v>142</v>
-      </c>
-      <c r="E80" s="87" t="s">
-        <v>506</v>
       </c>
       <c r="F80" s="87"/>
       <c r="G80" s="87"/>
@@ -15001,14 +15051,14 @@
       <c r="B81" s="87" t="s">
         <v>1741</v>
       </c>
-      <c r="C81" s="86" t="s">
+      <c r="C81" s="87" t="s">
+        <v>332</v>
+      </c>
+      <c r="D81" s="87" t="s">
+        <v>680</v>
+      </c>
+      <c r="E81" s="86" t="s">
         <v>753</v>
-      </c>
-      <c r="D81" s="87" t="s">
-        <v>332</v>
-      </c>
-      <c r="E81" s="87" t="s">
-        <v>680</v>
       </c>
       <c r="F81" s="87"/>
       <c r="G81" s="87"/>
@@ -15020,14 +15070,14 @@
       <c r="B82" s="87" t="s">
         <v>1741</v>
       </c>
-      <c r="C82" s="86" t="s">
+      <c r="C82" s="87" t="s">
+        <v>335</v>
+      </c>
+      <c r="D82" s="87" t="s">
+        <v>681</v>
+      </c>
+      <c r="E82" s="86" t="s">
         <v>754</v>
-      </c>
-      <c r="D82" s="87" t="s">
-        <v>335</v>
-      </c>
-      <c r="E82" s="87" t="s">
-        <v>681</v>
       </c>
       <c r="F82" s="87"/>
       <c r="G82" s="87"/>
@@ -15039,14 +15089,14 @@
       <c r="B83" s="87" t="s">
         <v>1741</v>
       </c>
-      <c r="C83" s="86" t="s">
+      <c r="C83" s="87" t="s">
+        <v>334</v>
+      </c>
+      <c r="D83" s="87" t="s">
+        <v>682</v>
+      </c>
+      <c r="E83" s="86" t="s">
         <v>755</v>
-      </c>
-      <c r="D83" s="87" t="s">
-        <v>334</v>
-      </c>
-      <c r="E83" s="87" t="s">
-        <v>682</v>
       </c>
       <c r="F83" s="87"/>
       <c r="G83" s="87"/>
@@ -15058,14 +15108,14 @@
       <c r="B84" s="87" t="s">
         <v>1741</v>
       </c>
-      <c r="C84" s="86" t="s">
+      <c r="C84" s="87" t="s">
+        <v>337</v>
+      </c>
+      <c r="D84" s="87" t="s">
+        <v>683</v>
+      </c>
+      <c r="E84" s="86" t="s">
         <v>756</v>
-      </c>
-      <c r="D84" s="87" t="s">
-        <v>337</v>
-      </c>
-      <c r="E84" s="87" t="s">
-        <v>683</v>
       </c>
       <c r="F84" s="87"/>
       <c r="G84" s="87"/>
@@ -15077,14 +15127,14 @@
       <c r="B85" s="87" t="s">
         <v>1741</v>
       </c>
-      <c r="C85" s="86" t="s">
+      <c r="C85" s="87" t="s">
+        <v>330</v>
+      </c>
+      <c r="D85" s="87" t="s">
+        <v>784</v>
+      </c>
+      <c r="E85" s="86" t="s">
         <v>757</v>
-      </c>
-      <c r="D85" s="87" t="s">
-        <v>330</v>
-      </c>
-      <c r="E85" s="87" t="s">
-        <v>784</v>
       </c>
       <c r="F85" s="87"/>
       <c r="G85" s="87"/>
@@ -15096,14 +15146,14 @@
       <c r="B86" s="87" t="s">
         <v>1741</v>
       </c>
-      <c r="C86" s="86" t="s">
+      <c r="C86" s="87" t="s">
+        <v>333</v>
+      </c>
+      <c r="D86" s="87" t="s">
+        <v>684</v>
+      </c>
+      <c r="E86" s="86" t="s">
         <v>758</v>
-      </c>
-      <c r="D86" s="87" t="s">
-        <v>333</v>
-      </c>
-      <c r="E86" s="87" t="s">
-        <v>684</v>
       </c>
       <c r="F86" s="87"/>
       <c r="G86" s="87"/>
@@ -15115,14 +15165,14 @@
       <c r="B87" s="87" t="s">
         <v>1741</v>
       </c>
-      <c r="C87" s="86" t="s">
+      <c r="C87" s="87" t="s">
+        <v>336</v>
+      </c>
+      <c r="D87" s="87" t="s">
+        <v>685</v>
+      </c>
+      <c r="E87" s="86" t="s">
         <v>792</v>
-      </c>
-      <c r="D87" s="87" t="s">
-        <v>336</v>
-      </c>
-      <c r="E87" s="87" t="s">
-        <v>685</v>
       </c>
       <c r="F87" s="87"/>
       <c r="G87" s="87"/>
@@ -15134,14 +15184,14 @@
       <c r="B88" s="87" t="s">
         <v>1741</v>
       </c>
-      <c r="C88" s="86" t="s">
+      <c r="C88" s="87" t="s">
+        <v>329</v>
+      </c>
+      <c r="D88" s="87" t="s">
+        <v>783</v>
+      </c>
+      <c r="E88" s="86" t="s">
         <v>793</v>
-      </c>
-      <c r="D88" s="87" t="s">
-        <v>329</v>
-      </c>
-      <c r="E88" s="87" t="s">
-        <v>783</v>
       </c>
       <c r="F88" s="87"/>
       <c r="G88" s="87"/>
@@ -15153,14 +15203,14 @@
       <c r="B89" s="87" t="s">
         <v>1743</v>
       </c>
-      <c r="C89" s="86" t="s">
+      <c r="C89" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="D89" s="87" t="s">
+        <v>762</v>
+      </c>
+      <c r="E89" s="86" t="s">
         <v>869</v>
-      </c>
-      <c r="D89" s="82" t="s">
-        <v>26</v>
-      </c>
-      <c r="E89" s="87" t="s">
-        <v>762</v>
       </c>
       <c r="F89" s="87" t="s">
         <v>761</v>
@@ -15176,14 +15226,14 @@
       <c r="B90" s="87" t="s">
         <v>1743</v>
       </c>
-      <c r="C90" s="86" t="s">
-        <v>878</v>
+      <c r="C90" s="87" t="s">
+        <v>398</v>
       </c>
       <c r="D90" s="87" t="s">
         <v>398</v>
       </c>
-      <c r="E90" s="87" t="s">
-        <v>398</v>
+      <c r="E90" s="86" t="s">
+        <v>878</v>
       </c>
       <c r="F90" s="87" t="s">
         <v>1241</v>
@@ -15199,14 +15249,14 @@
       <c r="B91" s="87" t="s">
         <v>1743</v>
       </c>
-      <c r="C91" s="86" t="s">
+      <c r="C91" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="D91" s="87" t="s">
+        <v>798</v>
+      </c>
+      <c r="E91" s="86" t="s">
         <v>879</v>
-      </c>
-      <c r="D91" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="E91" s="87" t="s">
-        <v>798</v>
       </c>
       <c r="F91" s="87" t="s">
         <v>799</v>
@@ -15222,14 +15272,14 @@
       <c r="B92" s="87" t="s">
         <v>1743</v>
       </c>
-      <c r="C92" s="86" t="s">
+      <c r="C92" s="87" t="s">
+        <v>452</v>
+      </c>
+      <c r="D92" s="87" t="s">
+        <v>806</v>
+      </c>
+      <c r="E92" s="86" t="s">
         <v>870</v>
-      </c>
-      <c r="D92" s="87" t="s">
-        <v>452</v>
-      </c>
-      <c r="E92" s="87" t="s">
-        <v>806</v>
       </c>
       <c r="F92" s="87" t="s">
         <v>291</v>
@@ -15245,14 +15295,14 @@
       <c r="B93" s="87" t="s">
         <v>1743</v>
       </c>
-      <c r="C93" s="86" t="s">
+      <c r="C93" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="D93" s="87" t="s">
+        <v>795</v>
+      </c>
+      <c r="E93" s="86" t="s">
         <v>871</v>
-      </c>
-      <c r="D93" s="87" t="s">
-        <v>85</v>
-      </c>
-      <c r="E93" s="87" t="s">
-        <v>795</v>
       </c>
       <c r="F93" s="87" t="s">
         <v>284</v>
@@ -15268,14 +15318,14 @@
       <c r="B94" s="87" t="s">
         <v>1743</v>
       </c>
-      <c r="C94" s="86" t="s">
+      <c r="C94" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" s="87" t="s">
+        <v>763</v>
+      </c>
+      <c r="E94" s="86" t="s">
         <v>872</v>
-      </c>
-      <c r="D94" s="87" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="87" t="s">
-        <v>763</v>
       </c>
       <c r="F94" s="87"/>
       <c r="G94" s="87"/>
@@ -15287,14 +15337,14 @@
       <c r="B95" s="87" t="s">
         <v>1743</v>
       </c>
-      <c r="C95" s="86" t="s">
+      <c r="C95" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="D95" s="87" t="s">
+        <v>804</v>
+      </c>
+      <c r="E95" s="86" t="s">
         <v>873</v>
-      </c>
-      <c r="D95" s="87" t="s">
-        <v>80</v>
-      </c>
-      <c r="E95" s="87" t="s">
-        <v>804</v>
       </c>
       <c r="F95" s="87"/>
       <c r="G95" s="87"/>
@@ -15306,14 +15356,14 @@
       <c r="B96" s="87" t="s">
         <v>1743</v>
       </c>
-      <c r="C96" s="86" t="s">
+      <c r="C96" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="D96" s="87" t="s">
+        <v>805</v>
+      </c>
+      <c r="E96" s="86" t="s">
         <v>874</v>
-      </c>
-      <c r="D96" s="87" t="s">
-        <v>186</v>
-      </c>
-      <c r="E96" s="87" t="s">
-        <v>805</v>
       </c>
       <c r="F96" s="87"/>
       <c r="G96" s="87"/>
@@ -15325,14 +15375,14 @@
       <c r="B97" s="87" t="s">
         <v>1743</v>
       </c>
-      <c r="C97" s="86" t="s">
+      <c r="C97" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="D97" s="87" t="s">
+        <v>800</v>
+      </c>
+      <c r="E97" s="86" t="s">
         <v>875</v>
-      </c>
-      <c r="D97" s="87" t="s">
-        <v>22</v>
-      </c>
-      <c r="E97" s="87" t="s">
-        <v>800</v>
       </c>
       <c r="F97" s="87" t="s">
         <v>272</v>
@@ -15348,14 +15398,14 @@
       <c r="B98" s="87" t="s">
         <v>1743</v>
       </c>
-      <c r="C98" s="86" t="s">
+      <c r="C98" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="D98" s="87" t="s">
+        <v>833</v>
+      </c>
+      <c r="E98" s="86" t="s">
         <v>876</v>
-      </c>
-      <c r="D98" s="87" t="s">
-        <v>139</v>
-      </c>
-      <c r="E98" s="87" t="s">
-        <v>833</v>
       </c>
       <c r="F98" s="87" t="s">
         <v>297</v>
@@ -15371,14 +15421,14 @@
       <c r="B99" s="87" t="s">
         <v>1743</v>
       </c>
-      <c r="C99" s="86" t="s">
+      <c r="C99" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="D99" s="87" t="s">
+        <v>797</v>
+      </c>
+      <c r="E99" s="86" t="s">
         <v>877</v>
-      </c>
-      <c r="D99" s="87" t="s">
-        <v>95</v>
-      </c>
-      <c r="E99" s="87" t="s">
-        <v>797</v>
       </c>
       <c r="F99" s="87" t="s">
         <v>803</v>
@@ -15388,20 +15438,20 @@
       </c>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="87" t="s">
-        <v>985</v>
+      <c r="A100" s="143" t="s">
+        <v>1850</v>
       </c>
       <c r="B100" s="87" t="s">
         <v>1744</v>
       </c>
-      <c r="C100" s="86" t="s">
+      <c r="C100" s="87" t="s">
+        <v>151</v>
+      </c>
+      <c r="D100" s="87" t="s">
+        <v>802</v>
+      </c>
+      <c r="E100" s="86" t="s">
         <v>881</v>
-      </c>
-      <c r="D100" s="87" t="s">
-        <v>151</v>
-      </c>
-      <c r="E100" s="87" t="s">
-        <v>802</v>
       </c>
       <c r="F100" s="87"/>
       <c r="G100" s="87"/>
@@ -15413,14 +15463,14 @@
       <c r="B101" s="87" t="s">
         <v>1744</v>
       </c>
-      <c r="C101" s="86" t="s">
+      <c r="C101" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="D101" s="87" t="s">
+        <v>844</v>
+      </c>
+      <c r="E101" s="86" t="s">
         <v>882</v>
-      </c>
-      <c r="D101" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="E101" s="87" t="s">
-        <v>844</v>
       </c>
       <c r="F101" s="87" t="s">
         <v>845</v>
@@ -15436,14 +15486,14 @@
       <c r="B102" s="87" t="s">
         <v>1744</v>
       </c>
-      <c r="C102" s="86" t="s">
+      <c r="C102" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="D102" s="87" t="s">
+        <v>764</v>
+      </c>
+      <c r="E102" s="86" t="s">
         <v>884</v>
-      </c>
-      <c r="D102" s="82" t="s">
-        <v>62</v>
-      </c>
-      <c r="E102" s="87" t="s">
-        <v>764</v>
       </c>
       <c r="F102" s="87" t="s">
         <v>765</v>
@@ -15459,14 +15509,14 @@
       <c r="B103" s="87" t="s">
         <v>1745</v>
       </c>
-      <c r="C103" s="86" t="s">
+      <c r="C103" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="D103" s="87" t="s">
+        <v>808</v>
+      </c>
+      <c r="E103" s="86" t="s">
         <v>885</v>
-      </c>
-      <c r="D103" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="E103" s="87" t="s">
-        <v>808</v>
       </c>
       <c r="F103" s="87" t="s">
         <v>857</v>
@@ -15482,14 +15532,14 @@
       <c r="B104" s="87" t="s">
         <v>1745</v>
       </c>
-      <c r="C104" s="86" t="s">
+      <c r="C104" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="D104" s="152" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E104" s="86" t="s">
         <v>894</v>
-      </c>
-      <c r="D104" s="87" t="s">
-        <v>99</v>
-      </c>
-      <c r="E104" s="152" t="s">
-        <v>1193</v>
       </c>
       <c r="F104" s="87"/>
       <c r="G104" s="87"/>
@@ -15501,14 +15551,14 @@
       <c r="B105" s="87" t="s">
         <v>1745</v>
       </c>
-      <c r="C105" s="86" t="s">
+      <c r="C105" s="87" t="s">
+        <v>166</v>
+      </c>
+      <c r="D105" s="153" t="s">
+        <v>813</v>
+      </c>
+      <c r="E105" s="86" t="s">
         <v>895</v>
-      </c>
-      <c r="D105" s="87" t="s">
-        <v>166</v>
-      </c>
-      <c r="E105" s="153" t="s">
-        <v>813</v>
       </c>
       <c r="F105" s="87" t="s">
         <v>856</v>
@@ -15524,14 +15574,14 @@
       <c r="B106" s="87" t="s">
         <v>1745</v>
       </c>
-      <c r="C106" s="86" t="s">
+      <c r="C106" s="87" t="s">
+        <v>61</v>
+      </c>
+      <c r="D106" s="152" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E106" s="86" t="s">
         <v>896</v>
-      </c>
-      <c r="D106" s="87" t="s">
-        <v>61</v>
-      </c>
-      <c r="E106" s="152" t="s">
-        <v>1194</v>
       </c>
       <c r="F106" s="87"/>
       <c r="G106" s="87"/>
@@ -15543,14 +15593,14 @@
       <c r="B107" s="87" t="s">
         <v>1745</v>
       </c>
-      <c r="C107" s="86" t="s">
+      <c r="C107" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="D107" s="153" t="s">
+        <v>814</v>
+      </c>
+      <c r="E107" s="86" t="s">
         <v>897</v>
-      </c>
-      <c r="D107" s="87" t="s">
-        <v>60</v>
-      </c>
-      <c r="E107" s="153" t="s">
-        <v>814</v>
       </c>
       <c r="F107" s="87" t="s">
         <v>861</v>
@@ -15566,14 +15616,14 @@
       <c r="B108" s="87" t="s">
         <v>1745</v>
       </c>
-      <c r="C108" s="86" t="s">
+      <c r="C108" s="87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" s="152" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E108" s="86" t="s">
         <v>898</v>
-      </c>
-      <c r="D108" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="E108" s="152" t="s">
-        <v>1195</v>
       </c>
       <c r="F108" s="87"/>
       <c r="G108" s="87"/>
@@ -15585,14 +15635,14 @@
       <c r="B109" s="87" t="s">
         <v>1745</v>
       </c>
-      <c r="C109" s="86" t="s">
+      <c r="C109" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="D109" s="153" t="s">
+        <v>815</v>
+      </c>
+      <c r="E109" s="86" t="s">
         <v>899</v>
-      </c>
-      <c r="D109" s="87" t="s">
-        <v>79</v>
-      </c>
-      <c r="E109" s="153" t="s">
-        <v>815</v>
       </c>
       <c r="F109" s="87" t="s">
         <v>862</v>
@@ -15608,14 +15658,14 @@
       <c r="B110" s="87" t="s">
         <v>1745</v>
       </c>
-      <c r="C110" s="86" t="s">
+      <c r="C110" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="D110" s="152" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E110" s="86" t="s">
         <v>900</v>
-      </c>
-      <c r="D110" s="87" t="s">
-        <v>78</v>
-      </c>
-      <c r="E110" s="152" t="s">
-        <v>1196</v>
       </c>
       <c r="F110" s="87"/>
       <c r="G110" s="87"/>
@@ -15627,14 +15677,14 @@
       <c r="B111" s="87" t="s">
         <v>1745</v>
       </c>
-      <c r="C111" s="86" t="s">
+      <c r="C111" s="87" t="s">
+        <v>100</v>
+      </c>
+      <c r="D111" s="153" t="s">
+        <v>816</v>
+      </c>
+      <c r="E111" s="86" t="s">
         <v>901</v>
-      </c>
-      <c r="D111" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="E111" s="153" t="s">
-        <v>816</v>
       </c>
       <c r="F111" s="87"/>
       <c r="G111" s="87"/>
@@ -15646,14 +15696,14 @@
       <c r="B112" s="87" t="s">
         <v>1745</v>
       </c>
-      <c r="C112" s="86" t="s">
+      <c r="C112" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="D112" s="152" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E112" s="86" t="s">
         <v>902</v>
-      </c>
-      <c r="D112" s="87" t="s">
-        <v>46</v>
-      </c>
-      <c r="E112" s="152" t="s">
-        <v>1197</v>
       </c>
       <c r="F112" s="87"/>
       <c r="G112" s="87"/>
@@ -15665,14 +15715,14 @@
       <c r="B113" s="87" t="s">
         <v>1745</v>
       </c>
-      <c r="C113" s="86" t="s">
+      <c r="C113" s="87" t="s">
+        <v>128</v>
+      </c>
+      <c r="D113" s="153" t="s">
+        <v>817</v>
+      </c>
+      <c r="E113" s="86" t="s">
         <v>903</v>
-      </c>
-      <c r="D113" s="87" t="s">
-        <v>128</v>
-      </c>
-      <c r="E113" s="153" t="s">
-        <v>817</v>
       </c>
       <c r="F113" s="87"/>
       <c r="G113" s="87"/>
@@ -15684,14 +15734,14 @@
       <c r="B114" s="87" t="s">
         <v>1745</v>
       </c>
-      <c r="C114" s="86" t="s">
+      <c r="C114" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="D114" s="152" t="s">
+        <v>219</v>
+      </c>
+      <c r="E114" s="86" t="s">
         <v>886</v>
-      </c>
-      <c r="D114" s="87" t="s">
-        <v>14</v>
-      </c>
-      <c r="E114" s="152" t="s">
-        <v>219</v>
       </c>
       <c r="F114" s="87"/>
       <c r="G114" s="87"/>
@@ -15703,14 +15753,14 @@
       <c r="B115" s="87" t="s">
         <v>1745</v>
       </c>
-      <c r="C115" s="86" t="s">
+      <c r="C115" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="D115" s="152" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E115" s="86" t="s">
         <v>904</v>
-      </c>
-      <c r="D115" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="E115" s="152" t="s">
-        <v>1198</v>
       </c>
       <c r="F115" s="87"/>
       <c r="G115" s="87"/>
@@ -15722,14 +15772,14 @@
       <c r="B116" s="87" t="s">
         <v>1745</v>
       </c>
-      <c r="C116" s="86" t="s">
+      <c r="C116" s="87" t="s">
+        <v>158</v>
+      </c>
+      <c r="D116" s="153" t="s">
+        <v>818</v>
+      </c>
+      <c r="E116" s="86" t="s">
         <v>905</v>
-      </c>
-      <c r="D116" s="87" t="s">
-        <v>158</v>
-      </c>
-      <c r="E116" s="153" t="s">
-        <v>818</v>
       </c>
       <c r="F116" s="87" t="s">
         <v>863</v>
@@ -15745,14 +15795,14 @@
       <c r="B117" s="87" t="s">
         <v>1745</v>
       </c>
-      <c r="C117" s="86" t="s">
+      <c r="C117" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="D117" s="152" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E117" s="86" t="s">
         <v>906</v>
-      </c>
-      <c r="D117" s="87" t="s">
-        <v>157</v>
-      </c>
-      <c r="E117" s="152" t="s">
-        <v>1199</v>
       </c>
       <c r="F117" s="87"/>
       <c r="G117" s="87"/>
@@ -15764,14 +15814,14 @@
       <c r="B118" s="87" t="s">
         <v>1745</v>
       </c>
-      <c r="C118" s="86" t="s">
+      <c r="C118" s="87" t="s">
+        <v>184</v>
+      </c>
+      <c r="D118" s="153" t="s">
+        <v>819</v>
+      </c>
+      <c r="E118" s="86" t="s">
         <v>907</v>
-      </c>
-      <c r="D118" s="87" t="s">
-        <v>184</v>
-      </c>
-      <c r="E118" s="153" t="s">
-        <v>819</v>
       </c>
       <c r="F118" s="87" t="s">
         <v>864</v>
@@ -15787,14 +15837,14 @@
       <c r="B119" s="87" t="s">
         <v>1745</v>
       </c>
-      <c r="C119" s="86" t="s">
+      <c r="C119" s="87" t="s">
+        <v>181</v>
+      </c>
+      <c r="D119" s="152" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E119" s="86" t="s">
         <v>908</v>
-      </c>
-      <c r="D119" s="87" t="s">
-        <v>181</v>
-      </c>
-      <c r="E119" s="152" t="s">
-        <v>1206</v>
       </c>
       <c r="F119" s="87"/>
       <c r="G119" s="87"/>
@@ -15806,14 +15856,14 @@
       <c r="B120" s="87" t="s">
         <v>1745</v>
       </c>
-      <c r="C120" s="86" t="s">
+      <c r="C120" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="D120" s="153" t="s">
+        <v>846</v>
+      </c>
+      <c r="E120" s="86" t="s">
         <v>909</v>
-      </c>
-      <c r="D120" s="87" t="s">
-        <v>146</v>
-      </c>
-      <c r="E120" s="153" t="s">
-        <v>846</v>
       </c>
       <c r="F120" s="87"/>
       <c r="G120" s="87"/>
@@ -15825,14 +15875,14 @@
       <c r="B121" s="87" t="s">
         <v>1745</v>
       </c>
-      <c r="C121" s="86" t="s">
+      <c r="C121" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="153" t="s">
+        <v>809</v>
+      </c>
+      <c r="E121" s="86" t="s">
         <v>887</v>
-      </c>
-      <c r="D121" s="87" t="s">
-        <v>12</v>
-      </c>
-      <c r="E121" s="153" t="s">
-        <v>809</v>
       </c>
       <c r="F121" s="87" t="s">
         <v>858</v>
@@ -15848,14 +15898,14 @@
       <c r="B122" s="87" t="s">
         <v>1745</v>
       </c>
-      <c r="C122" s="86" t="s">
+      <c r="C122" s="87" t="s">
+        <v>2</v>
+      </c>
+      <c r="D122" s="152" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E122" s="86" t="s">
         <v>888</v>
-      </c>
-      <c r="D122" s="87" t="s">
-        <v>2</v>
-      </c>
-      <c r="E122" s="152" t="s">
-        <v>1190</v>
       </c>
       <c r="F122" s="87"/>
       <c r="G122" s="87"/>
@@ -15867,14 +15917,14 @@
       <c r="B123" s="87" t="s">
         <v>1745</v>
       </c>
-      <c r="C123" s="86" t="s">
+      <c r="C123" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="D123" s="153" t="s">
+        <v>810</v>
+      </c>
+      <c r="E123" s="86" t="s">
         <v>889</v>
-      </c>
-      <c r="D123" s="87" t="s">
-        <v>31</v>
-      </c>
-      <c r="E123" s="153" t="s">
-        <v>810</v>
       </c>
       <c r="F123" s="87"/>
       <c r="G123" s="87"/>
@@ -15886,14 +15936,14 @@
       <c r="B124" s="87" t="s">
         <v>1745</v>
       </c>
-      <c r="C124" s="86" t="s">
+      <c r="C124" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="D124" s="152" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E124" s="86" t="s">
         <v>890</v>
-      </c>
-      <c r="D124" s="87" t="s">
-        <v>25</v>
-      </c>
-      <c r="E124" s="152" t="s">
-        <v>1191</v>
       </c>
       <c r="F124" s="87"/>
       <c r="G124" s="87"/>
@@ -15905,14 +15955,14 @@
       <c r="B125" s="87" t="s">
         <v>1745</v>
       </c>
-      <c r="C125" s="86" t="s">
+      <c r="C125" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="D125" s="153" t="s">
+        <v>811</v>
+      </c>
+      <c r="E125" s="86" t="s">
         <v>891</v>
-      </c>
-      <c r="D125" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="E125" s="153" t="s">
-        <v>811</v>
       </c>
       <c r="F125" s="87" t="s">
         <v>859</v>
@@ -15928,14 +15978,14 @@
       <c r="B126" s="87" t="s">
         <v>1745</v>
       </c>
-      <c r="C126" s="86" t="s">
+      <c r="C126" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="D126" s="152" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E126" s="86" t="s">
         <v>892</v>
-      </c>
-      <c r="D126" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="E126" s="152" t="s">
-        <v>1192</v>
       </c>
       <c r="F126" s="87"/>
       <c r="G126" s="87"/>
@@ -15947,14 +15997,14 @@
       <c r="B127" s="87" t="s">
         <v>1745</v>
       </c>
-      <c r="C127" s="86" t="s">
+      <c r="C127" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="D127" s="87" t="s">
+        <v>812</v>
+      </c>
+      <c r="E127" s="86" t="s">
         <v>893</v>
-      </c>
-      <c r="D127" s="87" t="s">
-        <v>98</v>
-      </c>
-      <c r="E127" s="87" t="s">
-        <v>812</v>
       </c>
       <c r="F127" s="87" t="s">
         <v>860</v>
@@ -15970,14 +16020,14 @@
       <c r="B128" s="87" t="s">
         <v>1746</v>
       </c>
-      <c r="C128" s="86" t="s">
+      <c r="C128" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="D128" s="87" t="s">
+        <v>851</v>
+      </c>
+      <c r="E128" s="86" t="s">
         <v>910</v>
-      </c>
-      <c r="D128" s="87" t="s">
-        <v>89</v>
-      </c>
-      <c r="E128" s="87" t="s">
-        <v>851</v>
       </c>
       <c r="F128" s="87" t="s">
         <v>1242</v>
@@ -15987,20 +16037,20 @@
       </c>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="87" t="s">
-        <v>1769</v>
+      <c r="A129" s="161" t="s">
+        <v>1853</v>
       </c>
       <c r="B129" s="87" t="s">
         <v>1746</v>
       </c>
-      <c r="C129" s="86" t="s">
+      <c r="C129" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="D129" s="87" t="s">
+        <v>843</v>
+      </c>
+      <c r="E129" s="86" t="s">
         <v>911</v>
-      </c>
-      <c r="D129" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="E129" s="87" t="s">
-        <v>843</v>
       </c>
       <c r="F129" s="87"/>
       <c r="G129" s="87"/>
@@ -16012,14 +16062,14 @@
       <c r="B130" s="87" t="s">
         <v>1746</v>
       </c>
-      <c r="C130" s="86" t="s">
+      <c r="C130" s="87" t="s">
+        <v>41</v>
+      </c>
+      <c r="D130" s="87" t="s">
+        <v>768</v>
+      </c>
+      <c r="E130" s="86" t="s">
         <v>912</v>
-      </c>
-      <c r="D130" s="87" t="s">
-        <v>41</v>
-      </c>
-      <c r="E130" s="87" t="s">
-        <v>768</v>
       </c>
       <c r="F130" s="87" t="s">
         <v>773</v>
@@ -16035,14 +16085,14 @@
       <c r="B131" s="87" t="s">
         <v>1746</v>
       </c>
-      <c r="C131" s="86" t="s">
+      <c r="C131" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="D131" s="87" t="s">
+        <v>769</v>
+      </c>
+      <c r="E131" s="86" t="s">
         <v>913</v>
-      </c>
-      <c r="D131" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="E131" s="87" t="s">
-        <v>769</v>
       </c>
       <c r="F131" s="87" t="s">
         <v>774</v>
@@ -16058,14 +16108,14 @@
       <c r="B132" s="87" t="s">
         <v>1746</v>
       </c>
-      <c r="C132" s="86" t="s">
+      <c r="C132" s="87" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132" s="87" t="s">
+        <v>842</v>
+      </c>
+      <c r="E132" s="86" t="s">
         <v>914</v>
-      </c>
-      <c r="D132" s="87" t="s">
-        <v>28</v>
-      </c>
-      <c r="E132" s="87" t="s">
-        <v>842</v>
       </c>
       <c r="F132" s="87"/>
       <c r="G132" s="87"/>
@@ -16077,14 +16127,14 @@
       <c r="B133" s="87" t="s">
         <v>1746</v>
       </c>
-      <c r="C133" s="86" t="s">
+      <c r="C133" s="87" t="s">
+        <v>159</v>
+      </c>
+      <c r="D133" s="87" t="s">
+        <v>865</v>
+      </c>
+      <c r="E133" s="86" t="s">
         <v>915</v>
-      </c>
-      <c r="D133" s="87" t="s">
-        <v>159</v>
-      </c>
-      <c r="E133" s="87" t="s">
-        <v>865</v>
       </c>
       <c r="F133" s="87"/>
       <c r="G133" s="87"/>
@@ -16096,14 +16146,14 @@
       <c r="B134" s="87" t="s">
         <v>1746</v>
       </c>
-      <c r="C134" s="86" t="s">
+      <c r="C134" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="D134" s="87" t="s">
+        <v>775</v>
+      </c>
+      <c r="E134" s="86" t="s">
         <v>916</v>
-      </c>
-      <c r="D134" s="87" t="s">
-        <v>40</v>
-      </c>
-      <c r="E134" s="87" t="s">
-        <v>775</v>
       </c>
       <c r="F134" s="87"/>
       <c r="G134" s="87"/>
@@ -16115,14 +16165,14 @@
       <c r="B135" s="87" t="s">
         <v>1746</v>
       </c>
-      <c r="C135" s="86" t="s">
+      <c r="C135" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="D135" s="87" t="s">
+        <v>770</v>
+      </c>
+      <c r="E135" s="86" t="s">
         <v>917</v>
-      </c>
-      <c r="D135" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="E135" s="87" t="s">
-        <v>770</v>
       </c>
       <c r="F135" s="87" t="s">
         <v>767</v>
@@ -16138,14 +16188,14 @@
       <c r="B136" s="87" t="s">
         <v>1747</v>
       </c>
-      <c r="C136" s="86" t="s">
+      <c r="C136" s="87" t="s">
+        <v>53</v>
+      </c>
+      <c r="D136" s="87" t="s">
+        <v>277</v>
+      </c>
+      <c r="E136" s="86" t="s">
         <v>918</v>
-      </c>
-      <c r="D136" s="87" t="s">
-        <v>53</v>
-      </c>
-      <c r="E136" s="87" t="s">
-        <v>277</v>
       </c>
       <c r="F136" s="87"/>
       <c r="G136" s="87"/>
@@ -16157,14 +16207,14 @@
       <c r="B137" s="87" t="s">
         <v>1748</v>
       </c>
-      <c r="C137" s="86" t="s">
+      <c r="C137" s="87" t="s">
+        <v>167</v>
+      </c>
+      <c r="D137" s="82" t="s">
+        <v>838</v>
+      </c>
+      <c r="E137" s="86" t="s">
         <v>919</v>
-      </c>
-      <c r="D137" s="87" t="s">
-        <v>167</v>
-      </c>
-      <c r="E137" s="82" t="s">
-        <v>838</v>
       </c>
       <c r="F137" s="87" t="s">
         <v>867</v>
@@ -16180,14 +16230,14 @@
       <c r="B138" s="87" t="s">
         <v>1748</v>
       </c>
-      <c r="C138" s="86" t="s">
+      <c r="C138" s="82" t="s">
+        <v>81</v>
+      </c>
+      <c r="D138" s="82" t="s">
+        <v>779</v>
+      </c>
+      <c r="E138" s="86" t="s">
         <v>920</v>
-      </c>
-      <c r="D138" s="82" t="s">
-        <v>81</v>
-      </c>
-      <c r="E138" s="82" t="s">
-        <v>779</v>
       </c>
       <c r="F138" s="87" t="s">
         <v>778</v>
@@ -16197,20 +16247,20 @@
       </c>
     </row>
     <row r="139" spans="1:7" s="13" customFormat="1">
-      <c r="A139" s="87" t="s">
-        <v>1755</v>
+      <c r="A139" s="161" t="s">
+        <v>1852</v>
       </c>
       <c r="B139" s="87" t="s">
         <v>1748</v>
       </c>
-      <c r="C139" s="86" t="s">
+      <c r="C139" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="D139" s="87" t="s">
+        <v>834</v>
+      </c>
+      <c r="E139" s="86" t="s">
         <v>921</v>
-      </c>
-      <c r="D139" s="87" t="s">
-        <v>110</v>
-      </c>
-      <c r="E139" s="87" t="s">
-        <v>834</v>
       </c>
       <c r="F139" s="87" t="s">
         <v>289</v>
@@ -16226,14 +16276,14 @@
       <c r="B140" s="87" t="s">
         <v>1748</v>
       </c>
-      <c r="C140" s="86" t="s">
+      <c r="C140" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="D140" s="87" t="s">
+        <v>777</v>
+      </c>
+      <c r="E140" s="86" t="s">
         <v>922</v>
-      </c>
-      <c r="D140" s="87" t="s">
-        <v>20</v>
-      </c>
-      <c r="E140" s="87" t="s">
-        <v>777</v>
       </c>
       <c r="F140" s="87" t="s">
         <v>868</v>
@@ -16249,14 +16299,14 @@
       <c r="B141" s="87" t="s">
         <v>1748</v>
       </c>
-      <c r="C141" s="86" t="s">
+      <c r="C141" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" s="87" t="s">
+        <v>771</v>
+      </c>
+      <c r="E141" s="86" t="s">
         <v>923</v>
-      </c>
-      <c r="D141" s="87" t="s">
-        <v>15</v>
-      </c>
-      <c r="E141" s="87" t="s">
-        <v>771</v>
       </c>
       <c r="F141" s="87" t="s">
         <v>772</v>
@@ -16272,14 +16322,14 @@
       <c r="B142" s="87" t="s">
         <v>1748</v>
       </c>
-      <c r="C142" s="86" t="s">
+      <c r="C142" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="D142" s="87" t="s">
+        <v>281</v>
+      </c>
+      <c r="E142" s="86" t="s">
         <v>924</v>
-      </c>
-      <c r="D142" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="E142" s="87" t="s">
-        <v>281</v>
       </c>
       <c r="F142" s="87"/>
       <c r="G142" s="87"/>
@@ -16291,14 +16341,14 @@
       <c r="B143" s="87" t="s">
         <v>1748</v>
       </c>
-      <c r="C143" s="86" t="s">
-        <v>925</v>
+      <c r="C143" s="82" t="s">
+        <v>153</v>
       </c>
       <c r="D143" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="E143" s="82" t="s">
-        <v>153</v>
+      <c r="E143" s="86" t="s">
+        <v>925</v>
       </c>
       <c r="F143" s="87"/>
       <c r="G143" s="87"/>
@@ -16310,14 +16360,14 @@
       <c r="B144" s="87" t="s">
         <v>1749</v>
       </c>
-      <c r="C144" s="86" t="s">
+      <c r="C144" s="87" t="s">
+        <v>114</v>
+      </c>
+      <c r="D144" s="87" t="s">
+        <v>788</v>
+      </c>
+      <c r="E144" s="86" t="s">
         <v>926</v>
-      </c>
-      <c r="D144" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="E144" s="87" t="s">
-        <v>788</v>
       </c>
       <c r="F144" s="87" t="s">
         <v>848</v>
@@ -16333,14 +16383,14 @@
       <c r="B145" s="87" t="s">
         <v>1749</v>
       </c>
-      <c r="C145" s="86" t="s">
-        <v>927</v>
+      <c r="C145" s="82" t="s">
+        <v>458</v>
       </c>
       <c r="D145" s="82" t="s">
         <v>458</v>
       </c>
-      <c r="E145" s="82" t="s">
-        <v>458</v>
+      <c r="E145" s="86" t="s">
+        <v>927</v>
       </c>
       <c r="F145" s="87" t="s">
         <v>849</v>
@@ -16356,14 +16406,14 @@
       <c r="B146" s="87" t="s">
         <v>1749</v>
       </c>
-      <c r="C146" s="86" t="s">
+      <c r="C146" s="82" t="s">
+        <v>130</v>
+      </c>
+      <c r="D146" s="82" t="s">
+        <v>780</v>
+      </c>
+      <c r="E146" s="86" t="s">
         <v>928</v>
-      </c>
-      <c r="D146" s="82" t="s">
-        <v>130</v>
-      </c>
-      <c r="E146" s="82" t="s">
-        <v>780</v>
       </c>
       <c r="F146" s="87" t="s">
         <v>850</v>
@@ -16379,14 +16429,14 @@
       <c r="B147" s="87" t="s">
         <v>1750</v>
       </c>
-      <c r="C147" s="86" t="s">
-        <v>929</v>
+      <c r="C147" s="87" t="s">
+        <v>91</v>
       </c>
       <c r="D147" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="E147" s="87" t="s">
-        <v>91</v>
+      <c r="E147" s="86" t="s">
+        <v>929</v>
       </c>
       <c r="F147" s="87" t="s">
         <v>286</v>
@@ -16402,14 +16452,14 @@
       <c r="B148" s="87" t="s">
         <v>1750</v>
       </c>
-      <c r="C148" s="86" t="s">
-        <v>930</v>
+      <c r="C148" s="87" t="s">
+        <v>143</v>
       </c>
       <c r="D148" s="87" t="s">
         <v>143</v>
       </c>
-      <c r="E148" s="87" t="s">
-        <v>143</v>
+      <c r="E148" s="86" t="s">
+        <v>930</v>
       </c>
       <c r="F148" s="87" t="s">
         <v>1243</v>
@@ -16420,16 +16470,16 @@
     </row>
     <row r="149" spans="1:7">
       <c r="B149" s="12"/>
-      <c r="D149" s="13"/>
-      <c r="E149" s="12"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="12"/>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="151" t="s">
         <v>1800</v>
       </c>
       <c r="B150" s="87"/>
-      <c r="D150" s="13"/>
-      <c r="E150" s="12"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="12"/>
     </row>
     <row r="151" spans="1:7" s="13" customFormat="1">
       <c r="A151" s="151" t="s">
@@ -16438,7 +16488,7 @@
       <c r="B151" s="87" t="s">
         <v>1821</v>
       </c>
-      <c r="E151" s="12"/>
+      <c r="D151" s="12"/>
     </row>
     <row r="152" spans="1:7" s="13" customFormat="1">
       <c r="A152" s="151" t="s">
@@ -16455,7 +16505,7 @@
       <c r="B153" s="87" t="s">
         <v>1802</v>
       </c>
-      <c r="E153" s="12"/>
+      <c r="D153" s="12"/>
     </row>
     <row r="154" spans="1:7" s="13" customFormat="1">
       <c r="A154" s="151" t="s">
@@ -16464,8 +16514,8 @@
       <c r="B154" s="87" t="s">
         <v>1807</v>
       </c>
-      <c r="D154" s="82"/>
-      <c r="E154" s="87"/>
+      <c r="C154" s="82"/>
+      <c r="D154" s="87"/>
     </row>
     <row r="155" spans="1:7" s="13" customFormat="1">
       <c r="A155" s="151" t="s">
@@ -16474,8 +16524,8 @@
       <c r="B155" s="87" t="s">
         <v>1809</v>
       </c>
-      <c r="D155" s="82"/>
-      <c r="E155" s="87"/>
+      <c r="C155" s="82"/>
+      <c r="D155" s="87"/>
     </row>
     <row r="156" spans="1:7" s="13" customFormat="1">
       <c r="A156" s="151" t="s">
@@ -16484,8 +16534,8 @@
       <c r="B156" s="87" t="s">
         <v>1825</v>
       </c>
-      <c r="D156" s="82"/>
-      <c r="E156" s="87"/>
+      <c r="C156" s="82"/>
+      <c r="D156" s="87"/>
     </row>
     <row r="157" spans="1:7" s="13" customFormat="1">
       <c r="A157" s="151" t="s">
@@ -16494,8 +16544,8 @@
       <c r="B157" s="87" t="s">
         <v>1824</v>
       </c>
-      <c r="D157" s="82"/>
-      <c r="E157" s="87"/>
+      <c r="C157" s="82"/>
+      <c r="D157" s="87"/>
     </row>
     <row r="158" spans="1:7" s="13" customFormat="1">
       <c r="A158" s="151" t="s">
@@ -16504,607 +16554,610 @@
       <c r="B158" s="87" t="s">
         <v>1826</v>
       </c>
-      <c r="D158" s="82"/>
-      <c r="E158" s="87"/>
+      <c r="C158" s="82"/>
+      <c r="D158" s="87"/>
     </row>
     <row r="159" spans="1:7" s="13" customFormat="1">
       <c r="A159" s="150"/>
-      <c r="D159" s="82"/>
-      <c r="E159" s="87"/>
+      <c r="C159" s="82"/>
+      <c r="D159" s="87"/>
     </row>
     <row r="160" spans="1:7" s="13" customFormat="1">
       <c r="A160" s="150"/>
       <c r="B160" s="44" t="s">
         <v>1823</v>
       </c>
-      <c r="D160" s="82"/>
-      <c r="E160" s="87"/>
+      <c r="C160" s="82"/>
+      <c r="D160" s="87"/>
     </row>
     <row r="161" spans="1:6" s="13" customFormat="1">
       <c r="A161" s="150"/>
       <c r="B161" s="87" t="s">
         <v>1827</v>
       </c>
+      <c r="C161" s="12"/>
       <c r="D161" s="12"/>
-      <c r="E161" s="12"/>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="150"/>
+      <c r="C162" s="12"/>
       <c r="D162" s="12"/>
-      <c r="E162" s="12"/>
     </row>
     <row r="163" spans="1:6" s="13" customFormat="1">
       <c r="A163" s="143"/>
-      <c r="D163" s="41"/>
-      <c r="E163" s="12"/>
+      <c r="B163" s="13" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C163" s="41"/>
+      <c r="D163" s="12"/>
       <c r="F163" s="143"/>
     </row>
     <row r="164" spans="1:6" s="13" customFormat="1">
       <c r="A164" s="143"/>
-      <c r="D164" s="41"/>
-      <c r="E164" s="12"/>
+      <c r="C164" s="41"/>
+      <c r="D164" s="12"/>
       <c r="F164" s="143"/>
     </row>
     <row r="165" spans="1:6" s="13" customFormat="1">
       <c r="A165" s="143"/>
-      <c r="C165" s="150"/>
-      <c r="D165" s="41"/>
-      <c r="E165" s="12"/>
+      <c r="C165" s="41"/>
+      <c r="D165" s="12"/>
+      <c r="E165" s="150"/>
       <c r="F165" s="143"/>
     </row>
     <row r="166" spans="1:6">
       <c r="B166" s="13"/>
-      <c r="C166" s="150"/>
-      <c r="D166" s="41"/>
-      <c r="E166" s="12"/>
+      <c r="C166" s="41"/>
+      <c r="D166" s="12"/>
+      <c r="E166" s="150"/>
     </row>
     <row r="167" spans="1:6">
       <c r="B167" s="13"/>
-      <c r="C167" s="150"/>
-      <c r="D167" s="41"/>
-      <c r="E167" s="12"/>
+      <c r="C167" s="41"/>
+      <c r="D167" s="12"/>
+      <c r="E167" s="150"/>
     </row>
     <row r="168" spans="1:6">
       <c r="B168" s="13"/>
-      <c r="C168" s="150"/>
-      <c r="D168" s="41"/>
-      <c r="E168" s="12"/>
+      <c r="C168" s="41"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="150"/>
     </row>
     <row r="169" spans="1:6">
       <c r="B169" s="13"/>
-      <c r="C169" s="150"/>
-      <c r="D169" s="41"/>
-      <c r="E169" s="12"/>
+      <c r="C169" s="41"/>
+      <c r="D169" s="12"/>
+      <c r="E169" s="150"/>
     </row>
     <row r="170" spans="1:6">
       <c r="B170" s="13"/>
-      <c r="C170" s="150"/>
-      <c r="D170" s="41"/>
-      <c r="E170" s="12"/>
+      <c r="C170" s="41"/>
+      <c r="D170" s="12"/>
+      <c r="E170" s="150"/>
     </row>
     <row r="171" spans="1:6">
       <c r="B171" s="13"/>
-      <c r="C171" s="150"/>
-      <c r="D171" s="41"/>
-      <c r="E171" s="12"/>
+      <c r="C171" s="41"/>
+      <c r="D171" s="12"/>
+      <c r="E171" s="150"/>
     </row>
     <row r="172" spans="1:6">
       <c r="B172" s="13"/>
-      <c r="C172" s="150"/>
-      <c r="D172" s="41"/>
-      <c r="E172" s="12"/>
+      <c r="C172" s="41"/>
+      <c r="D172" s="12"/>
+      <c r="E172" s="150"/>
     </row>
     <row r="173" spans="1:6">
       <c r="B173" s="13"/>
-      <c r="C173" s="150"/>
+      <c r="C173" s="12"/>
       <c r="D173" s="12"/>
-      <c r="E173" s="12"/>
+      <c r="E173" s="150"/>
     </row>
     <row r="174" spans="1:6">
       <c r="B174" s="13"/>
-      <c r="C174" s="150"/>
+      <c r="C174" s="12"/>
       <c r="D174" s="12"/>
-      <c r="E174" s="12"/>
+      <c r="E174" s="150"/>
     </row>
     <row r="175" spans="1:6">
       <c r="B175" s="13"/>
+      <c r="C175" s="12"/>
       <c r="D175" s="12"/>
-      <c r="E175" s="12"/>
     </row>
     <row r="176" spans="1:6">
       <c r="B176" s="13"/>
+      <c r="C176" s="12"/>
       <c r="D176" s="12"/>
-      <c r="E176" s="12"/>
     </row>
     <row r="177" spans="1:6">
       <c r="B177" s="13"/>
+      <c r="C177" s="12"/>
       <c r="D177" s="12"/>
-      <c r="E177" s="12"/>
     </row>
     <row r="178" spans="1:6">
       <c r="B178" s="13"/>
+      <c r="C178" s="12"/>
       <c r="D178" s="12"/>
-      <c r="E178" s="12"/>
     </row>
     <row r="179" spans="1:6">
       <c r="B179" s="13"/>
+      <c r="C179" s="12"/>
       <c r="D179" s="12"/>
-      <c r="E179" s="12"/>
     </row>
     <row r="180" spans="1:6">
       <c r="B180" s="13"/>
+      <c r="C180" s="12"/>
       <c r="D180" s="12"/>
-      <c r="E180" s="12"/>
     </row>
     <row r="181" spans="1:6">
       <c r="B181" s="13"/>
+      <c r="C181" s="12"/>
       <c r="D181" s="12"/>
-      <c r="E181" s="12"/>
     </row>
     <row r="182" spans="1:6">
       <c r="B182" s="13"/>
+      <c r="C182" s="12"/>
       <c r="D182" s="12"/>
-      <c r="E182" s="12"/>
     </row>
     <row r="183" spans="1:6">
       <c r="B183" s="13"/>
+      <c r="C183" s="12"/>
       <c r="D183" s="12"/>
-      <c r="E183" s="12"/>
     </row>
     <row r="184" spans="1:6" s="13" customFormat="1">
-      <c r="C184" s="44"/>
+      <c r="C184" s="12"/>
       <c r="D184" s="12"/>
-      <c r="E184" s="12"/>
+      <c r="E184" s="44"/>
       <c r="F184" s="143"/>
     </row>
     <row r="185" spans="1:6" s="13" customFormat="1">
       <c r="A185" s="143"/>
-      <c r="C185" s="44"/>
+      <c r="C185" s="12"/>
       <c r="D185" s="12"/>
-      <c r="E185" s="12"/>
+      <c r="E185" s="44"/>
       <c r="F185" s="143"/>
     </row>
     <row r="186" spans="1:6" s="13" customFormat="1">
       <c r="A186" s="143"/>
-      <c r="C186" s="44"/>
+      <c r="C186" s="12"/>
       <c r="D186" s="12"/>
-      <c r="E186" s="12"/>
+      <c r="E186" s="44"/>
       <c r="F186" s="143"/>
     </row>
     <row r="187" spans="1:6" s="13" customFormat="1">
       <c r="A187" s="143"/>
-      <c r="C187" s="44"/>
+      <c r="C187" s="12"/>
       <c r="D187" s="12"/>
-      <c r="E187" s="12"/>
+      <c r="E187" s="44"/>
       <c r="F187" s="143"/>
     </row>
     <row r="188" spans="1:6" s="13" customFormat="1">
       <c r="A188" s="143"/>
-      <c r="C188" s="44"/>
+      <c r="C188" s="12"/>
       <c r="D188" s="12"/>
-      <c r="E188" s="12"/>
+      <c r="E188" s="44"/>
       <c r="F188" s="143"/>
     </row>
     <row r="189" spans="1:6" s="13" customFormat="1">
       <c r="A189" s="143"/>
-      <c r="C189" s="44"/>
+      <c r="C189" s="12"/>
       <c r="D189" s="12"/>
-      <c r="E189" s="12"/>
+      <c r="E189" s="44"/>
       <c r="F189" s="143"/>
     </row>
     <row r="190" spans="1:6">
       <c r="B190" s="13"/>
+      <c r="C190" s="12"/>
       <c r="D190" s="12"/>
-      <c r="E190" s="12"/>
     </row>
     <row r="191" spans="1:6">
       <c r="B191" s="13"/>
+      <c r="C191" s="12"/>
       <c r="D191" s="12"/>
-      <c r="E191" s="12"/>
     </row>
     <row r="192" spans="1:6">
       <c r="B192" s="13"/>
+      <c r="C192" s="12"/>
       <c r="D192" s="12"/>
-      <c r="E192" s="12"/>
-    </row>
-    <row r="193" spans="1:5">
+    </row>
+    <row r="193" spans="1:4">
       <c r="B193" s="13"/>
+      <c r="C193" s="12"/>
       <c r="D193" s="12"/>
-      <c r="E193" s="12"/>
-    </row>
-    <row r="194" spans="1:5">
+    </row>
+    <row r="194" spans="1:4">
       <c r="B194" s="13"/>
+      <c r="C194" s="12"/>
       <c r="D194" s="12"/>
-      <c r="E194" s="12"/>
-    </row>
-    <row r="195" spans="1:5">
+    </row>
+    <row r="195" spans="1:4">
       <c r="B195" s="13"/>
+      <c r="C195" s="12"/>
       <c r="D195" s="12"/>
-      <c r="E195" s="12"/>
-    </row>
-    <row r="196" spans="1:5">
+    </row>
+    <row r="196" spans="1:4">
       <c r="B196" s="13"/>
+      <c r="C196" s="12"/>
       <c r="D196" s="12"/>
-      <c r="E196" s="12"/>
-    </row>
-    <row r="197" spans="1:5">
+    </row>
+    <row r="197" spans="1:4">
       <c r="B197" s="13"/>
+      <c r="C197" s="12"/>
       <c r="D197" s="12"/>
-      <c r="E197" s="12"/>
-    </row>
-    <row r="198" spans="1:5">
+    </row>
+    <row r="198" spans="1:4">
       <c r="A198" s="13"/>
       <c r="B198" s="13"/>
+      <c r="C198" s="12"/>
       <c r="D198" s="12"/>
-      <c r="E198" s="12"/>
-    </row>
-    <row r="199" spans="1:5">
+    </row>
+    <row r="199" spans="1:4">
       <c r="B199" s="13"/>
+      <c r="C199" s="12"/>
       <c r="D199" s="12"/>
-      <c r="E199" s="12"/>
-    </row>
-    <row r="200" spans="1:5">
+    </row>
+    <row r="200" spans="1:4">
       <c r="A200" s="13"/>
       <c r="B200" s="13"/>
+      <c r="C200" s="12"/>
       <c r="D200" s="12"/>
-      <c r="E200" s="12"/>
-    </row>
-    <row r="201" spans="1:5">
+    </row>
+    <row r="201" spans="1:4">
       <c r="A201" s="13"/>
       <c r="B201" s="13"/>
+      <c r="C201" s="12"/>
       <c r="D201" s="12"/>
-      <c r="E201" s="12"/>
-    </row>
-    <row r="202" spans="1:5">
+    </row>
+    <row r="202" spans="1:4">
       <c r="B202" s="13"/>
+      <c r="C202" s="12"/>
       <c r="D202" s="12"/>
-      <c r="E202" s="12"/>
-    </row>
-    <row r="203" spans="1:5">
+    </row>
+    <row r="203" spans="1:4">
       <c r="B203" s="13"/>
-      <c r="D203" s="41"/>
-      <c r="E203" s="12"/>
-    </row>
-    <row r="204" spans="1:5">
+      <c r="C203" s="41"/>
+      <c r="D203" s="12"/>
+    </row>
+    <row r="204" spans="1:4">
       <c r="B204" s="13"/>
-      <c r="D204" s="41"/>
-      <c r="E204" s="12"/>
-    </row>
-    <row r="205" spans="1:5">
+      <c r="C204" s="41"/>
+      <c r="D204" s="12"/>
+    </row>
+    <row r="205" spans="1:4">
       <c r="B205" s="13"/>
-      <c r="D205" s="41"/>
-      <c r="E205" s="12"/>
-    </row>
-    <row r="206" spans="1:5">
+      <c r="C205" s="41"/>
+      <c r="D205" s="12"/>
+    </row>
+    <row r="206" spans="1:4">
       <c r="B206" s="13"/>
-      <c r="D206" s="41"/>
-      <c r="E206" s="12"/>
-    </row>
-    <row r="207" spans="1:5">
+      <c r="C206" s="41"/>
+      <c r="D206" s="12"/>
+    </row>
+    <row r="207" spans="1:4">
       <c r="B207" s="13"/>
-      <c r="D207" s="41"/>
-      <c r="E207" s="12"/>
-    </row>
-    <row r="208" spans="1:5">
+      <c r="C207" s="41"/>
+      <c r="D207" s="12"/>
+    </row>
+    <row r="208" spans="1:4">
       <c r="B208" s="13"/>
-      <c r="D208" s="41"/>
-      <c r="E208" s="12"/>
-    </row>
-    <row r="209" spans="2:5">
+      <c r="C208" s="41"/>
+      <c r="D208" s="12"/>
+    </row>
+    <row r="209" spans="2:4">
       <c r="B209" s="13"/>
-      <c r="D209" s="41"/>
-      <c r="E209" s="12"/>
-    </row>
-    <row r="210" spans="2:5">
+      <c r="C209" s="41"/>
+      <c r="D209" s="12"/>
+    </row>
+    <row r="210" spans="2:4">
       <c r="B210" s="13"/>
-      <c r="D210" s="41"/>
-      <c r="E210" s="12"/>
-    </row>
-    <row r="211" spans="2:5">
+      <c r="C210" s="41"/>
+      <c r="D210" s="12"/>
+    </row>
+    <row r="211" spans="2:4">
       <c r="B211" s="13"/>
-      <c r="D211" s="41"/>
-      <c r="E211" s="12"/>
-    </row>
-    <row r="212" spans="2:5">
+      <c r="C211" s="41"/>
+      <c r="D211" s="12"/>
+    </row>
+    <row r="212" spans="2:4">
       <c r="B212" s="13"/>
-      <c r="D212" s="41"/>
-      <c r="E212" s="12"/>
-    </row>
-    <row r="213" spans="2:5">
+      <c r="C212" s="41"/>
+      <c r="D212" s="12"/>
+    </row>
+    <row r="213" spans="2:4">
       <c r="B213" s="13"/>
+      <c r="C213" s="106"/>
       <c r="D213" s="106"/>
-      <c r="E213" s="106"/>
-    </row>
-    <row r="214" spans="2:5">
+    </row>
+    <row r="214" spans="2:4">
       <c r="B214" s="13"/>
+      <c r="C214" s="106"/>
       <c r="D214" s="106"/>
-      <c r="E214" s="106"/>
-    </row>
-    <row r="215" spans="2:5">
+    </row>
+    <row r="215" spans="2:4">
       <c r="B215" s="13"/>
+      <c r="C215" s="106"/>
       <c r="D215" s="106"/>
-      <c r="E215" s="106"/>
-    </row>
-    <row r="216" spans="2:5">
+    </row>
+    <row r="216" spans="2:4">
       <c r="B216" s="13"/>
-      <c r="D216" s="41"/>
-      <c r="E216" s="12"/>
-    </row>
-    <row r="217" spans="2:5">
+      <c r="C216" s="41"/>
+      <c r="D216" s="12"/>
+    </row>
+    <row r="217" spans="2:4">
       <c r="B217" s="13"/>
-      <c r="D217" s="41"/>
-      <c r="E217" s="12"/>
-    </row>
-    <row r="218" spans="2:5">
+      <c r="C217" s="41"/>
+      <c r="D217" s="12"/>
+    </row>
+    <row r="218" spans="2:4">
       <c r="B218" s="13"/>
-      <c r="D218" s="41"/>
-      <c r="E218" s="12"/>
-    </row>
-    <row r="219" spans="2:5">
+      <c r="C218" s="41"/>
+      <c r="D218" s="12"/>
+    </row>
+    <row r="219" spans="2:4">
       <c r="B219" s="13"/>
-      <c r="D219" s="41"/>
-      <c r="E219" s="12"/>
-    </row>
-    <row r="220" spans="2:5">
+      <c r="C219" s="41"/>
+      <c r="D219" s="12"/>
+    </row>
+    <row r="220" spans="2:4">
       <c r="B220" s="13"/>
-      <c r="D220" s="41"/>
-      <c r="E220" s="12"/>
-    </row>
-    <row r="221" spans="2:5">
+      <c r="C220" s="41"/>
+      <c r="D220" s="12"/>
+    </row>
+    <row r="221" spans="2:4">
       <c r="B221" s="13"/>
-      <c r="D221" s="41"/>
-      <c r="E221" s="12"/>
-    </row>
-    <row r="222" spans="2:5">
+      <c r="C221" s="41"/>
+      <c r="D221" s="12"/>
+    </row>
+    <row r="222" spans="2:4">
       <c r="B222" s="13"/>
-      <c r="D222" s="41"/>
-      <c r="E222" s="12"/>
-    </row>
-    <row r="223" spans="2:5">
+      <c r="C222" s="41"/>
+      <c r="D222" s="12"/>
+    </row>
+    <row r="223" spans="2:4">
       <c r="B223" s="13"/>
-      <c r="D223" s="41"/>
-      <c r="E223" s="12"/>
-    </row>
-    <row r="224" spans="2:5">
+      <c r="C223" s="41"/>
+      <c r="D223" s="12"/>
+    </row>
+    <row r="224" spans="2:4">
       <c r="B224" s="13"/>
-      <c r="D224" s="41"/>
-      <c r="E224" s="12"/>
+      <c r="C224" s="41"/>
+      <c r="D224" s="12"/>
     </row>
     <row r="225" spans="1:5">
       <c r="B225" s="13"/>
-      <c r="D225" s="41"/>
-      <c r="E225" s="12"/>
+      <c r="C225" s="41"/>
+      <c r="D225" s="12"/>
     </row>
     <row r="226" spans="1:5">
       <c r="B226" s="13"/>
-      <c r="D226" s="31"/>
-      <c r="E226" s="12"/>
+      <c r="C226" s="31"/>
+      <c r="D226" s="12"/>
     </row>
     <row r="227" spans="1:5">
       <c r="B227" s="13"/>
-      <c r="D227" s="31"/>
-      <c r="E227" s="12"/>
+      <c r="C227" s="31"/>
+      <c r="D227" s="12"/>
     </row>
     <row r="228" spans="1:5">
       <c r="B228" s="13"/>
-      <c r="D228" s="41"/>
-      <c r="E228" s="12"/>
+      <c r="C228" s="41"/>
+      <c r="D228" s="12"/>
     </row>
     <row r="229" spans="1:5">
       <c r="B229" s="13"/>
-      <c r="D229" s="41"/>
-      <c r="E229" s="12"/>
+      <c r="C229" s="41"/>
+      <c r="D229" s="12"/>
     </row>
     <row r="230" spans="1:5">
       <c r="B230" s="13"/>
-      <c r="D230" s="41"/>
-      <c r="E230" s="12"/>
+      <c r="C230" s="41"/>
+      <c r="D230" s="12"/>
     </row>
     <row r="231" spans="1:5">
       <c r="B231" s="13"/>
-      <c r="D231" s="41"/>
-      <c r="E231" s="12"/>
+      <c r="C231" s="41"/>
+      <c r="D231" s="12"/>
     </row>
     <row r="232" spans="1:5" s="13" customFormat="1">
       <c r="A232" s="143"/>
-      <c r="C232" s="44"/>
-      <c r="D232" s="104"/>
-      <c r="E232" s="12"/>
+      <c r="C232" s="104"/>
+      <c r="D232" s="12"/>
+      <c r="E232" s="44"/>
     </row>
     <row r="233" spans="1:5" s="13" customFormat="1">
       <c r="A233" s="143"/>
-      <c r="C233" s="44"/>
-      <c r="D233" s="104"/>
-      <c r="E233" s="12"/>
+      <c r="C233" s="104"/>
+      <c r="D233" s="12"/>
+      <c r="E233" s="44"/>
     </row>
     <row r="234" spans="1:5" s="13" customFormat="1">
       <c r="A234" s="143"/>
-      <c r="C234" s="44"/>
-      <c r="D234" s="104"/>
-      <c r="E234" s="12"/>
+      <c r="C234" s="104"/>
+      <c r="D234" s="12"/>
+      <c r="E234" s="44"/>
     </row>
     <row r="235" spans="1:5" s="13" customFormat="1">
       <c r="A235" s="143"/>
-      <c r="C235" s="44"/>
-      <c r="D235" s="88"/>
-      <c r="E235" s="49"/>
+      <c r="C235" s="88"/>
+      <c r="D235" s="49"/>
+      <c r="E235" s="44"/>
     </row>
     <row r="236" spans="1:5">
       <c r="B236" s="13"/>
-      <c r="D236" s="88"/>
-      <c r="E236" s="49"/>
+      <c r="C236" s="88"/>
+      <c r="D236" s="49"/>
     </row>
     <row r="237" spans="1:5" s="13" customFormat="1">
       <c r="A237" s="143"/>
-      <c r="C237" s="44"/>
-      <c r="D237" s="88"/>
-      <c r="E237" s="49"/>
+      <c r="C237" s="88"/>
+      <c r="D237" s="49"/>
+      <c r="E237" s="44"/>
     </row>
     <row r="238" spans="1:5" s="13" customFormat="1">
       <c r="A238" s="143"/>
-      <c r="C238" s="44"/>
-      <c r="D238" s="88"/>
-      <c r="E238" s="49"/>
+      <c r="C238" s="88"/>
+      <c r="D238" s="49"/>
+      <c r="E238" s="44"/>
     </row>
     <row r="239" spans="1:5" s="13" customFormat="1">
       <c r="A239" s="143"/>
-      <c r="C239" s="44"/>
-      <c r="D239" s="88"/>
-      <c r="E239" s="49"/>
+      <c r="C239" s="88"/>
+      <c r="D239" s="49"/>
+      <c r="E239" s="44"/>
     </row>
     <row r="240" spans="1:5" s="13" customFormat="1">
       <c r="A240" s="143"/>
-      <c r="C240" s="44"/>
-      <c r="D240" s="88"/>
-      <c r="E240" s="49"/>
+      <c r="C240" s="88"/>
+      <c r="D240" s="49"/>
+      <c r="E240" s="44"/>
     </row>
     <row r="241" spans="1:5">
       <c r="B241" s="13"/>
-      <c r="D241" s="88"/>
-      <c r="E241" s="49"/>
+      <c r="C241" s="88"/>
+      <c r="D241" s="49"/>
     </row>
     <row r="242" spans="1:5">
       <c r="B242" s="13"/>
-      <c r="D242" s="104"/>
-      <c r="E242" s="106"/>
+      <c r="C242" s="104"/>
+      <c r="D242" s="106"/>
     </row>
     <row r="243" spans="1:5">
       <c r="B243" s="13"/>
-      <c r="D243" s="104"/>
-      <c r="E243" s="106"/>
+      <c r="C243" s="104"/>
+      <c r="D243" s="106"/>
     </row>
     <row r="244" spans="1:5">
       <c r="B244" s="13"/>
-      <c r="D244" s="104"/>
-      <c r="E244" s="106"/>
+      <c r="C244" s="104"/>
+      <c r="D244" s="106"/>
     </row>
     <row r="245" spans="1:5">
       <c r="B245" s="13"/>
-      <c r="D245" s="104"/>
-      <c r="E245" s="106"/>
+      <c r="C245" s="104"/>
+      <c r="D245" s="106"/>
     </row>
     <row r="246" spans="1:5">
       <c r="B246" s="13"/>
-      <c r="D246" s="104"/>
-      <c r="E246" s="106"/>
+      <c r="C246" s="104"/>
+      <c r="D246" s="106"/>
     </row>
     <row r="247" spans="1:5" s="13" customFormat="1">
       <c r="A247" s="143"/>
-      <c r="C247" s="44"/>
-      <c r="D247" s="104"/>
-      <c r="E247" s="106"/>
+      <c r="C247" s="104"/>
+      <c r="D247" s="106"/>
+      <c r="E247" s="44"/>
     </row>
     <row r="248" spans="1:5" s="13" customFormat="1">
       <c r="A248" s="143"/>
-      <c r="C248" s="44"/>
-      <c r="D248" s="104"/>
-      <c r="E248" s="12"/>
+      <c r="C248" s="104"/>
+      <c r="D248" s="12"/>
+      <c r="E248" s="44"/>
     </row>
     <row r="249" spans="1:5" s="13" customFormat="1">
       <c r="A249" s="143"/>
-      <c r="C249" s="44"/>
-      <c r="D249" s="104"/>
-      <c r="E249" s="12"/>
+      <c r="C249" s="104"/>
+      <c r="D249" s="12"/>
+      <c r="E249" s="44"/>
     </row>
     <row r="250" spans="1:5" s="13" customFormat="1">
       <c r="A250" s="143"/>
-      <c r="C250" s="44"/>
-      <c r="D250" s="104"/>
-      <c r="E250" s="12"/>
+      <c r="C250" s="104"/>
+      <c r="D250" s="12"/>
+      <c r="E250" s="44"/>
     </row>
     <row r="251" spans="1:5" s="13" customFormat="1">
       <c r="A251" s="143"/>
-      <c r="C251" s="44"/>
-      <c r="D251" s="104"/>
-      <c r="E251" s="12"/>
+      <c r="C251" s="104"/>
+      <c r="D251" s="12"/>
+      <c r="E251" s="44"/>
     </row>
     <row r="252" spans="1:5">
       <c r="B252" s="13"/>
-      <c r="D252" s="104"/>
-      <c r="E252" s="106"/>
+      <c r="C252" s="104"/>
+      <c r="D252" s="106"/>
     </row>
     <row r="253" spans="1:5">
       <c r="B253" s="13"/>
-      <c r="D253" s="104"/>
-      <c r="E253" s="106"/>
+      <c r="C253" s="104"/>
+      <c r="D253" s="106"/>
     </row>
     <row r="254" spans="1:5">
       <c r="B254" s="13"/>
-      <c r="D254" s="104"/>
-      <c r="E254" s="106"/>
+      <c r="C254" s="104"/>
+      <c r="D254" s="106"/>
     </row>
     <row r="255" spans="1:5" s="13" customFormat="1">
       <c r="A255" s="93"/>
-      <c r="C255" s="44"/>
-      <c r="D255" s="104"/>
-      <c r="E255" s="12"/>
+      <c r="C255" s="104"/>
+      <c r="D255" s="12"/>
+      <c r="E255" s="44"/>
     </row>
     <row r="256" spans="1:5" s="13" customFormat="1">
       <c r="A256" s="93"/>
-      <c r="C256" s="44"/>
-      <c r="D256" s="104"/>
-      <c r="E256" s="12"/>
+      <c r="C256" s="104"/>
+      <c r="D256" s="12"/>
+      <c r="E256" s="44"/>
     </row>
     <row r="257" spans="1:5" s="13" customFormat="1">
       <c r="A257" s="93"/>
-      <c r="C257" s="44"/>
-      <c r="D257" s="104"/>
-      <c r="E257" s="12"/>
+      <c r="C257" s="104"/>
+      <c r="D257" s="12"/>
+      <c r="E257" s="44"/>
     </row>
     <row r="258" spans="1:5" s="13" customFormat="1">
       <c r="A258" s="93"/>
-      <c r="C258" s="44"/>
-      <c r="D258" s="104"/>
-      <c r="E258" s="12"/>
+      <c r="C258" s="104"/>
+      <c r="D258" s="12"/>
+      <c r="E258" s="44"/>
     </row>
     <row r="259" spans="1:5" s="13" customFormat="1">
       <c r="A259" s="93"/>
-      <c r="C259" s="44"/>
-      <c r="D259" s="104"/>
-      <c r="E259" s="12"/>
+      <c r="C259" s="104"/>
+      <c r="D259" s="12"/>
+      <c r="E259" s="44"/>
     </row>
     <row r="260" spans="1:5">
       <c r="B260" s="13"/>
-      <c r="D260" s="88"/>
-      <c r="E260" s="31"/>
+      <c r="C260" s="88"/>
+      <c r="D260" s="31"/>
     </row>
     <row r="261" spans="1:5">
       <c r="B261" s="13"/>
-      <c r="D261" s="88"/>
-      <c r="E261" s="31"/>
+      <c r="C261" s="88"/>
+      <c r="D261" s="31"/>
     </row>
     <row r="262" spans="1:5" s="13" customFormat="1">
       <c r="A262" s="143"/>
-      <c r="C262" s="44"/>
-      <c r="D262" s="88"/>
-      <c r="E262" s="31"/>
+      <c r="C262" s="88"/>
+      <c r="D262" s="31"/>
+      <c r="E262" s="44"/>
     </row>
     <row r="263" spans="1:5" s="13" customFormat="1">
       <c r="A263" s="143"/>
-      <c r="C263" s="44"/>
-      <c r="D263" s="88"/>
-      <c r="E263" s="31"/>
+      <c r="C263" s="88"/>
+      <c r="D263" s="31"/>
+      <c r="E263" s="44"/>
     </row>
     <row r="264" spans="1:5" s="13" customFormat="1">
       <c r="A264" s="143"/>
-      <c r="C264" s="44"/>
-      <c r="D264" s="88"/>
-      <c r="E264" s="31"/>
+      <c r="C264" s="88"/>
+      <c r="D264" s="31"/>
+      <c r="E264" s="44"/>
     </row>
     <row r="265" spans="1:5">
       <c r="B265" s="13"/>
+      <c r="C265" s="88"/>
       <c r="D265" s="88"/>
-      <c r="E265" s="88"/>
     </row>
     <row r="266" spans="1:5">
       <c r="B266" s="13"/>
+      <c r="C266" s="88"/>
       <c r="D266" s="88"/>
-      <c r="E266" s="88"/>
     </row>
     <row r="267" spans="1:5">
       <c r="B267" s="13"/>
+      <c r="C267" s="88"/>
       <c r="D267" s="88"/>
-      <c r="E267" s="88"/>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" s="131"/>
@@ -17128,8 +17181,12 @@
       <c r="A287" s="44"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A139" r:id="rId1"/>
+    <hyperlink ref="A129" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -17137,8 +17194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P130"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -17159,10 +17216,13 @@
         <v>1727</v>
       </c>
       <c r="C1" s="148" t="s">
-        <v>1782</v>
+        <v>1856</v>
       </c>
       <c r="D1" s="154" t="s">
         <v>1838</v>
+      </c>
+      <c r="E1" s="148" t="s">
+        <v>1855</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="148" customFormat="1" ht="15.75">
@@ -17172,7 +17232,9 @@
       <c r="D2" s="154" t="s">
         <v>1839</v>
       </c>
-      <c r="E2" s="154"/>
+      <c r="E2" s="154" t="s">
+        <v>1854</v>
+      </c>
       <c r="F2" s="154"/>
       <c r="G2" s="154"/>
       <c r="H2" s="154"/>
@@ -17327,7 +17389,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="87" t="s">
-        <v>1084</v>
+        <v>1843</v>
       </c>
       <c r="B13" s="87" t="s">
         <v>1027</v>
@@ -17337,6 +17399,9 @@
       </c>
       <c r="D13" s="82" t="s">
         <v>1078</v>
+      </c>
+      <c r="E13" s="157" t="s">
+        <v>1084</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -17369,7 +17434,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="87" t="s">
-        <v>1091</v>
+        <v>1848</v>
       </c>
       <c r="B16" s="87" t="s">
         <v>1044</v>
@@ -17380,10 +17445,13 @@
       <c r="D16" s="82" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="157" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="87" t="s">
-        <v>1084</v>
+        <v>1844</v>
       </c>
       <c r="B17" s="87" t="s">
         <v>1044</v>
@@ -17394,8 +17462,11 @@
       <c r="D17" s="82" t="s">
         <v>1078</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="157" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="87" t="s">
         <v>1089</v>
       </c>
@@ -17409,9 +17480,9 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19" s="87" t="s">
-        <v>1090</v>
+        <v>1847</v>
       </c>
       <c r="B19" s="87" t="s">
         <v>1044</v>
@@ -17422,8 +17493,11 @@
       <c r="D19" s="82" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="157" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="87" t="s">
         <v>1099</v>
       </c>
@@ -17437,9 +17511,9 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21" s="87" t="s">
-        <v>1091</v>
+        <v>1849</v>
       </c>
       <c r="B21" s="87" t="s">
         <v>1000</v>
@@ -17450,8 +17524,11 @@
       <c r="D21" s="82" t="s">
         <v>1093</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="157" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="87" t="s">
         <v>1103</v>
       </c>
@@ -17465,7 +17542,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5">
       <c r="A23" s="87" t="s">
         <v>1101</v>
       </c>
@@ -17479,9 +17556,9 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5">
       <c r="A24" s="87" t="s">
-        <v>1090</v>
+        <v>1845</v>
       </c>
       <c r="B24" s="87" t="s">
         <v>1000</v>
@@ -17492,8 +17569,11 @@
       <c r="D24" s="82" t="s">
         <v>1096</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="157" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="87" t="s">
         <v>1105</v>
       </c>
@@ -17507,7 +17587,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5">
       <c r="A26" s="87" t="s">
         <v>1687</v>
       </c>
@@ -17521,7 +17601,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5">
       <c r="A27" s="87" t="s">
         <v>1657</v>
       </c>
@@ -17535,7 +17615,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5">
       <c r="A28" s="87" t="s">
         <v>1656</v>
       </c>
@@ -17549,9 +17629,9 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5">
       <c r="A29" s="87" t="s">
-        <v>1090</v>
+        <v>1846</v>
       </c>
       <c r="B29" s="87" t="s">
         <v>990</v>
@@ -17562,8 +17642,11 @@
       <c r="D29" s="87" t="s">
         <v>1108</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" s="157" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="87" t="s">
         <v>1121</v>
       </c>
@@ -17577,7 +17660,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:5">
       <c r="A31" s="87" t="s">
         <v>1718</v>
       </c>
@@ -17591,7 +17674,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:5">
       <c r="A32" s="87" t="s">
         <v>1719</v>
       </c>
@@ -18053,7 +18136,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:5">
       <c r="A65" s="87" t="s">
         <v>1663</v>
       </c>
@@ -18067,7 +18150,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:5">
       <c r="A66" s="87" t="s">
         <v>1664</v>
       </c>
@@ -18081,7 +18164,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:5">
       <c r="A67" s="87" t="s">
         <v>1665</v>
       </c>
@@ -18095,7 +18178,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:5">
       <c r="A68" s="87" t="s">
         <v>1666</v>
       </c>
@@ -18109,7 +18192,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:5">
       <c r="A69" s="87" t="s">
         <v>1667</v>
       </c>
@@ -18123,7 +18206,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:5">
       <c r="A70" s="87" t="s">
         <v>1668</v>
       </c>
@@ -18137,7 +18220,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:5">
       <c r="A71" s="87" t="s">
         <v>1669</v>
       </c>
@@ -18151,7 +18234,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:5">
       <c r="A72" s="87" t="s">
         <v>1171</v>
       </c>
@@ -18165,7 +18248,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:5">
       <c r="A73" s="87" t="s">
         <v>1683</v>
       </c>
@@ -18179,7 +18262,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:5">
       <c r="A74" s="87" t="s">
         <v>1670</v>
       </c>
@@ -18193,7 +18276,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:5">
       <c r="A75" s="87" t="s">
         <v>1671</v>
       </c>
@@ -18207,7 +18290,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:5">
       <c r="A76" s="87" t="s">
         <v>1672</v>
       </c>
@@ -18221,7 +18304,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:5">
       <c r="A77" s="87" t="s">
         <v>1673</v>
       </c>
@@ -18235,7 +18318,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:5">
       <c r="A78" s="87" t="s">
         <v>1684</v>
       </c>
@@ -18249,9 +18332,9 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:5">
       <c r="A79" s="87" t="s">
-        <v>993</v>
+        <v>1294</v>
       </c>
       <c r="B79" s="87" t="s">
         <v>1617</v>
@@ -18262,8 +18345,11 @@
       <c r="D79" s="82" t="s">
         <v>1294</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79" s="87" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="87" t="s">
         <v>1570</v>
       </c>
@@ -18277,7 +18363,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:5">
       <c r="A81" s="87" t="s">
         <v>1182</v>
       </c>
@@ -18291,7 +18377,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:5">
       <c r="A82" s="87" t="s">
         <v>1029</v>
       </c>
@@ -18305,7 +18391,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:5">
       <c r="A83" s="87" t="s">
         <v>1642</v>
       </c>
@@ -18319,7 +18405,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:5">
       <c r="A84" s="87" t="s">
         <v>1640</v>
       </c>
@@ -18333,7 +18419,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:5">
       <c r="A85" s="87" t="s">
         <v>1641</v>
       </c>
@@ -18347,7 +18433,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:5">
       <c r="A86" s="87" t="s">
         <v>1638</v>
       </c>
@@ -18361,7 +18447,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:5">
       <c r="A87" s="87" t="s">
         <v>1576</v>
       </c>
@@ -18375,7 +18461,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:5">
       <c r="A88" s="87" t="s">
         <v>1674</v>
       </c>
@@ -18389,7 +18475,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:5">
       <c r="A89" s="87" t="s">
         <v>1675</v>
       </c>
@@ -18403,7 +18489,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:5">
       <c r="A90" s="87" t="s">
         <v>1676</v>
       </c>
@@ -18417,7 +18503,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:5">
       <c r="A91" s="87" t="s">
         <v>1677</v>
       </c>
@@ -18431,7 +18517,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:5">
       <c r="A92" s="87" t="s">
         <v>1678</v>
       </c>
@@ -18445,7 +18531,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:5">
       <c r="A93" s="87" t="s">
         <v>1679</v>
       </c>
@@ -18459,7 +18545,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:5">
       <c r="A94" s="87" t="s">
         <v>1211</v>
       </c>
@@ -18473,9 +18559,9 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="87" t="s">
-        <v>1043</v>
+    <row r="95" spans="1:5">
+      <c r="A95" s="82" t="s">
+        <v>1210</v>
       </c>
       <c r="B95" s="87" t="s">
         <v>1035</v>
@@ -18486,8 +18572,11 @@
       <c r="D95" s="82" t="s">
         <v>1210</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="E95" s="87" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" s="87" t="s">
         <v>988</v>
       </c>
@@ -18558,11 +18647,11 @@
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="156" t="s">
-        <v>1756</v>
-      </c>
-      <c r="B101" s="87" t="s">
-        <v>1755</v>
+      <c r="A101" s="82" t="s">
+        <v>964</v>
+      </c>
+      <c r="B101" s="161" t="s">
+        <v>1852</v>
       </c>
       <c r="C101" s="82" t="s">
         <v>964</v>
@@ -18572,11 +18661,11 @@
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="156" t="s">
-        <v>1757</v>
-      </c>
-      <c r="B102" s="87" t="s">
-        <v>1755</v>
+      <c r="A102" s="82" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B102" s="161" t="s">
+        <v>1852</v>
       </c>
       <c r="C102" s="82" t="s">
         <v>1220</v>
@@ -18586,11 +18675,11 @@
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="156" t="s">
-        <v>1758</v>
-      </c>
-      <c r="B103" s="87" t="s">
-        <v>1755</v>
+      <c r="A103" s="82" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B103" s="161" t="s">
+        <v>1852</v>
       </c>
       <c r="C103" s="82" t="s">
         <v>1219</v>
@@ -18600,11 +18689,11 @@
       </c>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="156" t="s">
-        <v>1759</v>
-      </c>
-      <c r="B104" s="87" t="s">
-        <v>1755</v>
+      <c r="A104" s="82" t="s">
+        <v>108</v>
+      </c>
+      <c r="B104" s="161" t="s">
+        <v>1852</v>
       </c>
       <c r="C104" s="82" t="s">
         <v>108</v>
@@ -18614,11 +18703,11 @@
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="156" t="s">
-        <v>1760</v>
-      </c>
-      <c r="B105" s="87" t="s">
-        <v>1755</v>
+      <c r="A105" s="82" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B105" s="161" t="s">
+        <v>1852</v>
       </c>
       <c r="C105" s="82" t="s">
         <v>1218</v>
@@ -18740,11 +18829,11 @@
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="156" t="s">
-        <v>1770</v>
-      </c>
-      <c r="B114" s="87" t="s">
-        <v>1769</v>
+      <c r="A114" s="82" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B114" s="161" t="s">
+        <v>1853</v>
       </c>
       <c r="C114" s="82" t="s">
         <v>1761</v>
@@ -18754,11 +18843,11 @@
       </c>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="156" t="s">
-        <v>1771</v>
-      </c>
-      <c r="B115" s="87" t="s">
-        <v>1769</v>
+      <c r="A115" s="82" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B115" s="161" t="s">
+        <v>1853</v>
       </c>
       <c r="C115" s="82" t="s">
         <v>1762</v>
@@ -18768,11 +18857,11 @@
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="156" t="s">
-        <v>1772</v>
-      </c>
-      <c r="B116" s="87" t="s">
-        <v>1769</v>
+      <c r="A116" s="82" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B116" s="161" t="s">
+        <v>1853</v>
       </c>
       <c r="C116" s="82" t="s">
         <v>1763</v>
@@ -18782,11 +18871,11 @@
       </c>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="156" t="s">
-        <v>1773</v>
-      </c>
-      <c r="B117" s="87" t="s">
-        <v>1769</v>
+      <c r="A117" s="82" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B117" s="161" t="s">
+        <v>1853</v>
       </c>
       <c r="C117" s="82" t="s">
         <v>1765</v>
@@ -18796,11 +18885,11 @@
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="156" t="s">
-        <v>1774</v>
-      </c>
-      <c r="B118" s="87" t="s">
-        <v>1769</v>
+      <c r="A118" s="82" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B118" s="161" t="s">
+        <v>1853</v>
       </c>
       <c r="C118" s="82" t="s">
         <v>1766</v>
@@ -18810,11 +18899,11 @@
       </c>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="156" t="s">
-        <v>1768</v>
-      </c>
-      <c r="B119" s="87" t="s">
-        <v>1769</v>
+      <c r="A119" s="82" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B119" s="161" t="s">
+        <v>1853</v>
       </c>
       <c r="C119" s="82" t="s">
         <v>1767</v>
@@ -18883,20 +18972,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A101" r:id="rId1"/>
-    <hyperlink ref="A102" r:id="rId2"/>
-    <hyperlink ref="A103" r:id="rId3"/>
-    <hyperlink ref="A104" r:id="rId4"/>
-    <hyperlink ref="A105" r:id="rId5"/>
-    <hyperlink ref="A114" r:id="rId6"/>
-    <hyperlink ref="A115" r:id="rId7"/>
-    <hyperlink ref="A116" r:id="rId8"/>
-    <hyperlink ref="A117" r:id="rId9"/>
-    <hyperlink ref="A118" r:id="rId10"/>
-    <hyperlink ref="A119" r:id="rId11"/>
+    <hyperlink ref="E13" r:id="rId1"/>
+    <hyperlink ref="E16" r:id="rId2"/>
+    <hyperlink ref="E17" r:id="rId3"/>
+    <hyperlink ref="E19" r:id="rId4"/>
+    <hyperlink ref="E24" r:id="rId5"/>
+    <hyperlink ref="E29" r:id="rId6"/>
+    <hyperlink ref="B114:B119" r:id="rId7" display="http://purl.obolibrary.org/obo/TEMP_00001"/>
+    <hyperlink ref="B101:B105" r:id="rId8" display="http://purl.obolibrary.org/obo/TEMP_00002"/>
+    <hyperlink ref="E21" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -28342,11 +28429,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T287"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="I222" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E176" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I229" sqref="I229"/>
+      <selection pane="bottomRight" activeCell="J195" sqref="J195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -54400,4 +54487,4541 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E265"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="48.7109375" customWidth="1"/>
+    <col min="2" max="2" width="48.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" customWidth="1"/>
+    <col min="5" max="5" width="36.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75">
+      <c r="A1" s="154" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B1" s="154" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C1" s="154" t="s">
+        <v>511</v>
+      </c>
+      <c r="D1" s="154" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E1" s="154" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75">
+      <c r="A2" s="154"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D2" s="154" t="s">
+        <v>1835</v>
+      </c>
+      <c r="E2" s="154" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="87" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B3" s="87" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C3" s="143">
+        <v>11</v>
+      </c>
+      <c r="D3" s="82" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E3" s="82" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="87" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B4" s="87" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C4" s="143">
+        <v>15</v>
+      </c>
+      <c r="D4" s="82" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E4" s="82" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="87" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B5" s="87" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>891</v>
+      </c>
+      <c r="D5" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="153" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="87" t="s">
+        <v>980</v>
+      </c>
+      <c r="B6" s="143" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C6" s="143">
+        <v>110</v>
+      </c>
+      <c r="D6" s="87" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E6" s="87" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="87" t="s">
+        <v>982</v>
+      </c>
+      <c r="B7" s="143" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C7" s="143">
+        <v>111</v>
+      </c>
+      <c r="D7" s="87" t="s">
+        <v>1754</v>
+      </c>
+      <c r="E7" s="87" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="87" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B8" s="87" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C8" s="143">
+        <v>23</v>
+      </c>
+      <c r="D8" s="82" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E8" s="82" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="87" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B9" s="87" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C9" s="143">
+        <v>20</v>
+      </c>
+      <c r="D9" s="82" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E9" s="82" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="87" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B10" s="87" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C10" s="143">
+        <v>17</v>
+      </c>
+      <c r="D10" s="82" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E10" s="82" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="87" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B11" s="87" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="143">
+        <v>22</v>
+      </c>
+      <c r="D11" s="82" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E11" s="82" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="87" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B12" s="87" t="s">
+        <v>990</v>
+      </c>
+      <c r="C12" s="143">
+        <v>27</v>
+      </c>
+      <c r="D12" s="87" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E12" s="87" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="87" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B13" s="87" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C13" s="143">
+        <v>78</v>
+      </c>
+      <c r="D13" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="82" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="87" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B14" s="87" t="s">
+        <v>992</v>
+      </c>
+      <c r="C14" s="143">
+        <v>33</v>
+      </c>
+      <c r="D14" s="87" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E14" s="87" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="87" t="s">
+        <v>992</v>
+      </c>
+      <c r="B15" s="87" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C15" s="86" t="s">
+        <v>482</v>
+      </c>
+      <c r="D15" s="87" t="s">
+        <v>347</v>
+      </c>
+      <c r="E15" s="87" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="87" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B16" s="87" t="s">
+        <v>992</v>
+      </c>
+      <c r="C16" s="143">
+        <v>37</v>
+      </c>
+      <c r="D16" s="87" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E16" s="87" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="87" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B17" s="87" t="s">
+        <v>992</v>
+      </c>
+      <c r="C17" s="143">
+        <v>28</v>
+      </c>
+      <c r="D17" s="87" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E17" s="87" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="87" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B18" s="87" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C18" s="143">
+        <v>16</v>
+      </c>
+      <c r="D18" s="82" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E18" s="82" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="87" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B19" s="87" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C19" s="143">
+        <v>21</v>
+      </c>
+      <c r="D19" s="82" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E19" s="82" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="87" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B20" s="87" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C20" s="143">
+        <v>14</v>
+      </c>
+      <c r="D20" s="82" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E20" s="82" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="87" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B21" s="87" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C21" s="143">
+        <v>19</v>
+      </c>
+      <c r="D21" s="82" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E21" s="82" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="87" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B22" s="87" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C22" s="143">
+        <v>12</v>
+      </c>
+      <c r="D22" s="82" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E22" s="82" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="87" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B23" s="87" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C23" s="143">
+        <v>18</v>
+      </c>
+      <c r="D23" s="82" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E23" s="82" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="87" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B24" s="87" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C24" s="143">
+        <v>13</v>
+      </c>
+      <c r="D24" s="82" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E24" s="82" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="87" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B25" s="87" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C25" s="86" t="s">
+        <v>491</v>
+      </c>
+      <c r="D25" s="87" t="s">
+        <v>419</v>
+      </c>
+      <c r="E25" s="87" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="87" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B26" s="87" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C26" s="143">
+        <v>51</v>
+      </c>
+      <c r="D26" s="87" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E26" s="87" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="87" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B27" s="87" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C27" s="143">
+        <v>56</v>
+      </c>
+      <c r="D27" s="87" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E27" s="87" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="87" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B28" s="87" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C28" s="143">
+        <v>50</v>
+      </c>
+      <c r="D28" s="87" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E28" s="87" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="87" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B29" s="87" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C29" s="143">
+        <v>48</v>
+      </c>
+      <c r="D29" s="87" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E29" s="87" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="87" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B30" s="87" t="s">
+        <v>990</v>
+      </c>
+      <c r="C30" s="143">
+        <v>24</v>
+      </c>
+      <c r="D30" s="87" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E30" s="87" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="87" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B31" s="87" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C31" s="143">
+        <v>45</v>
+      </c>
+      <c r="D31" s="87" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E31" s="87" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="87" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B32" s="87" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C32" s="143">
+        <v>43</v>
+      </c>
+      <c r="D32" s="87" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E32" s="87" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="87" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B33" s="87" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C33" s="143">
+        <v>42</v>
+      </c>
+      <c r="D33" s="87" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E33" s="87" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="87" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B34" s="87" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C34" s="143">
+        <v>47</v>
+      </c>
+      <c r="D34" s="87" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E34" s="87" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="87" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B35" s="87" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C35" s="143">
+        <v>41</v>
+      </c>
+      <c r="D35" s="87" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E35" s="87" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="87" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B36" s="87" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C36" s="143">
+        <v>44</v>
+      </c>
+      <c r="D36" s="87" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E36" s="87" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="87" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B37" s="87" t="s">
+        <v>992</v>
+      </c>
+      <c r="C37" s="143">
+        <v>38</v>
+      </c>
+      <c r="D37" s="87" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E37" s="87" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="87" t="s">
+        <v>993</v>
+      </c>
+      <c r="B38" s="87" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C38" s="86" t="s">
+        <v>689</v>
+      </c>
+      <c r="D38" s="82" t="s">
+        <v>236</v>
+      </c>
+      <c r="E38" s="87" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="87" t="s">
+        <v>993</v>
+      </c>
+      <c r="B39" s="87" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C39" s="143">
+        <v>77</v>
+      </c>
+      <c r="D39" s="82" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E39" s="82" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="87" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B40" s="87" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C40" s="86" t="s">
+        <v>692</v>
+      </c>
+      <c r="D40" s="87" t="s">
+        <v>412</v>
+      </c>
+      <c r="E40" s="87" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="87" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B41" s="87" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C41" s="86" t="s">
+        <v>694</v>
+      </c>
+      <c r="D41" s="87" t="s">
+        <v>395</v>
+      </c>
+      <c r="E41" s="87" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="87" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B42" s="87" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C42" s="86" t="s">
+        <v>693</v>
+      </c>
+      <c r="D42" s="87" t="s">
+        <v>420</v>
+      </c>
+      <c r="E42" s="87" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="87" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B43" s="87" t="s">
+        <v>993</v>
+      </c>
+      <c r="C43" s="143">
+        <v>5</v>
+      </c>
+      <c r="D43" s="87" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E43" s="87" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="87" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B44" s="87" t="s">
+        <v>993</v>
+      </c>
+      <c r="C44" s="143">
+        <v>4</v>
+      </c>
+      <c r="D44" s="87" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E44" s="87" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="87" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B45" s="87" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C45" s="86" t="s">
+        <v>498</v>
+      </c>
+      <c r="D45" s="87" t="s">
+        <v>352</v>
+      </c>
+      <c r="E45" s="87" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="87" t="s">
+        <v>994</v>
+      </c>
+      <c r="B46" s="87" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C46" s="86" t="s">
+        <v>690</v>
+      </c>
+      <c r="D46" s="87" t="s">
+        <v>393</v>
+      </c>
+      <c r="E46" s="87" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="87" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B47" s="87" t="s">
+        <v>994</v>
+      </c>
+      <c r="C47" s="143">
+        <v>7</v>
+      </c>
+      <c r="D47" s="87" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E47" s="87" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="87" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B48" s="87" t="s">
+        <v>994</v>
+      </c>
+      <c r="C48" s="143">
+        <v>6</v>
+      </c>
+      <c r="D48" s="87" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E48" s="87" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="87" t="s">
+        <v>960</v>
+      </c>
+      <c r="B49" s="87" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C49" s="86" t="s">
+        <v>691</v>
+      </c>
+      <c r="D49" s="87" t="s">
+        <v>378</v>
+      </c>
+      <c r="E49" s="87" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="87" t="s">
+        <v>954</v>
+      </c>
+      <c r="B50" s="87" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C50" s="86" t="s">
+        <v>686</v>
+      </c>
+      <c r="D50" s="87" t="s">
+        <v>356</v>
+      </c>
+      <c r="E50" s="87" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="87" t="s">
+        <v>990</v>
+      </c>
+      <c r="B51" s="87" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C51" s="86" t="s">
+        <v>695</v>
+      </c>
+      <c r="D51" s="87" t="s">
+        <v>346</v>
+      </c>
+      <c r="E51" s="87" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="87" t="s">
+        <v>955</v>
+      </c>
+      <c r="B52" s="87" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C52" s="86" t="s">
+        <v>687</v>
+      </c>
+      <c r="D52" s="87" t="s">
+        <v>349</v>
+      </c>
+      <c r="E52" s="87" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="87" t="s">
+        <v>951</v>
+      </c>
+      <c r="B53" s="87" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C53" s="86" t="s">
+        <v>697</v>
+      </c>
+      <c r="D53" s="87" t="s">
+        <v>353</v>
+      </c>
+      <c r="E53" s="87" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="87" t="s">
+        <v>952</v>
+      </c>
+      <c r="B54" s="87" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C54" s="86" t="s">
+        <v>698</v>
+      </c>
+      <c r="D54" s="87" t="s">
+        <v>355</v>
+      </c>
+      <c r="E54" s="87" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="87" t="s">
+        <v>953</v>
+      </c>
+      <c r="B55" s="87" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C55" s="86" t="s">
+        <v>700</v>
+      </c>
+      <c r="D55" s="87" t="s">
+        <v>354</v>
+      </c>
+      <c r="E55" s="87" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="87" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B56" s="87" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C56" s="86" t="s">
+        <v>699</v>
+      </c>
+      <c r="D56" s="87" t="s">
+        <v>351</v>
+      </c>
+      <c r="E56" s="87" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="87" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B57" s="87" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C57" s="86" t="s">
+        <v>745</v>
+      </c>
+      <c r="D57" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" s="87" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="87" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B58" s="87" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C58" s="86" t="s">
+        <v>748</v>
+      </c>
+      <c r="D58" s="87" t="s">
+        <v>375</v>
+      </c>
+      <c r="E58" s="87" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="87" t="s">
+        <v>965</v>
+      </c>
+      <c r="B59" s="87" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C59" s="86" t="s">
+        <v>747</v>
+      </c>
+      <c r="D59" s="87" t="s">
+        <v>460</v>
+      </c>
+      <c r="E59" s="87" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="87" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B60" s="87" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C60" s="86" t="s">
+        <v>749</v>
+      </c>
+      <c r="D60" s="87" t="s">
+        <v>376</v>
+      </c>
+      <c r="E60" s="87" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="87" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B61" s="87" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C61" s="86" t="s">
+        <v>914</v>
+      </c>
+      <c r="D61" s="87" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61" s="87" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="5" customFormat="1">
+      <c r="A62" s="158" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B62" s="158" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C62" s="159" t="s">
+        <v>912</v>
+      </c>
+      <c r="D62" s="158" t="s">
+        <v>41</v>
+      </c>
+      <c r="E62" s="158" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="5" customFormat="1">
+      <c r="A63" s="158"/>
+      <c r="B63" s="158" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C63" s="5">
+        <v>93</v>
+      </c>
+      <c r="D63" s="160" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E63" s="160" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="87" t="s">
+        <v>987</v>
+      </c>
+      <c r="B64" s="87" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C64" s="86" t="s">
+        <v>913</v>
+      </c>
+      <c r="D64" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="E64" s="87" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="87" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B65" s="87" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C65" s="143">
+        <v>92</v>
+      </c>
+      <c r="D65" s="82" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E65" s="82" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="87" t="s">
+        <v>988</v>
+      </c>
+      <c r="B66" s="87" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C66" s="143">
+        <v>94</v>
+      </c>
+      <c r="D66" s="82" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E66" s="82" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="87" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B67" s="87" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C67" s="143">
+        <v>95</v>
+      </c>
+      <c r="D67" s="82" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E67" s="82" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="87" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B68" s="87" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C68" s="86" t="s">
+        <v>915</v>
+      </c>
+      <c r="D68" s="87" t="s">
+        <v>159</v>
+      </c>
+      <c r="E68" s="87" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="87" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B69" s="87" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C69" s="86" t="s">
+        <v>920</v>
+      </c>
+      <c r="D69" s="82" t="s">
+        <v>81</v>
+      </c>
+      <c r="E69" s="82" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="87" t="s">
+        <v>976</v>
+      </c>
+      <c r="B70" s="87" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C70" s="86" t="s">
+        <v>922</v>
+      </c>
+      <c r="D70" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="E70" s="87" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="87" t="s">
+        <v>984</v>
+      </c>
+      <c r="B71" s="87" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C71" s="86" t="s">
+        <v>869</v>
+      </c>
+      <c r="D71" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" s="87" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="87" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B72" s="87" t="s">
+        <v>984</v>
+      </c>
+      <c r="C72" s="143">
+        <v>80</v>
+      </c>
+      <c r="D72" s="87" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E72" s="87" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="82" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B73" s="87" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C73" s="86" t="s">
+        <v>926</v>
+      </c>
+      <c r="D73" s="87" t="s">
+        <v>114</v>
+      </c>
+      <c r="E73" s="87" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="87" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B74" s="87" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C74" s="86" t="s">
+        <v>927</v>
+      </c>
+      <c r="D74" s="82" t="s">
+        <v>458</v>
+      </c>
+      <c r="E74" s="82" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="87" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B75" s="87" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C75" s="86" t="s">
+        <v>928</v>
+      </c>
+      <c r="D75" s="82" t="s">
+        <v>130</v>
+      </c>
+      <c r="E75" s="82" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="87" t="s">
+        <v>962</v>
+      </c>
+      <c r="B76" s="143" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C76" s="143">
+        <v>109</v>
+      </c>
+      <c r="D76" s="87" t="s">
+        <v>1753</v>
+      </c>
+      <c r="E76" s="87" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="87" t="s">
+        <v>963</v>
+      </c>
+      <c r="B77" s="87" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C77" s="86" t="s">
+        <v>917</v>
+      </c>
+      <c r="D77" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="E77" s="87" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="87" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B78" s="87" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C78" s="86" t="s">
+        <v>916</v>
+      </c>
+      <c r="D78" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="E78" s="87" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="5" customFormat="1">
+      <c r="A79" s="158" t="s">
+        <v>985</v>
+      </c>
+      <c r="B79" s="158" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C79" s="159" t="s">
+        <v>870</v>
+      </c>
+      <c r="D79" s="158" t="s">
+        <v>452</v>
+      </c>
+      <c r="E79" s="158" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="5" customFormat="1">
+      <c r="A80" s="143" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B80" s="158" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C80" s="159" t="s">
+        <v>881</v>
+      </c>
+      <c r="D80" s="158" t="s">
+        <v>151</v>
+      </c>
+      <c r="E80" s="158" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="87" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B81" s="87" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C81" s="86" t="s">
+        <v>923</v>
+      </c>
+      <c r="D81" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="87" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="87" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B82" s="87" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C82" s="86" t="s">
+        <v>741</v>
+      </c>
+      <c r="D82" s="87" t="s">
+        <v>407</v>
+      </c>
+      <c r="E82" s="87" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="87" t="s">
+        <v>995</v>
+      </c>
+      <c r="B83" s="87" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C83" s="86" t="s">
+        <v>884</v>
+      </c>
+      <c r="D83" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="E83" s="87" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="87" t="s">
+        <v>996</v>
+      </c>
+      <c r="B84" s="87" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C84" s="86" t="s">
+        <v>895</v>
+      </c>
+      <c r="D84" s="87" t="s">
+        <v>166</v>
+      </c>
+      <c r="E84" s="153" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="87" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B85" s="87" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C85" s="86" t="s">
+        <v>919</v>
+      </c>
+      <c r="D85" s="87" t="s">
+        <v>167</v>
+      </c>
+      <c r="E85" s="82" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="87" t="s">
+        <v>958</v>
+      </c>
+      <c r="B86" s="87" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C86" s="86" t="s">
+        <v>872</v>
+      </c>
+      <c r="D86" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" s="87" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="87" t="s">
+        <v>971</v>
+      </c>
+      <c r="B87" s="87" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C87" s="86" t="s">
+        <v>793</v>
+      </c>
+      <c r="D87" s="87" t="s">
+        <v>329</v>
+      </c>
+      <c r="E87" s="87" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="87" t="s">
+        <v>973</v>
+      </c>
+      <c r="B88" s="87" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C88" s="86" t="s">
+        <v>757</v>
+      </c>
+      <c r="D88" s="87" t="s">
+        <v>330</v>
+      </c>
+      <c r="E88" s="87" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="87" t="s">
+        <v>966</v>
+      </c>
+      <c r="B89" s="87" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C89" s="86" t="s">
+        <v>488</v>
+      </c>
+      <c r="D89" s="87" t="s">
+        <v>342</v>
+      </c>
+      <c r="E89" s="87" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="87" t="s">
+        <v>969</v>
+      </c>
+      <c r="B90" s="86" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C90" s="86" t="s">
+        <v>730</v>
+      </c>
+      <c r="D90" s="87" t="s">
+        <v>340</v>
+      </c>
+      <c r="E90" s="87" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="87" t="s">
+        <v>967</v>
+      </c>
+      <c r="B91" s="86" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C91" s="86" t="s">
+        <v>731</v>
+      </c>
+      <c r="D91" s="87" t="s">
+        <v>339</v>
+      </c>
+      <c r="E91" s="87" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="87" t="s">
+        <v>975</v>
+      </c>
+      <c r="B92" s="86" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C92" s="86" t="s">
+        <v>732</v>
+      </c>
+      <c r="D92" s="87" t="s">
+        <v>341</v>
+      </c>
+      <c r="E92" s="87" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="87" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B93" s="87" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C93" s="86" t="s">
+        <v>753</v>
+      </c>
+      <c r="D93" s="87" t="s">
+        <v>332</v>
+      </c>
+      <c r="E93" s="87" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="87" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B94" s="87" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C94" s="86" t="s">
+        <v>755</v>
+      </c>
+      <c r="D94" s="87" t="s">
+        <v>334</v>
+      </c>
+      <c r="E94" s="87" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="87" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B95" s="87" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C95" s="86" t="s">
+        <v>758</v>
+      </c>
+      <c r="D95" s="87" t="s">
+        <v>333</v>
+      </c>
+      <c r="E95" s="87" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="87" t="s">
+        <v>997</v>
+      </c>
+      <c r="B96" s="87" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C96" s="143">
+        <v>105</v>
+      </c>
+      <c r="D96" s="87" t="s">
+        <v>999</v>
+      </c>
+      <c r="E96" s="87" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="87" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B97" s="87" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C97" s="143">
+        <v>106</v>
+      </c>
+      <c r="D97" s="87" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E97" s="87" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="87" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B98" s="87" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C98" s="143">
+        <v>107</v>
+      </c>
+      <c r="D98" s="87" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E98" s="87" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="143" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B99" s="87" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C99" s="86" t="s">
+        <v>487</v>
+      </c>
+      <c r="D99" s="87" t="s">
+        <v>343</v>
+      </c>
+      <c r="E99" s="87" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="87" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B100" s="87" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C100" s="86" t="s">
+        <v>489</v>
+      </c>
+      <c r="D100" s="87" t="s">
+        <v>455</v>
+      </c>
+      <c r="E100" s="87" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="87" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B101" s="149" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C101" s="86" t="s">
+        <v>725</v>
+      </c>
+      <c r="D101" s="87" t="s">
+        <v>456</v>
+      </c>
+      <c r="E101" s="87" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="87" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B102" s="149" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C102" s="86" t="s">
+        <v>720</v>
+      </c>
+      <c r="D102" s="87" t="s">
+        <v>457</v>
+      </c>
+      <c r="E102" s="87" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="87" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B103" s="87" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C103" s="86" t="s">
+        <v>738</v>
+      </c>
+      <c r="D103" s="87" t="s">
+        <v>331</v>
+      </c>
+      <c r="E103" s="87" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="87" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B104" s="87" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C104" s="86" t="s">
+        <v>754</v>
+      </c>
+      <c r="D104" s="87" t="s">
+        <v>335</v>
+      </c>
+      <c r="E104" s="87" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="87" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B105" s="87" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C105" s="86" t="s">
+        <v>792</v>
+      </c>
+      <c r="D105" s="87" t="s">
+        <v>336</v>
+      </c>
+      <c r="E105" s="87" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="87" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B106" s="87" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C106" s="86" t="s">
+        <v>756</v>
+      </c>
+      <c r="D106" s="87" t="s">
+        <v>337</v>
+      </c>
+      <c r="E106" s="87" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="87" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B107" s="87" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C107" s="86" t="s">
+        <v>499</v>
+      </c>
+      <c r="D107" s="87" t="s">
+        <v>418</v>
+      </c>
+      <c r="E107" s="87" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="87" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B108" s="87" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C108" s="86" t="s">
+        <v>876</v>
+      </c>
+      <c r="D108" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="E108" s="87" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="87" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B109" s="87" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C109" s="86" t="s">
+        <v>751</v>
+      </c>
+      <c r="D109" s="87" t="s">
+        <v>386</v>
+      </c>
+      <c r="E109" s="87" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="87" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B110" s="87" t="s">
+        <v>984</v>
+      </c>
+      <c r="C110" s="143">
+        <v>85</v>
+      </c>
+      <c r="D110" s="87" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E110" s="87" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="87" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B111" s="87" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C111" s="143">
+        <v>49</v>
+      </c>
+      <c r="D111" s="87" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E111" s="87" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="87" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B112" s="87" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C112" s="86" t="s">
+        <v>750</v>
+      </c>
+      <c r="D112" s="87" t="s">
+        <v>392</v>
+      </c>
+      <c r="E112" s="87" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="87" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B113" s="87" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C113" s="86" t="s">
+        <v>739</v>
+      </c>
+      <c r="D113" s="87" t="s">
+        <v>325</v>
+      </c>
+      <c r="E113" s="87" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="87" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B114" s="87" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C114" s="86" t="s">
+        <v>740</v>
+      </c>
+      <c r="D114" s="87" t="s">
+        <v>400</v>
+      </c>
+      <c r="E114" s="87" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="87" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B115" s="87" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C115" s="86" t="s">
+        <v>882</v>
+      </c>
+      <c r="D115" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="E115" s="87" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="87" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B116" s="87" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C116" s="86" t="s">
+        <v>886</v>
+      </c>
+      <c r="D116" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="E116" s="152" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="87" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B117" s="87" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C117" s="86" t="s">
+        <v>888</v>
+      </c>
+      <c r="D117" s="87" t="s">
+        <v>2</v>
+      </c>
+      <c r="E117" s="152" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="87" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B118" s="87" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C118" s="86" t="s">
+        <v>890</v>
+      </c>
+      <c r="D118" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="E118" s="152" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="87" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B119" s="87" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C119" s="86" t="s">
+        <v>892</v>
+      </c>
+      <c r="D119" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E119" s="152" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="87" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B120" s="87" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C120" s="86" t="s">
+        <v>898</v>
+      </c>
+      <c r="D120" s="87" t="s">
+        <v>68</v>
+      </c>
+      <c r="E120" s="152" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="87" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B121" s="87" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C121" s="86" t="s">
+        <v>900</v>
+      </c>
+      <c r="D121" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="E121" s="152" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="87" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B122" s="87" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C122" s="86" t="s">
+        <v>894</v>
+      </c>
+      <c r="D122" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="E122" s="152" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="87" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B123" s="87" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C123" s="86" t="s">
+        <v>902</v>
+      </c>
+      <c r="D123" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="E123" s="152" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="87" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B124" s="87" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C124" s="86" t="s">
+        <v>904</v>
+      </c>
+      <c r="D124" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="E124" s="152" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="87" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B125" s="87" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C125" s="86" t="s">
+        <v>906</v>
+      </c>
+      <c r="D125" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="E125" s="152" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="87" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B126" s="87" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C126" s="86" t="s">
+        <v>896</v>
+      </c>
+      <c r="D126" s="87" t="s">
+        <v>61</v>
+      </c>
+      <c r="E126" s="152" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="87" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B127" s="87" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C127" s="86" t="s">
+        <v>908</v>
+      </c>
+      <c r="D127" s="87" t="s">
+        <v>181</v>
+      </c>
+      <c r="E127" s="152" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="87" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B128" s="86" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C128" s="86" t="s">
+        <v>707</v>
+      </c>
+      <c r="D128" s="87" t="s">
+        <v>384</v>
+      </c>
+      <c r="E128" s="87" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="87" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B129" s="86" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C129" s="86" t="s">
+        <v>701</v>
+      </c>
+      <c r="D129" s="87" t="s">
+        <v>380</v>
+      </c>
+      <c r="E129" s="87" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="87" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B130" s="86" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C130" s="86" t="s">
+        <v>702</v>
+      </c>
+      <c r="D130" s="87" t="s">
+        <v>381</v>
+      </c>
+      <c r="E130" s="87" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="87" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B131" s="86" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C131" s="86" t="s">
+        <v>703</v>
+      </c>
+      <c r="D131" s="87" t="s">
+        <v>382</v>
+      </c>
+      <c r="E131" s="87" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="87" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B132" s="86" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C132" s="86" t="s">
+        <v>705</v>
+      </c>
+      <c r="D132" s="87" t="s">
+        <v>405</v>
+      </c>
+      <c r="E132" s="87" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="87" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B133" s="86" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C133" s="86" t="s">
+        <v>706</v>
+      </c>
+      <c r="D133" s="87" t="s">
+        <v>383</v>
+      </c>
+      <c r="E133" s="87" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="87" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B134" s="86" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C134" s="86" t="s">
+        <v>708</v>
+      </c>
+      <c r="D134" s="87" t="s">
+        <v>385</v>
+      </c>
+      <c r="E134" s="87" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="87" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B135" s="86" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C135" s="86" t="s">
+        <v>709</v>
+      </c>
+      <c r="D135" s="87" t="s">
+        <v>387</v>
+      </c>
+      <c r="E135" s="87" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="87" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B136" s="86" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C136" s="86" t="s">
+        <v>710</v>
+      </c>
+      <c r="D136" s="87" t="s">
+        <v>388</v>
+      </c>
+      <c r="E136" s="87" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="87" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B137" s="86" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C137" s="86" t="s">
+        <v>711</v>
+      </c>
+      <c r="D137" s="87" t="s">
+        <v>389</v>
+      </c>
+      <c r="E137" s="87" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="87" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B138" s="86" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C138" s="86" t="s">
+        <v>712</v>
+      </c>
+      <c r="D138" s="87" t="s">
+        <v>394</v>
+      </c>
+      <c r="E138" s="87" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="87" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B139" s="86" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C139" s="86" t="s">
+        <v>714</v>
+      </c>
+      <c r="D139" s="87" t="s">
+        <v>408</v>
+      </c>
+      <c r="E139" s="87" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="87" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B140" s="86" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C140" s="86" t="s">
+        <v>760</v>
+      </c>
+      <c r="D140" s="87" t="s">
+        <v>403</v>
+      </c>
+      <c r="E140" s="87" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="87" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B141" s="86" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C141" s="86" t="s">
+        <v>704</v>
+      </c>
+      <c r="D141" s="87" t="s">
+        <v>402</v>
+      </c>
+      <c r="E141" s="87" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="87" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B142" s="86" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C142" s="86" t="s">
+        <v>716</v>
+      </c>
+      <c r="D142" s="87" t="s">
+        <v>413</v>
+      </c>
+      <c r="E142" s="87" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="87" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B143" s="86" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C143" s="86" t="s">
+        <v>715</v>
+      </c>
+      <c r="D143" s="87" t="s">
+        <v>462</v>
+      </c>
+      <c r="E143" s="87" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="87" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B144" s="86" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C144" s="86" t="s">
+        <v>713</v>
+      </c>
+      <c r="D144" s="87" t="s">
+        <v>396</v>
+      </c>
+      <c r="E144" s="87" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="87" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B145" s="86" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C145" s="86" t="s">
+        <v>717</v>
+      </c>
+      <c r="D145" s="87" t="s">
+        <v>415</v>
+      </c>
+      <c r="E145" s="87" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="87" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B146" s="86" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C146" s="86" t="s">
+        <v>718</v>
+      </c>
+      <c r="D146" s="87" t="s">
+        <v>417</v>
+      </c>
+      <c r="E146" s="87" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="87" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B147" s="86" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C147" s="86" t="s">
+        <v>719</v>
+      </c>
+      <c r="D147" s="87" t="s">
+        <v>425</v>
+      </c>
+      <c r="E147" s="87" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="87" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B148" s="86" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C148" s="86" t="s">
+        <v>759</v>
+      </c>
+      <c r="D148" s="87" t="s">
+        <v>421</v>
+      </c>
+      <c r="E148" s="87" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="87" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B149" s="87" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C149" s="86" t="s">
+        <v>910</v>
+      </c>
+      <c r="D149" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="E149" s="87" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="87" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B150" s="87" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C150" s="86" t="s">
+        <v>871</v>
+      </c>
+      <c r="D150" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="E150" s="87" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="87" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B151" s="87" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C151" s="86" t="s">
+        <v>752</v>
+      </c>
+      <c r="D151" s="87" t="s">
+        <v>142</v>
+      </c>
+      <c r="E151" s="87" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="87" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B152" s="87" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C152" s="86" t="s">
+        <v>875</v>
+      </c>
+      <c r="D152" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="E152" s="87" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="87" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B153" s="87" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C153" s="86" t="s">
+        <v>879</v>
+      </c>
+      <c r="D153" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="E153" s="87" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="87" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B154" s="149" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C154" s="86" t="s">
+        <v>726</v>
+      </c>
+      <c r="D154" s="87" t="s">
+        <v>278</v>
+      </c>
+      <c r="E154" s="87" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="87" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B155" s="149" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C155" s="86" t="s">
+        <v>721</v>
+      </c>
+      <c r="D155" s="87" t="s">
+        <v>279</v>
+      </c>
+      <c r="E155" s="87" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="87" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B156" s="86" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C156" s="86" t="s">
+        <v>736</v>
+      </c>
+      <c r="D156" s="87" t="s">
+        <v>433</v>
+      </c>
+      <c r="E156" s="87" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="87" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B157" s="86" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C157" s="86" t="s">
+        <v>737</v>
+      </c>
+      <c r="D157" s="87" t="s">
+        <v>453</v>
+      </c>
+      <c r="E157" s="87" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="87" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B158" s="86" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C158" s="86" t="s">
+        <v>735</v>
+      </c>
+      <c r="D158" s="87" t="s">
+        <v>454</v>
+      </c>
+      <c r="E158" s="87" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="87" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B159" s="149" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C159" s="86" t="s">
+        <v>728</v>
+      </c>
+      <c r="D159" s="87" t="s">
+        <v>450</v>
+      </c>
+      <c r="E159" s="87" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="87" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B160" s="149" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C160" s="86" t="s">
+        <v>723</v>
+      </c>
+      <c r="D160" s="87" t="s">
+        <v>451</v>
+      </c>
+      <c r="E160" s="87" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="87" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B161" s="87" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C161" s="86" t="s">
+        <v>878</v>
+      </c>
+      <c r="D161" s="87" t="s">
+        <v>398</v>
+      </c>
+      <c r="E161" s="87" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="87" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B162" s="87" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C162" s="86" t="s">
+        <v>490</v>
+      </c>
+      <c r="D162" s="87" t="s">
+        <v>280</v>
+      </c>
+      <c r="E162" s="87" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="87" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B163" s="87" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C163" s="86" t="s">
+        <v>688</v>
+      </c>
+      <c r="D163" s="87" t="s">
+        <v>397</v>
+      </c>
+      <c r="E163" s="87" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="87" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B164" s="149" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C164" s="86" t="s">
+        <v>729</v>
+      </c>
+      <c r="D164" s="87" t="s">
+        <v>448</v>
+      </c>
+      <c r="E164" s="87" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="87" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B165" s="149" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C165" s="86" t="s">
+        <v>724</v>
+      </c>
+      <c r="D165" s="87" t="s">
+        <v>449</v>
+      </c>
+      <c r="E165" s="87" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="87" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B166" s="149" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C166" s="86" t="s">
+        <v>727</v>
+      </c>
+      <c r="D166" s="87" t="s">
+        <v>305</v>
+      </c>
+      <c r="E166" s="87" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="87" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B167" s="149" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C167" s="86" t="s">
+        <v>722</v>
+      </c>
+      <c r="D167" s="87" t="s">
+        <v>306</v>
+      </c>
+      <c r="E167" s="87" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="87" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B168" s="87" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C168" s="86" t="s">
+        <v>930</v>
+      </c>
+      <c r="D168" s="87" t="s">
+        <v>143</v>
+      </c>
+      <c r="E168" s="87" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="87" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B169" s="87" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C169" s="86" t="s">
+        <v>924</v>
+      </c>
+      <c r="D169" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="E169" s="87" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="87" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B170" s="87" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C170" s="86" t="s">
+        <v>743</v>
+      </c>
+      <c r="D170" s="87" t="s">
+        <v>422</v>
+      </c>
+      <c r="E170" s="87" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="87" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B171" s="87" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C171" s="86" t="s">
+        <v>929</v>
+      </c>
+      <c r="D171" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="E171" s="87" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="87" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B172" s="87" t="s">
+        <v>984</v>
+      </c>
+      <c r="C172" s="143">
+        <v>84</v>
+      </c>
+      <c r="D172" s="87" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E172" s="87" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="87" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B173" s="87" t="s">
+        <v>984</v>
+      </c>
+      <c r="C173" s="143">
+        <v>82</v>
+      </c>
+      <c r="D173" s="87" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E173" s="87" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="87" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B174" s="87" t="s">
+        <v>984</v>
+      </c>
+      <c r="C174" s="143">
+        <v>83</v>
+      </c>
+      <c r="D174" s="87" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E174" s="87" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="87" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B175" s="87" t="s">
+        <v>984</v>
+      </c>
+      <c r="C175" s="143">
+        <v>81</v>
+      </c>
+      <c r="D175" s="87" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E175" s="87" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="87" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B176" s="87" t="s">
+        <v>960</v>
+      </c>
+      <c r="C176" s="143">
+        <v>9</v>
+      </c>
+      <c r="D176" s="82" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E176" s="82" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="87" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B177" s="87" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C177" s="143">
+        <v>98</v>
+      </c>
+      <c r="D177" s="87" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E177" s="87" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="87" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B178" s="87" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C178" s="86" t="s">
+        <v>877</v>
+      </c>
+      <c r="D178" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="E178" s="87" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="87" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B179" s="86" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C179" s="86" t="s">
+        <v>733</v>
+      </c>
+      <c r="D179" s="87" t="s">
+        <v>296</v>
+      </c>
+      <c r="E179" s="87" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="87" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B180" s="86" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C180" s="86" t="s">
+        <v>734</v>
+      </c>
+      <c r="D180" s="87" t="s">
+        <v>295</v>
+      </c>
+      <c r="E180" s="87" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="87" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B181" s="87" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C181" s="86" t="s">
+        <v>742</v>
+      </c>
+      <c r="D181" s="87" t="s">
+        <v>414</v>
+      </c>
+      <c r="E181" s="87" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="87" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B182" s="87" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C182" s="143">
+        <v>54</v>
+      </c>
+      <c r="D182" s="87" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E182" s="87" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="87" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B183" s="87" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C183" s="143">
+        <v>53</v>
+      </c>
+      <c r="D183" s="87" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E183" s="87" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="87" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B184" s="87" t="s">
+        <v>960</v>
+      </c>
+      <c r="C184" s="143">
+        <v>10</v>
+      </c>
+      <c r="D184" s="82" t="s">
+        <v>1779</v>
+      </c>
+      <c r="E184" s="82" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="87" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B185" s="87" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C185" s="143">
+        <v>59</v>
+      </c>
+      <c r="D185" s="146">
+        <v>3</v>
+      </c>
+      <c r="E185" s="87" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="87" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B186" s="87" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C186" s="143">
+        <v>58</v>
+      </c>
+      <c r="D186" s="146">
+        <v>2</v>
+      </c>
+      <c r="E186" s="87" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="87" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B187" s="87" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C187" s="143">
+        <v>57</v>
+      </c>
+      <c r="D187" s="146">
+        <v>1</v>
+      </c>
+      <c r="E187" s="87" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="87" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B188" s="87" t="s">
+        <v>960</v>
+      </c>
+      <c r="C188" s="143">
+        <v>8</v>
+      </c>
+      <c r="D188" s="82" t="s">
+        <v>1777</v>
+      </c>
+      <c r="E188" s="82" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="87" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B189" s="87" t="s">
+        <v>990</v>
+      </c>
+      <c r="C189" s="143">
+        <v>26</v>
+      </c>
+      <c r="D189" s="87" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E189" s="87" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="87" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B190" s="87" t="s">
+        <v>990</v>
+      </c>
+      <c r="C190" s="143">
+        <v>25</v>
+      </c>
+      <c r="D190" s="87" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E190" s="87" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="87" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B191" s="87" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C191" s="143">
+        <v>52</v>
+      </c>
+      <c r="D191" s="87" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E191" s="87" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="87" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B192" s="87" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C192" s="143">
+        <v>55</v>
+      </c>
+      <c r="D192" s="87" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E192" s="87" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="87" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B193" s="87" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C193" s="143">
+        <v>61</v>
+      </c>
+      <c r="D193" s="82" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E193" s="82" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="87" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B194" s="87" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C194" s="143">
+        <v>60</v>
+      </c>
+      <c r="D194" s="87" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E194" s="87" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="87" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B195" s="87" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C195" s="143">
+        <v>62</v>
+      </c>
+      <c r="D195" s="82" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E195" s="82" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="87" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B196" s="87" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C196" s="143">
+        <v>63</v>
+      </c>
+      <c r="D196" s="82" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E196" s="82" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="87" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B197" s="87" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C197" s="143">
+        <v>64</v>
+      </c>
+      <c r="D197" s="82" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E197" s="82" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="87" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B198" s="87" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C198" s="143">
+        <v>65</v>
+      </c>
+      <c r="D198" s="82" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E198" s="82" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="87" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B199" s="87" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C199" s="143">
+        <v>66</v>
+      </c>
+      <c r="D199" s="82" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E199" s="82" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="87" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B200" s="87" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C200" s="143">
+        <v>67</v>
+      </c>
+      <c r="D200" s="82" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E200" s="82" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="87" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B201" s="87" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C201" s="143">
+        <v>68</v>
+      </c>
+      <c r="D201" s="82" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E201" s="82" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="87" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B202" s="87" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C202" s="143">
+        <v>69</v>
+      </c>
+      <c r="D202" s="82" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E202" s="82" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="87" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B203" s="87" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C203" s="143">
+        <v>72</v>
+      </c>
+      <c r="D203" s="82" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E203" s="82" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="87" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B204" s="87" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C204" s="143">
+        <v>73</v>
+      </c>
+      <c r="D204" s="82" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E204" s="82" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="87" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B205" s="87" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C205" s="143">
+        <v>74</v>
+      </c>
+      <c r="D205" s="82" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E205" s="82" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="87" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B206" s="87" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C206" s="143">
+        <v>75</v>
+      </c>
+      <c r="D206" s="82" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E206" s="82" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="87" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B207" s="87" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C207" s="143">
+        <v>86</v>
+      </c>
+      <c r="D207" s="87" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E207" s="87" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="87" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B208" s="87" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C208" s="143">
+        <v>87</v>
+      </c>
+      <c r="D208" s="87" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E208" s="87" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="87" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B209" s="87" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C209" s="143">
+        <v>88</v>
+      </c>
+      <c r="D209" s="87" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E209" s="87" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="87" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B210" s="87" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C210" s="143">
+        <v>89</v>
+      </c>
+      <c r="D210" s="87" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E210" s="87" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="87" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B211" s="87" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C211" s="143">
+        <v>90</v>
+      </c>
+      <c r="D211" s="87" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E211" s="87" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="87" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B212" s="87" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C212" s="143">
+        <v>91</v>
+      </c>
+      <c r="D212" s="87" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E212" s="87" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="87" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B213" s="87" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C213" s="143">
+        <v>76</v>
+      </c>
+      <c r="D213" s="82" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E213" s="82" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="87" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B214" s="87" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C214" s="86" t="s">
+        <v>903</v>
+      </c>
+      <c r="D214" s="87" t="s">
+        <v>128</v>
+      </c>
+      <c r="E214" s="153" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="87" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B215" s="87" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C215" s="143">
+        <v>46</v>
+      </c>
+      <c r="D215" s="87" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E215" s="87" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="87" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B216" s="87" t="s">
+        <v>992</v>
+      </c>
+      <c r="C216" s="143">
+        <v>29</v>
+      </c>
+      <c r="D216" s="87" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E216" s="87" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="87" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B217" s="87" t="s">
+        <v>992</v>
+      </c>
+      <c r="C217" s="143">
+        <v>30</v>
+      </c>
+      <c r="D217" s="87" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E217" s="87" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="87" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B218" s="87" t="s">
+        <v>992</v>
+      </c>
+      <c r="C218" s="143">
+        <v>31</v>
+      </c>
+      <c r="D218" s="87" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E218" s="87" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="87" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B219" s="87" t="s">
+        <v>992</v>
+      </c>
+      <c r="C219" s="143">
+        <v>32</v>
+      </c>
+      <c r="D219" s="87" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E219" s="87" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="87" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B220" s="87" t="s">
+        <v>992</v>
+      </c>
+      <c r="C220" s="143">
+        <v>34</v>
+      </c>
+      <c r="D220" s="87" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E220" s="87" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="87" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B221" s="87" t="s">
+        <v>992</v>
+      </c>
+      <c r="C221" s="143">
+        <v>35</v>
+      </c>
+      <c r="D221" s="87" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E221" s="87" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="87" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B222" s="87" t="s">
+        <v>992</v>
+      </c>
+      <c r="C222" s="143">
+        <v>36</v>
+      </c>
+      <c r="D222" s="87" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E222" s="87" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="87" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B223" s="87" t="s">
+        <v>992</v>
+      </c>
+      <c r="C223" s="143">
+        <v>39</v>
+      </c>
+      <c r="D223" s="87" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E223" s="87" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="87" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B224" s="87" t="s">
+        <v>992</v>
+      </c>
+      <c r="C224" s="143">
+        <v>40</v>
+      </c>
+      <c r="D224" s="87" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E224" s="87" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="87" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B225" s="87" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C225" s="86">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D225" s="87" t="s">
+        <v>338</v>
+      </c>
+      <c r="E225" s="87" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="87" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B226" s="87" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C226" s="143">
+        <v>3</v>
+      </c>
+      <c r="D226" s="82" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E226" s="82" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="87" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B227" s="87" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C227" s="143">
+        <v>2</v>
+      </c>
+      <c r="D227" s="82" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E227" s="82" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="87" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B228" s="87" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C228" s="143">
+        <v>1</v>
+      </c>
+      <c r="D228" s="82" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E228" s="82" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="87" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B229" s="87" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C229" s="86" t="s">
+        <v>893</v>
+      </c>
+      <c r="D229" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="E229" s="87" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="87" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B230" s="87" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C230" s="86" t="s">
+        <v>907</v>
+      </c>
+      <c r="D230" s="87" t="s">
+        <v>184</v>
+      </c>
+      <c r="E230" s="153" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="87" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B231" s="87" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C231" s="86" t="s">
+        <v>885</v>
+      </c>
+      <c r="D231" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="E231" s="87" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="87" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B232" s="87" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C232" s="86" t="s">
+        <v>899</v>
+      </c>
+      <c r="D232" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="E232" s="153" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="87" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B233" s="87" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C233" s="86" t="s">
+        <v>873</v>
+      </c>
+      <c r="D233" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="E233" s="87" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="87" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B234" s="87" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C234" s="86" t="s">
+        <v>874</v>
+      </c>
+      <c r="D234" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="E234" s="87" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="87" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B235" s="87" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C235" s="86" t="s">
+        <v>744</v>
+      </c>
+      <c r="D235" s="87" t="s">
+        <v>358</v>
+      </c>
+      <c r="E235" s="87" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="87" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B236" s="87" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C236" s="143">
+        <v>108</v>
+      </c>
+      <c r="D236" s="87" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E236" s="87" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="87" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B237" s="87" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C237" s="86" t="s">
+        <v>925</v>
+      </c>
+      <c r="D237" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="E237" s="82" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="87" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B238" s="87" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C238" s="86" t="s">
+        <v>696</v>
+      </c>
+      <c r="D238" s="87" t="s">
+        <v>348</v>
+      </c>
+      <c r="E238" s="87" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="87" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B239" s="87" t="s">
+        <v>984</v>
+      </c>
+      <c r="C239" s="143">
+        <v>79</v>
+      </c>
+      <c r="D239" s="87" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E239" s="87" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="87" t="s">
+        <v>977</v>
+      </c>
+      <c r="B240" s="87" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C240" s="143">
+        <v>104</v>
+      </c>
+      <c r="D240" s="87" t="s">
+        <v>979</v>
+      </c>
+      <c r="E240" s="87" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="87" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B241" s="87" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C241" s="86" t="s">
+        <v>909</v>
+      </c>
+      <c r="D241" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="E241" s="153" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="B242" s="87" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C242" s="86" t="s">
+        <v>918</v>
+      </c>
+      <c r="D242" s="87" t="s">
+        <v>53</v>
+      </c>
+      <c r="E242" s="87" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="87" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B243" s="87" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C243" s="86" t="s">
+        <v>746</v>
+      </c>
+      <c r="D243" s="82" t="s">
+        <v>359</v>
+      </c>
+      <c r="E243" s="87" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="87" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B244" s="87" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C244" s="143">
+        <v>70</v>
+      </c>
+      <c r="D244" s="87" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E244" s="87" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="87" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B245" s="87" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C245" s="143">
+        <v>71</v>
+      </c>
+      <c r="D245" s="87" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E245" s="87" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="87" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B246" s="87" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C246" s="86" t="s">
+        <v>901</v>
+      </c>
+      <c r="D246" s="87" t="s">
+        <v>100</v>
+      </c>
+      <c r="E246" s="153" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="87" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B247" s="87" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C247" s="86" t="s">
+        <v>905</v>
+      </c>
+      <c r="D247" s="87" t="s">
+        <v>158</v>
+      </c>
+      <c r="E247" s="153" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="87" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B248" s="87" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C248" s="86" t="s">
+        <v>887</v>
+      </c>
+      <c r="D248" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="E248" s="153" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="87" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B249" s="87" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C249" s="143">
+        <v>96</v>
+      </c>
+      <c r="D249" s="87" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E249" s="87" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="87" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B250" s="87" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C250" s="86" t="s">
+        <v>889</v>
+      </c>
+      <c r="D250" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="E250" s="153" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="87" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B251" s="87" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C251" s="143">
+        <v>97</v>
+      </c>
+      <c r="D251" s="87" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E251" s="87" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="87" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B252" s="87" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C252" s="86" t="s">
+        <v>897</v>
+      </c>
+      <c r="D252" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="E252" s="153" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="87" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B253" s="87" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C253" s="86" t="s">
+        <v>921</v>
+      </c>
+      <c r="D253" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="E253" s="87" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="156" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B254" s="87" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C254" s="143">
+        <v>99</v>
+      </c>
+      <c r="D254" s="82" t="s">
+        <v>964</v>
+      </c>
+      <c r="E254" s="82" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="156" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B255" s="87" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C255" s="143">
+        <v>100</v>
+      </c>
+      <c r="D255" s="82" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E255" s="82" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="156" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B256" s="87" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C256" s="143">
+        <v>101</v>
+      </c>
+      <c r="D256" s="82" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E256" s="82" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="156" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B257" s="87" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C257" s="143">
+        <v>102</v>
+      </c>
+      <c r="D257" s="82" t="s">
+        <v>108</v>
+      </c>
+      <c r="E257" s="82" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="156" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B258" s="87" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C258" s="143">
+        <v>103</v>
+      </c>
+      <c r="D258" s="82" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E258" s="82" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="87" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B259" s="87" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C259" s="86" t="s">
+        <v>911</v>
+      </c>
+      <c r="D259" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="E259" s="87" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="156" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B260" s="87" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C260" s="143">
+        <v>112</v>
+      </c>
+      <c r="D260" s="82" t="s">
+        <v>1761</v>
+      </c>
+      <c r="E260" s="82" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="156" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B261" s="87" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C261" s="143">
+        <v>113</v>
+      </c>
+      <c r="D261" s="82" t="s">
+        <v>1762</v>
+      </c>
+      <c r="E261" s="82" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="156" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B262" s="87" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C262" s="143">
+        <v>114</v>
+      </c>
+      <c r="D262" s="82" t="s">
+        <v>1763</v>
+      </c>
+      <c r="E262" s="82" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="156" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B263" s="87" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C263" s="143">
+        <v>115</v>
+      </c>
+      <c r="D263" s="82" t="s">
+        <v>1765</v>
+      </c>
+      <c r="E263" s="82" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="156" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B264" s="87" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C264" s="143">
+        <v>116</v>
+      </c>
+      <c r="D264" s="82" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E264" s="82" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="156" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B265" s="87" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C265" s="143">
+        <v>117</v>
+      </c>
+      <c r="D265" s="82" t="s">
+        <v>1767</v>
+      </c>
+      <c r="E265" s="82" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A3:E265">
+    <sortCondition ref="A3:A265"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="A254" r:id="rId1"/>
+    <hyperlink ref="A255" r:id="rId2"/>
+    <hyperlink ref="A256" r:id="rId3"/>
+    <hyperlink ref="A257" r:id="rId4"/>
+    <hyperlink ref="A258" r:id="rId5"/>
+    <hyperlink ref="A260" r:id="rId6"/>
+    <hyperlink ref="A261" r:id="rId7"/>
+    <hyperlink ref="A262" r:id="rId8"/>
+    <hyperlink ref="A263" r:id="rId9"/>
+    <hyperlink ref="A264" r:id="rId10"/>
+    <hyperlink ref="A265" r:id="rId11"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Load/src/ontology/ICEMR/PRISM_metadata.xlsx
+++ b/Load/src/ontology/ICEMR/PRISM_metadata.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11873" uniqueCount="1857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11873" uniqueCount="1859">
   <si>
     <t>abdominal pain</t>
   </si>
@@ -8351,6 +8351,36 @@
   </si>
   <si>
     <t>PRISM data dictionary label (en)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Unfed </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A. gambiae</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Unfed</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A. funestus</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -13226,7 +13256,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13236,8 +13266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G287"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -14363,7 +14393,7 @@
         <v>306</v>
       </c>
       <c r="D49" s="87" t="s">
-        <v>1788</v>
+        <v>1857</v>
       </c>
       <c r="E49" s="86" t="s">
         <v>722</v>
@@ -14478,7 +14508,7 @@
         <v>305</v>
       </c>
       <c r="D54" s="87" t="s">
-        <v>1792</v>
+        <v>1858</v>
       </c>
       <c r="E54" s="86" t="s">
         <v>727</v>

--- a/Load/src/ontology/ICEMR/PRISM_metadata.xlsx
+++ b/Load/src/ontology/ICEMR/PRISM_metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="420" windowWidth="24240" windowHeight="11655" tabRatio="922" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="24240" windowHeight="11595" tabRatio="922" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PRISM classes" sheetId="19" r:id="rId1"/>
@@ -23,12 +23,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Proposed Revision_ontology'!$A$3:$T$271</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Proposed Revision_ontology IRIs'!$A$3:$K$278</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12517" uniqueCount="1936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13645" uniqueCount="2626">
   <si>
     <t>abdominal pain</t>
   </si>
@@ -8276,15 +8276,6 @@
     <t>third</t>
   </si>
   <si>
-    <t>term will be added as individual</t>
-  </si>
-  <si>
-    <t>type of the term in icemr.owl</t>
-  </si>
-  <si>
-    <t>all terms added with annotationProp, "term type" ICEMR_0000025, with value 'value'</t>
-  </si>
-  <si>
     <t>ICEMR_0000028</t>
   </si>
   <si>
@@ -8614,12 +8605,2091 @@
   <si>
     <t>http://purl.obolibrary.org/obo/ICEMR_0000026</t>
   </si>
+  <si>
+    <t>num collections</t>
+  </si>
+  <si>
+    <t>NOTES:</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/TEMP_00003</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/TEMP_00004</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/TEMP_00005</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/TEMP_00006</t>
+  </si>
+  <si>
+    <t>not in the OBO Foundry ontologies</t>
+  </si>
+  <si>
+    <t>will not show in the website</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_9667</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_9452</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_0060310</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_0060311</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_4481</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_13938</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_3128</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_0060328</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_0060312</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_8337</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_848</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_2841</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_3385</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_13033</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_12506</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_8443</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_0060323</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_2942</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_1176</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_162</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_1508</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_2176</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_0050700</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_0060319</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_83</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_3488</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_0050753</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_1969</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_12140</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_8659</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_1003</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_1949</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_10211</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_1498</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_0050697</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_10763</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_13450</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_0060180</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_10459</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_14250</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_9296</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_674</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_11836</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_1682</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_3827</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_10485</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_11044</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_10892</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_0060326</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_0060327</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_2712</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_12639</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_3491</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_6000</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_6195</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_2089</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_8463</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_3393</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_5656</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_12053</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_1733</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_11259</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_0060324</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_216</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_1470</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_9478</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_2723</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_9351</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_0050486</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_12384</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_3146</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_2321</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_13593</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_0060329</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_3798</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_646</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/HP_0001298</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_936</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_9401</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_1826</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_0050185</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_11963</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_13223</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_4409</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_13117</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_0050134</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_13628</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_2326</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_8534</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_11168</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_11714</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_10718</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_3087</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_2921</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_1456</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_12176</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_7551</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_6364</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_10003</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_13133</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_883</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_582</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_9746</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_2237</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_0060320</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_0060321</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_8566</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_8536</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_1731</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_9912</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_10908</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_9993</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_8504</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_0060000</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_8437</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_8446</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_305</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_2112</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_2383</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_8632</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_9368</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_3390</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_13579</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_3650</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_2615</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_9395</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_811</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_409</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_0060317</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_850</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_1602</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_552</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_8567</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_0060058</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_12365</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_8452</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_12328</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_10690</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_0060322</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_8622</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_9471</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_10907</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_4271</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_8867</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_10264</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_2755</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_2757</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_5844</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_633</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_585</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_557</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_1184</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_1227</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_9970</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_12215</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_9699</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_0060315</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_9663</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_1019</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_9463</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_10754</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_4989</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_10301</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_8506</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_9182</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_0050288</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_750</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_1787</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_824</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_0060053</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_12765</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_0060314</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_2275</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_11060</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_11339</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_8488</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_0060325</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_1002</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_10591</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_643</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_2468</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_9477</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_5330</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_3326</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_11400</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_4223</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_876</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_6196</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_9307</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_11162</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_1586</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_9814</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_7148</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_8781</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_8295</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_9063</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_1395</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_11446</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_10922</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_4</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_0050127</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_722</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_0050426</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_9637</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_6713</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_9909</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_9007</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_4166</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_11338</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_1588</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_4337</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_10456</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_0050840</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_9965</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_0060313</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_1947</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_399</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_13258</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_13148</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_1555</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_799</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_8672</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_9790</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_9146</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_2273</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_11165</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/HP_0011848</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/SYMP_0000672</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/HP_0100845</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/HP_0002835</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/HP_0002625</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/HP_0001944</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/HP_0000421</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/HP_0001945</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/HP_0001319</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/HP_0003249</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/HP_0002970</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/HP_0100812</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/SYMP_0000041</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/HP_0002240</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/HP_0001433</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/HP_0100790</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/HP_0002045</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/HP_0001290</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/HP_0000692</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/HP_0000132</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/HP_0000876</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/HP_0012531</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/HP_0003470</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/SYMP_0000659</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/HP_0011801</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/HP_0011891</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/HP_0001788</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/HP_0001622</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/HP_0000989</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/SYMP_0000623</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/HP_0100806</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/SYMP_0019148</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/HP_0008443</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/HP_0001744</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/HP_0011896</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/HP_0010518</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/HP_0000360</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/HP_0002575</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/SYMP_0000475</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/HP_0100718</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/HP_0200043</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/SYMP_0000174</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/HP_0001824</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/SNOMEDCT/31986002</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/SNOMEDCT/34842007</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/MEDDRA/10003497</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/IDO_0000506</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/SNOMEDCT/128936008</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/SNOMEDCT/125666000</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/MEDDRA/10018159</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/SNOMEDCT/105593004</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/SNOMEDCT/300927001</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/SNOMEDCT/7520000</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/SNOMEDCT/125670008</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/SNOMEDCT/19227008</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/SNOMEDCT/72704001</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/MEDDRA/10017076</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/MEDDRA/10070538</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/SNOMEDCT/18070006</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/MEDDRA/10021634</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/MEDDRA/10021732</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/SNOMEDCT/24734008</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/SNOMEDCT/7000009</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/SNOMEDCT/32220002</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/SNOMEDCT/289909005</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/MEDDRA/10029547</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/SNOMEDCT/16607004</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/SNOMEDCT/16269008</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/SNOMEDCT/85548006</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/SNOMEDCT/75478009</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/MEDDRA/10036250</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/MEDDRA/10048038</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/SNOMEDCT/289733005</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/SNOMEDCT/6383007</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/MEDDRA/10009119</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/SNOMEDCT/38013005</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/SNOMEDCT/282026002</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/SNOMEDCT/53638009</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/SNOMEDCT/54048003</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/SNOMEDCT/58949002</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C114282</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/SNOMEDCT/385494008</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/IDO_0000505</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/SNOMEDCT/397540003</t>
+  </si>
+  <si>
+    <t>http://www.ebi.ac.uk/efo/EFO_0000546</t>
+  </si>
+  <si>
+    <t>Abruptio placenta</t>
+  </si>
+  <si>
+    <t>Acute Fatty Liver</t>
+  </si>
+  <si>
+    <t>Acute Uvulitis</t>
+  </si>
+  <si>
+    <t>Adenoid hypertrophy</t>
+  </si>
+  <si>
+    <t>Allergic rhinitis</t>
+  </si>
+  <si>
+    <t>Amenorrhea, secondary</t>
+  </si>
+  <si>
+    <t>Anaemia - general</t>
+  </si>
+  <si>
+    <t>Anaemia - HIV related</t>
+  </si>
+  <si>
+    <t>Anal fissure</t>
+  </si>
+  <si>
+    <t>Anal fistula - acquired HIV-related recto-vesico</t>
+  </si>
+  <si>
+    <t>Anal fistula - unspecified</t>
+  </si>
+  <si>
+    <t>Angular chelitis</t>
+  </si>
+  <si>
+    <t>Appendicitis</t>
+  </si>
+  <si>
+    <t>Arthritis</t>
+  </si>
+  <si>
+    <t>Asthma Exacerbation</t>
+  </si>
+  <si>
+    <t>Bacterial Vaginosis</t>
+  </si>
+  <si>
+    <t>Balanitis</t>
+  </si>
+  <si>
+    <t>Bell's palsy</t>
+  </si>
+  <si>
+    <t>Brachial Plexus Injury</t>
+  </si>
+  <si>
+    <t>Breast abscess</t>
+  </si>
+  <si>
+    <t>Bronchiolitis</t>
+  </si>
+  <si>
+    <t>Bronchospasm</t>
+  </si>
+  <si>
+    <t>Cancer - non HIV-related</t>
+  </si>
+  <si>
+    <t>Candiasis - oral</t>
+  </si>
+  <si>
+    <t>Candidiasis - esophageal</t>
+  </si>
+  <si>
+    <t>Candidiasis - perianal</t>
+  </si>
+  <si>
+    <t>Candidiasis - respiratory tract</t>
+  </si>
+  <si>
+    <t>Candidiasis - vaginal</t>
+  </si>
+  <si>
+    <t>Carbuncle/furuncle</t>
+  </si>
+  <si>
+    <t>Cardiomyopathy</t>
+  </si>
+  <si>
+    <t>Cardio-respiratory arrest</t>
+  </si>
+  <si>
+    <t>Cataract</t>
+  </si>
+  <si>
+    <t>Cellulitis</t>
+  </si>
+  <si>
+    <t>Cellulitis - orbital</t>
+  </si>
+  <si>
+    <t>Cerebellar dysfunction/Ataxia</t>
+  </si>
+  <si>
+    <t>Cerebral Palsy</t>
+  </si>
+  <si>
+    <t>Chagas disease</t>
+  </si>
+  <si>
+    <t>Chicken pox</t>
+  </si>
+  <si>
+    <t>Chlamydia</t>
+  </si>
+  <si>
+    <t>Cholecystitis</t>
+  </si>
+  <si>
+    <t>Cholelithiasis</t>
+  </si>
+  <si>
+    <t>Cholera</t>
+  </si>
+  <si>
+    <t>Chorioamnionitis</t>
+  </si>
+  <si>
+    <t>Chronic Hypertension</t>
+  </si>
+  <si>
+    <t>Coccidiomycosis</t>
+  </si>
+  <si>
+    <t>Colitis</t>
+  </si>
+  <si>
+    <t>Common cold / flu</t>
+  </si>
+  <si>
+    <t>Congenital malformation,  Down syndrome (Trisomy 21)</t>
+  </si>
+  <si>
+    <t>Congenital malformation, Cleft lip/cleft palate</t>
+  </si>
+  <si>
+    <t>Congenital malformation, Clubfoot</t>
+  </si>
+  <si>
+    <t>Congenital malformation, Congenital heart disease</t>
+  </si>
+  <si>
+    <t>Congenital malformation, Diaphragmatic Hernia</t>
+  </si>
+  <si>
+    <t>Congenital malformation, Esophageal Atresia</t>
+  </si>
+  <si>
+    <t>Congenital malformation, Gastroschisis</t>
+  </si>
+  <si>
+    <t>Congenital malformation, hypospadias</t>
+  </si>
+  <si>
+    <t>Congenital malformation, Myelomeningocele</t>
+  </si>
+  <si>
+    <t>Congenital malformation, Omphalocele</t>
+  </si>
+  <si>
+    <t>Congenital malformation, Phimosis/Paraphimosis</t>
+  </si>
+  <si>
+    <t>Congenital malformation, Pyloric stenosis</t>
+  </si>
+  <si>
+    <t>Congenital malformation, Turner syndrome</t>
+  </si>
+  <si>
+    <t>Congestive cardiac failure</t>
+  </si>
+  <si>
+    <t>Conjunctivitis</t>
+  </si>
+  <si>
+    <t>Constipation</t>
+  </si>
+  <si>
+    <t>Corneal ulcer</t>
+  </si>
+  <si>
+    <t>Coronary artery disease (not myocardial infarction)</t>
+  </si>
+  <si>
+    <t>Cranial nerve disorders</t>
+  </si>
+  <si>
+    <t>Cryptococcal infection</t>
+  </si>
+  <si>
+    <t>Cryptosporidiosis</t>
+  </si>
+  <si>
+    <t>Cytomegalovirus infection</t>
+  </si>
+  <si>
+    <t>Dental abscess</t>
+  </si>
+  <si>
+    <t>Dental caries</t>
+  </si>
+  <si>
+    <t>Depression, non-postpartum</t>
+  </si>
+  <si>
+    <t>Depression, postpartum</t>
+  </si>
+  <si>
+    <t>Dermatitis - atopic</t>
+  </si>
+  <si>
+    <t>Dermatitis - papular pruiritic eruptions</t>
+  </si>
+  <si>
+    <t>Dermatitis - seborrhoeic</t>
+  </si>
+  <si>
+    <t>Dermatitis - unspecified</t>
+  </si>
+  <si>
+    <t>Diabetes mellitus</t>
+  </si>
+  <si>
+    <t>Diarrhea - acute</t>
+  </si>
+  <si>
+    <t>Diarrhea - persistent (&gt; 14 days)</t>
+  </si>
+  <si>
+    <t>Drug rash</t>
+  </si>
+  <si>
+    <t>Dysentery</t>
+  </si>
+  <si>
+    <t>Dyslipidemia</t>
+  </si>
+  <si>
+    <t>Dyspepsia / gastritis</t>
+  </si>
+  <si>
+    <t>Eclampsia</t>
+  </si>
+  <si>
+    <t>Ectopic pregnancy</t>
+  </si>
+  <si>
+    <t>Eczema</t>
+  </si>
+  <si>
+    <t>Empyema</t>
+  </si>
+  <si>
+    <t>Encephalitis - viral</t>
+  </si>
+  <si>
+    <t>Encephalopathy - HIV-related (no other explanation such as stroke or infection)</t>
+  </si>
+  <si>
+    <t>Encephalopathy - unspecified</t>
+  </si>
+  <si>
+    <t>Epididymo-orchitis</t>
+  </si>
+  <si>
+    <t>Epilepsy</t>
+  </si>
+  <si>
+    <t>Erythema Multiforme</t>
+  </si>
+  <si>
+    <t>Esophagitis</t>
+  </si>
+  <si>
+    <t>Fibroid uterus</t>
+  </si>
+  <si>
+    <t>Folliculitis</t>
+  </si>
+  <si>
+    <t>Fungal nail infection</t>
+  </si>
+  <si>
+    <t>Fungal skin infection</t>
+  </si>
+  <si>
+    <t>G6PD deficiency</t>
+  </si>
+  <si>
+    <t>Gastroenteritis</t>
+  </si>
+  <si>
+    <t>Gastroesophageal reflux</t>
+  </si>
+  <si>
+    <t>Genital Wart (Condyloma acuminata)</t>
+  </si>
+  <si>
+    <t>Gestational diabetes</t>
+  </si>
+  <si>
+    <t>Giardiasis</t>
+  </si>
+  <si>
+    <t>Gingivitis - acute necrotizing ulcerative</t>
+  </si>
+  <si>
+    <t>Gingivitis - LGE (Linear Gingival Erythema)</t>
+  </si>
+  <si>
+    <t>Gingivitis - unspecified</t>
+  </si>
+  <si>
+    <t>Glomerulonephritis</t>
+  </si>
+  <si>
+    <t>Glossitis</t>
+  </si>
+  <si>
+    <t>Goitre</t>
+  </si>
+  <si>
+    <t>Gonorrhea</t>
+  </si>
+  <si>
+    <t>Headache - migraine</t>
+  </si>
+  <si>
+    <t>Hearing loss / deficit</t>
+  </si>
+  <si>
+    <t>HELLP syndrome</t>
+  </si>
+  <si>
+    <t>Helminth infection</t>
+  </si>
+  <si>
+    <t>Hemoglobinuria</t>
+  </si>
+  <si>
+    <t>Hemorrhoids</t>
+  </si>
+  <si>
+    <t>Hepatitis</t>
+  </si>
+  <si>
+    <t>Hernia - inguinal</t>
+  </si>
+  <si>
+    <t>Hernia - umbilical</t>
+  </si>
+  <si>
+    <t>Herpes Simplex - cutaneous</t>
+  </si>
+  <si>
+    <t>Herpes Simplex - genital</t>
+  </si>
+  <si>
+    <t>Herpes Simplex - orolabial</t>
+  </si>
+  <si>
+    <t>Herpes Zoster</t>
+  </si>
+  <si>
+    <t>Histoplasmosis</t>
+  </si>
+  <si>
+    <t>Hydrocele</t>
+  </si>
+  <si>
+    <t>Hydrocephalus</t>
+  </si>
+  <si>
+    <t>Hypertension</t>
+  </si>
+  <si>
+    <t>Hypoglycaemia</t>
+  </si>
+  <si>
+    <t>Impetigo</t>
+  </si>
+  <si>
+    <t>Infective Endocarditis</t>
+  </si>
+  <si>
+    <t>Intestinal obstruction</t>
+  </si>
+  <si>
+    <t>Intussusception</t>
+  </si>
+  <si>
+    <t>Invasive cervical carcinoma</t>
+  </si>
+  <si>
+    <t>Isosporiasis</t>
+  </si>
+  <si>
+    <t>Jaundice, neonatal</t>
+  </si>
+  <si>
+    <t>Kaposi's Sarcoma</t>
+  </si>
+  <si>
+    <t>Keratoconjunctivitis</t>
+  </si>
+  <si>
+    <t>Keratoderma Plantaris/Palmaris</t>
+  </si>
+  <si>
+    <t>Kwashiorkor</t>
+  </si>
+  <si>
+    <t>Lactic acidosis</t>
+  </si>
+  <si>
+    <t>Laryngeal papillomatosis</t>
+  </si>
+  <si>
+    <t>Laryngeo-tracheo bronchitis</t>
+  </si>
+  <si>
+    <t>Lipodystrophy</t>
+  </si>
+  <si>
+    <t>Liver disease</t>
+  </si>
+  <si>
+    <t>Lung abscess</t>
+  </si>
+  <si>
+    <t>Lung Disease, Chronic HIV Associated</t>
+  </si>
+  <si>
+    <t>Lymphadenitis</t>
+  </si>
+  <si>
+    <t>Lymphocytic Interstitial Pneumonia (LIP)</t>
+  </si>
+  <si>
+    <t>Lymphoma - Hodgkins</t>
+  </si>
+  <si>
+    <t>Lymphoma - Primary CNS</t>
+  </si>
+  <si>
+    <t>Malnutrition - moderate</t>
+  </si>
+  <si>
+    <t>Malnutrition - severe</t>
+  </si>
+  <si>
+    <t>Marasmic- Kwashiorkor</t>
+  </si>
+  <si>
+    <t>Marasmus</t>
+  </si>
+  <si>
+    <t>Mastitis</t>
+  </si>
+  <si>
+    <t>Mastoiditis</t>
+  </si>
+  <si>
+    <t>Measles</t>
+  </si>
+  <si>
+    <t>Measles-like illness</t>
+  </si>
+  <si>
+    <t>Meningitis - bacterial</t>
+  </si>
+  <si>
+    <t>Meningitis - Cryptococcal</t>
+  </si>
+  <si>
+    <t>Meningitis - nonbacterial</t>
+  </si>
+  <si>
+    <t>Microcephaly</t>
+  </si>
+  <si>
+    <t>Microsporidiosis</t>
+  </si>
+  <si>
+    <t>Molluscum contangiosum (mild)</t>
+  </si>
+  <si>
+    <t>Molluscum contangiosum (severe)</t>
+  </si>
+  <si>
+    <t>Mumps</t>
+  </si>
+  <si>
+    <t>Mycobacterial avium complex - disseminated</t>
+  </si>
+  <si>
+    <t>Mycobacterial avium complex - localized</t>
+  </si>
+  <si>
+    <t>Mycobacterial Infection - Non-TB</t>
+  </si>
+  <si>
+    <t>Mycobacterial Infection- Non-TB, disseminated</t>
+  </si>
+  <si>
+    <t>Myocardial infarction</t>
+  </si>
+  <si>
+    <t>Myositis</t>
+  </si>
+  <si>
+    <t>Nail infection, Fungal</t>
+  </si>
+  <si>
+    <t>Nephrolithiasis</t>
+  </si>
+  <si>
+    <t>Nephropathy</t>
+  </si>
+  <si>
+    <t>Nephrotic syndrome</t>
+  </si>
+  <si>
+    <t>Neutropenia  - general</t>
+  </si>
+  <si>
+    <t>Neutropenia  - HIV Related</t>
+  </si>
+  <si>
+    <t>Obesity</t>
+  </si>
+  <si>
+    <t>Oligohydramnios</t>
+  </si>
+  <si>
+    <t>Ophthalmia Neonatorum</t>
+  </si>
+  <si>
+    <t>Oral hairy leukoplakia</t>
+  </si>
+  <si>
+    <t>Oral ulcers - recurrent</t>
+  </si>
+  <si>
+    <t>Oral ulcers - single episode</t>
+  </si>
+  <si>
+    <t>Osteomyelitis</t>
+  </si>
+  <si>
+    <t>Otitis externa</t>
+  </si>
+  <si>
+    <t>Otitis media - nonsuppurative</t>
+  </si>
+  <si>
+    <t>Otitis media - suppurative</t>
+  </si>
+  <si>
+    <t>Pancreatitis</t>
+  </si>
+  <si>
+    <t>Paronychia</t>
+  </si>
+  <si>
+    <t>Parotitis</t>
+  </si>
+  <si>
+    <t>Pelvic Inflammatory Disease</t>
+  </si>
+  <si>
+    <t>Pemphigoid</t>
+  </si>
+  <si>
+    <t>Pemphigus</t>
+  </si>
+  <si>
+    <t>Penicilliosis</t>
+  </si>
+  <si>
+    <t>Peptic ulcer disease</t>
+  </si>
+  <si>
+    <t>Pericarditis</t>
+  </si>
+  <si>
+    <t>Periodontitis - acute necrotizing ulcerative</t>
+  </si>
+  <si>
+    <t>Periodontitis - unspecified</t>
+  </si>
+  <si>
+    <t>Peripheral neuropathy</t>
+  </si>
+  <si>
+    <t>Peritonsillar abscess</t>
+  </si>
+  <si>
+    <t>Persistent generalized lymphadenopathy (PGL)</t>
+  </si>
+  <si>
+    <t>Pharyngitis</t>
+  </si>
+  <si>
+    <t>Phimosis</t>
+  </si>
+  <si>
+    <t>Placenta previa</t>
+  </si>
+  <si>
+    <t>Pneumocystis jiroveci (carinii) infection</t>
+  </si>
+  <si>
+    <t>Pneumonia</t>
+  </si>
+  <si>
+    <t>Pneumonia - severe</t>
+  </si>
+  <si>
+    <t>Polyhydramnios</t>
+  </si>
+  <si>
+    <t>Polyp, cervical</t>
+  </si>
+  <si>
+    <t>Postpartum/postoperative endometritis</t>
+  </si>
+  <si>
+    <t>Pre-eclampsia, Mild</t>
+  </si>
+  <si>
+    <t>Pre-eclampsia, Severe</t>
+  </si>
+  <si>
+    <t>Progressive multifocal leukoenchephalopathy (PML)</t>
+  </si>
+  <si>
+    <t>Psychosis</t>
+  </si>
+  <si>
+    <t>Pulmonary embolus</t>
+  </si>
+  <si>
+    <t>Pulp space infection</t>
+  </si>
+  <si>
+    <t>Purpura</t>
+  </si>
+  <si>
+    <t>Pyelonephritis</t>
+  </si>
+  <si>
+    <t>Pyoderma</t>
+  </si>
+  <si>
+    <t>Pyomyositis</t>
+  </si>
+  <si>
+    <t>Rash, allergic</t>
+  </si>
+  <si>
+    <t>Reactive arthritis</t>
+  </si>
+  <si>
+    <t>Rectal prolapse</t>
+  </si>
+  <si>
+    <t>Respiatory Distress Syndrome</t>
+  </si>
+  <si>
+    <t>Respiratory failure</t>
+  </si>
+  <si>
+    <t>Rheumatic fever</t>
+  </si>
+  <si>
+    <t>Rheumatic heart disease</t>
+  </si>
+  <si>
+    <t>Rheumatoid arthritis</t>
+  </si>
+  <si>
+    <t>Rubella, congenital</t>
+  </si>
+  <si>
+    <t>Scabies</t>
+  </si>
+  <si>
+    <t>Scalded skin syndrome</t>
+  </si>
+  <si>
+    <t>Schistosomiasis</t>
+  </si>
+  <si>
+    <t>Sciatica</t>
+  </si>
+  <si>
+    <t>Sickle cell crisis - acute chest syndrome</t>
+  </si>
+  <si>
+    <t>Sickle cell crisis - dactylitis</t>
+  </si>
+  <si>
+    <t>Sickle cell crisis - mesenteric</t>
+  </si>
+  <si>
+    <t>Sickle cell crisis - painful</t>
+  </si>
+  <si>
+    <t>Sickle cell crisis - sequestration</t>
+  </si>
+  <si>
+    <t>Sickle cell disease</t>
+  </si>
+  <si>
+    <t>Sinusitis - acute</t>
+  </si>
+  <si>
+    <t>Sinusitis - chronic</t>
+  </si>
+  <si>
+    <t>Skin Infection, Fungal</t>
+  </si>
+  <si>
+    <t>Spontaneous abortion/miscarriage</t>
+  </si>
+  <si>
+    <t>Stevens - Johnson syndrome</t>
+  </si>
+  <si>
+    <t>Stomatis</t>
+  </si>
+  <si>
+    <t>Stomatitis, aphthous</t>
+  </si>
+  <si>
+    <t>Stroke</t>
+  </si>
+  <si>
+    <t>Stye</t>
+  </si>
+  <si>
+    <t>Sudden infant death syndorme (SIDS)</t>
+  </si>
+  <si>
+    <t>Syphillis</t>
+  </si>
+  <si>
+    <t>Tetanus</t>
+  </si>
+  <si>
+    <t>Thrombocytopenia - general</t>
+  </si>
+  <si>
+    <t>Thrombocytopenia - HIV related</t>
+  </si>
+  <si>
+    <t>Tinea Capitis</t>
+  </si>
+  <si>
+    <t>Tonsillitis</t>
+  </si>
+  <si>
+    <t>Torticolis</t>
+  </si>
+  <si>
+    <t>Toxoplasmosis - CNS</t>
+  </si>
+  <si>
+    <t>Toxoplasmosis - systemic</t>
+  </si>
+  <si>
+    <t>Tracheomalacia</t>
+  </si>
+  <si>
+    <t>Trichomonas</t>
+  </si>
+  <si>
+    <t>Tuberculosis - extrapulmonary</t>
+  </si>
+  <si>
+    <t>Tuberculosis - lymph node</t>
+  </si>
+  <si>
+    <t>Tuberculosis - pulmonary</t>
+  </si>
+  <si>
+    <t>Tuberculosis - unconfirmed</t>
+  </si>
+  <si>
+    <t>Typhoid</t>
+  </si>
+  <si>
+    <t>Upper respiratory tract infection (URTI)</t>
+  </si>
+  <si>
+    <t>Urinary tract infection</t>
+  </si>
+  <si>
+    <t>Urticaria</t>
+  </si>
+  <si>
+    <t>Varicose veins</t>
+  </si>
+  <si>
+    <t>Viral Exanthem (Not otherwise Specified)</t>
+  </si>
+  <si>
+    <t>Visceral larva migrans</t>
+  </si>
+  <si>
+    <t>Visceral leishmaniasis</t>
+  </si>
+  <si>
+    <t>Vulvovaginitis, unexplained</t>
+  </si>
+  <si>
+    <t>Wart, common mild</t>
+  </si>
+  <si>
+    <t>Wart, extensive (common or flat)</t>
+  </si>
+  <si>
+    <t>Abdominal colic</t>
+  </si>
+  <si>
+    <t>Abdominal pain - unspecified</t>
+  </si>
+  <si>
+    <t>Abscess</t>
+  </si>
+  <si>
+    <t>Anaphylactic reaction</t>
+  </si>
+  <si>
+    <t>Aspiration</t>
+  </si>
+  <si>
+    <t>Convulsion / seizure</t>
+  </si>
+  <si>
+    <t>Deep vein thrombosis</t>
+  </si>
+  <si>
+    <t>Dehydration</t>
+  </si>
+  <si>
+    <t>Epistaxis</t>
+  </si>
+  <si>
+    <t>Fever, Chronic HIV Associated</t>
+  </si>
+  <si>
+    <t>Floppy Infant syndrome</t>
+  </si>
+  <si>
+    <t>Genital Ulcer, unspecified</t>
+  </si>
+  <si>
+    <t>Genu varum / valgus</t>
+  </si>
+  <si>
+    <t>Halitosis</t>
+  </si>
+  <si>
+    <t>Headache - unspecified</t>
+  </si>
+  <si>
+    <t>Hemorrhage</t>
+  </si>
+  <si>
+    <t>Hepatomegaly</t>
+  </si>
+  <si>
+    <t>Hepatosplenomegaly</t>
+  </si>
+  <si>
+    <t>Hernia - others (femoral, hiatal)</t>
+  </si>
+  <si>
+    <t>Hypothermia</t>
+  </si>
+  <si>
+    <t>Hypotonia</t>
+  </si>
+  <si>
+    <t>Mal-aligned teeth</t>
+  </si>
+  <si>
+    <t>Menorrhagia</t>
+  </si>
+  <si>
+    <t>Oligomenorrhea</t>
+  </si>
+  <si>
+    <t>Pain</t>
+  </si>
+  <si>
+    <t>Paralysis</t>
+  </si>
+  <si>
+    <t>Paresis (impaired strength)</t>
+  </si>
+  <si>
+    <t>Parotid enlargement</t>
+  </si>
+  <si>
+    <t>Parotid enlargement - HIV related</t>
+  </si>
+  <si>
+    <t>Postpartum hemorrhage</t>
+  </si>
+  <si>
+    <t>Premature rupture of membranes (PROM)</t>
+  </si>
+  <si>
+    <t>Preterm delivery</t>
+  </si>
+  <si>
+    <t>Preterm premature rupture of membranes (PPROM)</t>
+  </si>
+  <si>
+    <t>Pruritis</t>
+  </si>
+  <si>
+    <t>Renal failure - acute</t>
+  </si>
+  <si>
+    <t>Sepsis</t>
+  </si>
+  <si>
+    <t>Septicaemia</t>
+  </si>
+  <si>
+    <t>Spinal deformities</t>
+  </si>
+  <si>
+    <t>Splenomegaly</t>
+  </si>
+  <si>
+    <t>Subconjuctival Haemorrhages</t>
+  </si>
+  <si>
+    <t>Thyroglossal cyst</t>
+  </si>
+  <si>
+    <t>Tinnitus</t>
+  </si>
+  <si>
+    <t>Tracheo-oesophageal fistula</t>
+  </si>
+  <si>
+    <t>Underweight</t>
+  </si>
+  <si>
+    <t>Uterine rupture</t>
+  </si>
+  <si>
+    <t>Wart, flat (Verruca planus)</t>
+  </si>
+  <si>
+    <t>Wasting, unexplained severe</t>
+  </si>
+  <si>
+    <t>Weight loss, moderate, unexplained</t>
+  </si>
+  <si>
+    <t>Animal bite</t>
+  </si>
+  <si>
+    <t>Antepartum hemorrhage</t>
+  </si>
+  <si>
+    <t>Asphyxia</t>
+  </si>
+  <si>
+    <t>Bacteremia</t>
+  </si>
+  <si>
+    <t>Bacterial skin infection</t>
+  </si>
+  <si>
+    <t>Burns</t>
+  </si>
+  <si>
+    <t>Congenital malformation Ambiguous genitalia</t>
+  </si>
+  <si>
+    <t>Electrolyte imbalance</t>
+  </si>
+  <si>
+    <t>Episiotomy infection</t>
+  </si>
+  <si>
+    <t>Fever of unknown origin  (FUO)</t>
+  </si>
+  <si>
+    <t>Fever Without Source (FWS)</t>
+  </si>
+  <si>
+    <t>Foreign body</t>
+  </si>
+  <si>
+    <t>Foreign body in eye</t>
+  </si>
+  <si>
+    <t>Fracture  (bone)</t>
+  </si>
+  <si>
+    <t>fracture (bone)</t>
+  </si>
+  <si>
+    <t>Gestational Hypertension</t>
+  </si>
+  <si>
+    <t>Impacted cerumen</t>
+  </si>
+  <si>
+    <t>Incomplete abortion</t>
+  </si>
+  <si>
+    <t>Infant Colic</t>
+  </si>
+  <si>
+    <t>Insect bite</t>
+  </si>
+  <si>
+    <t>Intrauterine fetal demise</t>
+  </si>
+  <si>
+    <t>Jiggers</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
+    <t>Lymphoma - Non Hodgkins</t>
+  </si>
+  <si>
+    <t>Missed abortion</t>
+  </si>
+  <si>
+    <t>Neuralgia</t>
+  </si>
+  <si>
+    <t>Non-healing episiotomy (non-infected)</t>
+  </si>
+  <si>
+    <t>Poisoning</t>
+  </si>
+  <si>
+    <t>Post coital bleeding</t>
+  </si>
+  <si>
+    <t>Post-cesarean wound infection</t>
+  </si>
+  <si>
+    <t>Post-cesarean wound separation</t>
+  </si>
+  <si>
+    <t>Preterm contractions</t>
+  </si>
+  <si>
+    <t>Preterm labor</t>
+  </si>
+  <si>
+    <t>Renal failure - chronic</t>
+  </si>
+  <si>
+    <t>Severe immunosuppression</t>
+  </si>
+  <si>
+    <t>Soft tissue injury</t>
+  </si>
+  <si>
+    <t>Therapeutic abortion (elective/induced)</t>
+  </si>
+  <si>
+    <t>Threatened abortion</t>
+  </si>
+  <si>
+    <t>Tubo-Ovarian Abscess</t>
+  </si>
+  <si>
+    <t>Uterine scar dehiscence</t>
+  </si>
+  <si>
+    <t>Vaginal or vulvar hematoma</t>
+  </si>
+  <si>
+    <t>Viremia</t>
+  </si>
+  <si>
+    <t>Visual disturbance</t>
+  </si>
+  <si>
+    <t>Wound</t>
+  </si>
+  <si>
+    <t>term will be added as individual</t>
+  </si>
+  <si>
+    <t>type of the term in icemr.owl</t>
+  </si>
+  <si>
+    <t>all terms added with annotationProp, "term type" ICEMR_0000025, with value 'value'</t>
+  </si>
+  <si>
+    <t>When IRI is not provided, the temporal term will be generated with assigned ID like TEMP_XXXXX. These terms also has corresponding ontology terms as Related Synonym listed in Column E</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="42">
+  <fonts count="45">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8914,6 +10984,24 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -11164,7 +13252,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -11403,6 +13491,14 @@
     <xf numFmtId="0" fontId="31" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1825">
     <cellStyle name="20% - Accent1" xfId="1799" builtinId="30" customBuiltin="1"/>
@@ -13506,7 +15602,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13514,11 +15610,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G296"/>
+  <dimension ref="A1:G298"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A151" sqref="A151"/>
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -13541,10 +15637,10 @@
         <v>1727</v>
       </c>
       <c r="C1" s="154" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="D1" s="154" t="s">
-        <v>1838</v>
+        <v>1835</v>
       </c>
       <c r="E1" s="154" t="s">
         <v>511</v>
@@ -13553,26 +15649,26 @@
         <v>1784</v>
       </c>
       <c r="G1" s="154" t="s">
-        <v>1837</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="155" customFormat="1" ht="15.75">
       <c r="A2" s="154"/>
       <c r="B2" s="154"/>
       <c r="C2" s="154" t="s">
-        <v>1835</v>
+        <v>1832</v>
       </c>
       <c r="D2" s="154" t="s">
-        <v>1839</v>
+        <v>1836</v>
       </c>
       <c r="E2" s="154" t="s">
-        <v>1834</v>
+        <v>1831</v>
       </c>
       <c r="F2" s="154" t="s">
-        <v>1836</v>
+        <v>1833</v>
       </c>
       <c r="G2" s="154" t="s">
-        <v>1840</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -13583,7 +15679,7 @@
         <v>1728</v>
       </c>
       <c r="C3" s="87" t="s">
-        <v>1868</v>
+        <v>1865</v>
       </c>
       <c r="D3" s="87" t="s">
         <v>544</v>
@@ -13606,7 +15702,7 @@
         <v>1729</v>
       </c>
       <c r="C4" s="87" t="s">
-        <v>1885</v>
+        <v>1882</v>
       </c>
       <c r="D4" s="87" t="s">
         <v>532</v>
@@ -13629,7 +15725,7 @@
         <v>1729</v>
       </c>
       <c r="C5" s="87" t="s">
-        <v>1881</v>
+        <v>1878</v>
       </c>
       <c r="D5" s="87" t="s">
         <v>535</v>
@@ -13675,7 +15771,7 @@
         <v>1729</v>
       </c>
       <c r="C7" s="87" t="s">
-        <v>1882</v>
+        <v>1879</v>
       </c>
       <c r="D7" s="87" t="s">
         <v>540</v>
@@ -13813,7 +15909,7 @@
         <v>1730</v>
       </c>
       <c r="C13" s="87" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
       <c r="D13" s="87" t="s">
         <v>555</v>
@@ -13836,7 +15932,7 @@
         <v>1730</v>
       </c>
       <c r="C14" s="87" t="s">
-        <v>1897</v>
+        <v>1894</v>
       </c>
       <c r="D14" s="87" t="s">
         <v>556</v>
@@ -13859,7 +15955,7 @@
         <v>1730</v>
       </c>
       <c r="C15" s="87" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
       <c r="D15" s="87" t="s">
         <v>557</v>
@@ -13882,7 +15978,7 @@
         <v>1730</v>
       </c>
       <c r="C16" s="87" t="s">
-        <v>1899</v>
+        <v>1896</v>
       </c>
       <c r="D16" s="87" t="s">
         <v>560</v>
@@ -13905,7 +16001,7 @@
         <v>1731</v>
       </c>
       <c r="C17" s="87" t="s">
-        <v>1911</v>
+        <v>1908</v>
       </c>
       <c r="D17" s="87" t="s">
         <v>562</v>
@@ -13951,7 +16047,7 @@
         <v>1731</v>
       </c>
       <c r="C19" s="87" t="s">
-        <v>1884</v>
+        <v>1881</v>
       </c>
       <c r="D19" s="87" t="s">
         <v>566</v>
@@ -13974,7 +16070,7 @@
         <v>1731</v>
       </c>
       <c r="C20" s="87" t="s">
-        <v>1878</v>
+        <v>1875</v>
       </c>
       <c r="D20" s="87" t="s">
         <v>567</v>
@@ -13997,7 +16093,7 @@
         <v>1731</v>
       </c>
       <c r="C21" s="87" t="s">
-        <v>1880</v>
+        <v>1877</v>
       </c>
       <c r="D21" s="87" t="s">
         <v>568</v>
@@ -14020,7 +16116,7 @@
         <v>1731</v>
       </c>
       <c r="C22" s="87" t="s">
-        <v>1879</v>
+        <v>1876</v>
       </c>
       <c r="D22" s="87" t="s">
         <v>569</v>
@@ -14520,12 +16616,14 @@
     </row>
     <row r="44" spans="1:7" s="13" customFormat="1">
       <c r="A44" s="143" t="s">
-        <v>1841</v>
+        <v>1838</v>
       </c>
       <c r="B44" s="87" t="s">
         <v>1733</v>
       </c>
-      <c r="C44" s="87"/>
+      <c r="C44" s="87" t="s">
+        <v>1933</v>
+      </c>
       <c r="D44" s="87" t="s">
         <v>343</v>
       </c>
@@ -14642,7 +16740,7 @@
         <v>179</v>
       </c>
       <c r="D49" s="87" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="E49" s="86" t="s">
         <v>722</v>
@@ -14757,7 +16855,7 @@
         <v>177</v>
       </c>
       <c r="D54" s="87" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="E54" s="86" t="s">
         <v>727</v>
@@ -15099,7 +17197,7 @@
         <v>1738</v>
       </c>
       <c r="C69" s="87" t="s">
-        <v>1877</v>
+        <v>1874</v>
       </c>
       <c r="D69" s="87" t="s">
         <v>406</v>
@@ -15179,7 +17277,7 @@
         <v>1739</v>
       </c>
       <c r="C73" s="87" t="s">
-        <v>1874</v>
+        <v>1871</v>
       </c>
       <c r="D73" s="87" t="s">
         <v>359</v>
@@ -15198,7 +17296,7 @@
         <v>1740</v>
       </c>
       <c r="C74" s="87" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="D74" s="87" t="s">
         <v>460</v>
@@ -15217,7 +17315,7 @@
         <v>1740</v>
       </c>
       <c r="C75" s="87" t="s">
-        <v>1873</v>
+        <v>1870</v>
       </c>
       <c r="D75" s="87" t="s">
         <v>375</v>
@@ -15236,7 +17334,7 @@
         <v>1740</v>
       </c>
       <c r="C76" s="87" t="s">
-        <v>1875</v>
+        <v>1872</v>
       </c>
       <c r="D76" s="87" t="s">
         <v>376</v>
@@ -15309,7 +17407,7 @@
         <v>1039</v>
       </c>
       <c r="B80" s="143" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
       <c r="C80" s="87" t="s">
         <v>332</v>
@@ -15328,7 +17426,7 @@
         <v>1174</v>
       </c>
       <c r="B81" s="143" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
       <c r="C81" s="87" t="s">
         <v>335</v>
@@ -15347,7 +17445,7 @@
         <v>1017</v>
       </c>
       <c r="B82" s="143" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
       <c r="C82" s="87" t="s">
         <v>334</v>
@@ -15366,7 +17464,7 @@
         <v>1176</v>
       </c>
       <c r="B83" s="143" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
       <c r="C83" s="87" t="s">
         <v>337</v>
@@ -15385,7 +17483,7 @@
         <v>973</v>
       </c>
       <c r="B84" s="143" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
       <c r="C84" s="87" t="s">
         <v>330</v>
@@ -15404,7 +17502,7 @@
         <v>1016</v>
       </c>
       <c r="B85" s="143" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
       <c r="C85" s="87" t="s">
         <v>333</v>
@@ -15423,7 +17521,7 @@
         <v>1178</v>
       </c>
       <c r="B86" s="143" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
       <c r="C86" s="87" t="s">
         <v>336</v>
@@ -15442,7 +17540,7 @@
         <v>971</v>
       </c>
       <c r="B87" s="143" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
       <c r="C87" s="87" t="s">
         <v>329</v>
@@ -15464,7 +17562,7 @@
         <v>1743</v>
       </c>
       <c r="C88" s="87" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="D88" s="87" t="s">
         <v>762</v>
@@ -15699,13 +17797,13 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="143" t="s">
-        <v>1850</v>
+        <v>1847</v>
       </c>
       <c r="B99" s="87" t="s">
         <v>1744</v>
       </c>
       <c r="C99" s="87" t="s">
-        <v>1892</v>
+        <v>1889</v>
       </c>
       <c r="D99" s="87" t="s">
         <v>802</v>
@@ -15770,7 +17868,7 @@
         <v>1745</v>
       </c>
       <c r="C102" s="87" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="D102" s="87" t="s">
         <v>808</v>
@@ -15812,7 +17910,7 @@
         <v>1745</v>
       </c>
       <c r="C104" s="87" t="s">
-        <v>1871</v>
+        <v>1868</v>
       </c>
       <c r="D104" s="153" t="s">
         <v>813</v>
@@ -16033,7 +18131,7 @@
         <v>1745</v>
       </c>
       <c r="C115" s="87" t="s">
-        <v>1894</v>
+        <v>1891</v>
       </c>
       <c r="D115" s="153" t="s">
         <v>818</v>
@@ -16304,7 +18402,7 @@
         <v>1746</v>
       </c>
       <c r="C128" s="87" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="D128" s="87" t="s">
         <v>768</v>
@@ -16327,7 +18425,7 @@
         <v>1746</v>
       </c>
       <c r="C129" s="87" t="s">
-        <v>1866</v>
+        <v>1863</v>
       </c>
       <c r="D129" s="87" t="s">
         <v>769</v>
@@ -16369,7 +18467,7 @@
         <v>1746</v>
       </c>
       <c r="C131" s="87" t="s">
-        <v>1896</v>
+        <v>1893</v>
       </c>
       <c r="D131" s="87" t="s">
         <v>865</v>
@@ -16449,7 +18547,7 @@
         <v>1748</v>
       </c>
       <c r="C135" s="87" t="s">
-        <v>1898</v>
+        <v>1895</v>
       </c>
       <c r="D135" s="82" t="s">
         <v>838</v>
@@ -16472,7 +18570,7 @@
         <v>1748</v>
       </c>
       <c r="C136" s="87" t="s">
-        <v>1876</v>
+        <v>1873</v>
       </c>
       <c r="D136" s="82" t="s">
         <v>779</v>
@@ -16489,7 +18587,7 @@
     </row>
     <row r="137" spans="1:7" s="13" customFormat="1">
       <c r="A137" s="161" t="s">
-        <v>1852</v>
+        <v>1849</v>
       </c>
       <c r="B137" s="87" t="s">
         <v>1748</v>
@@ -16518,7 +18616,7 @@
         <v>1748</v>
       </c>
       <c r="C138" s="87" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="D138" s="87" t="s">
         <v>777</v>
@@ -16541,7 +18639,7 @@
         <v>1748</v>
       </c>
       <c r="C139" s="87" t="s">
-        <v>1890</v>
+        <v>1887</v>
       </c>
       <c r="D139" s="87" t="s">
         <v>771</v>
@@ -16583,7 +18681,7 @@
         <v>1748</v>
       </c>
       <c r="C141" s="143" t="s">
-        <v>1893</v>
+        <v>1890</v>
       </c>
       <c r="D141" s="143" t="s">
         <v>766</v>
@@ -16592,10 +18690,10 @@
         <v>925</v>
       </c>
       <c r="F141" s="143" t="s">
-        <v>1927</v>
+        <v>1924</v>
       </c>
       <c r="G141" s="143" t="s">
-        <v>1927</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="142" spans="1:7" s="13" customFormat="1">
@@ -16692,7 +18790,7 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="161" t="s">
-        <v>1853</v>
+        <v>1850</v>
       </c>
       <c r="B146" s="87" t="s">
         <v>1746</v>
@@ -16733,398 +18831,410 @@
       </c>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="87"/>
+      <c r="A148" s="158" t="s">
+        <v>1935</v>
+      </c>
       <c r="B148" s="87" t="s">
         <v>1743</v>
       </c>
       <c r="C148" s="87" t="s">
-        <v>1928</v>
+        <v>1925</v>
       </c>
       <c r="D148" s="87" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="E148" s="86"/>
       <c r="F148" s="87"/>
       <c r="G148" s="87"/>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="87"/>
+      <c r="A149" s="158" t="s">
+        <v>1936</v>
+      </c>
       <c r="B149" s="87" t="s">
         <v>1743</v>
       </c>
       <c r="C149" s="87" t="s">
-        <v>1930</v>
+        <v>1927</v>
       </c>
       <c r="D149" s="87" t="s">
-        <v>1905</v>
+        <v>1902</v>
       </c>
       <c r="E149" s="86"/>
       <c r="F149" s="87"/>
       <c r="G149" s="87"/>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="87"/>
+      <c r="A150" s="158" t="s">
+        <v>1937</v>
+      </c>
       <c r="B150" s="87" t="s">
         <v>1743</v>
       </c>
       <c r="C150" s="87" t="s">
-        <v>1929</v>
+        <v>1926</v>
       </c>
       <c r="D150" s="87" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="E150" s="86"/>
       <c r="F150" s="87"/>
       <c r="G150" s="87"/>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="87"/>
+      <c r="A151" s="158" t="s">
+        <v>1938</v>
+      </c>
       <c r="B151" s="87" t="s">
         <v>1743</v>
       </c>
       <c r="C151" s="87" t="s">
+        <v>1928</v>
+      </c>
+      <c r="D151" s="87" t="s">
         <v>1931</v>
-      </c>
-      <c r="D151" s="87" t="s">
-        <v>1934</v>
       </c>
       <c r="E151" s="86"/>
       <c r="F151" s="87"/>
       <c r="G151" s="87"/>
     </row>
-    <row r="152" spans="1:7">
-      <c r="A152" s="87"/>
-      <c r="B152" s="87"/>
-      <c r="C152" s="87"/>
-      <c r="D152" s="87"/>
-      <c r="E152" s="86"/>
-      <c r="F152" s="87"/>
-      <c r="G152" s="87"/>
-    </row>
-    <row r="153" spans="1:7">
-      <c r="B153" s="12"/>
-      <c r="C153" s="13"/>
-      <c r="D153" s="12"/>
+    <row r="152" spans="1:7" s="13" customFormat="1">
+      <c r="A152" s="166" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B152" s="166" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C152" s="166" t="s">
+        <v>32</v>
+      </c>
+      <c r="D152" s="166" t="s">
+        <v>678</v>
+      </c>
+      <c r="E152" s="167" t="s">
+        <v>745</v>
+      </c>
+      <c r="F152" s="166"/>
+      <c r="G152" s="166"/>
+    </row>
+    <row r="153" spans="1:7" s="13" customFormat="1">
+      <c r="A153" s="87"/>
+      <c r="B153" s="87"/>
+      <c r="C153" s="87"/>
+      <c r="D153" s="87"/>
+      <c r="E153" s="86"/>
+      <c r="F153" s="87"/>
+      <c r="G153" s="87"/>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="87" t="s">
-        <v>1925</v>
-      </c>
-      <c r="B154" s="12"/>
-      <c r="C154" s="13"/>
-      <c r="D154" s="12"/>
+      <c r="A154" s="87"/>
+      <c r="B154" s="87"/>
+      <c r="C154" s="87"/>
+      <c r="D154" s="87"/>
+      <c r="E154" s="86"/>
+      <c r="F154" s="87"/>
+      <c r="G154" s="87"/>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="161" t="s">
-        <v>1853</v>
-      </c>
-      <c r="B155" s="87" t="s">
+      <c r="A155" s="83" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B155" s="12"/>
+      <c r="C155" s="13"/>
+      <c r="D155" s="12"/>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="87" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B156" s="12"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="12"/>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="161" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B157" s="87" t="s">
         <v>1746</v>
       </c>
-      <c r="C155" s="87" t="s">
+      <c r="C157" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="D155" s="162" t="s">
+      <c r="D157" s="162" t="s">
         <v>843</v>
       </c>
-      <c r="E155" s="86" t="s">
+      <c r="E157" s="86" t="s">
         <v>911</v>
       </c>
-      <c r="F155" s="87"/>
-      <c r="G155" s="87"/>
-    </row>
-    <row r="156" spans="1:7" customFormat="1">
-      <c r="A156" t="s">
-        <v>1926</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
-      <c r="A157" s="87" t="s">
+      <c r="F157" s="87"/>
+      <c r="G157" s="87"/>
+    </row>
+    <row r="158" spans="1:7" customFormat="1">
+      <c r="A158" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="87" t="s">
         <v>1634</v>
       </c>
-      <c r="B157" s="87" t="s">
+      <c r="B159" s="87" t="s">
         <v>1750</v>
       </c>
-      <c r="C157" s="87" t="s">
+      <c r="C159" s="87" t="s">
         <v>143</v>
       </c>
-      <c r="D157" s="162" t="s">
+      <c r="D159" s="162" t="s">
         <v>143</v>
       </c>
-      <c r="E157" s="86" t="s">
+      <c r="E159" s="86" t="s">
         <v>930</v>
       </c>
-      <c r="F157" s="87" t="s">
+      <c r="F159" s="87" t="s">
         <v>1243</v>
       </c>
-      <c r="G157" s="87" t="s">
+      <c r="G159" s="87" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
-      <c r="B158" s="12"/>
-      <c r="C158" s="13"/>
-      <c r="D158" s="12"/>
-    </row>
-    <row r="159" spans="1:7">
-      <c r="A159" s="151" t="s">
+    <row r="160" spans="1:7">
+      <c r="B160" s="12"/>
+      <c r="C160" s="13"/>
+      <c r="D160" s="12"/>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="151" t="s">
         <v>1800</v>
       </c>
-      <c r="B159" s="87"/>
-      <c r="C159" s="13"/>
-      <c r="D159" s="12"/>
-    </row>
-    <row r="160" spans="1:7" s="13" customFormat="1">
-      <c r="A160" s="151" t="s">
-        <v>1801</v>
-      </c>
-      <c r="B160" s="87" t="s">
-        <v>1821</v>
-      </c>
-      <c r="D160" s="12"/>
-    </row>
-    <row r="161" spans="1:6" s="13" customFormat="1">
-      <c r="A161" s="151" t="s">
-        <v>1803</v>
-      </c>
-      <c r="B161" s="87" t="s">
-        <v>1805</v>
-      </c>
+      <c r="B161" s="87"/>
+      <c r="C161" s="13"/>
+      <c r="D161" s="12"/>
     </row>
     <row r="162" spans="1:6" s="13" customFormat="1">
       <c r="A162" s="151" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
       <c r="B162" s="87" t="s">
-        <v>1802</v>
+        <v>1821</v>
       </c>
       <c r="D162" s="12"/>
     </row>
     <row r="163" spans="1:6" s="13" customFormat="1">
       <c r="A163" s="151" t="s">
-        <v>1806</v>
+        <v>1803</v>
       </c>
       <c r="B163" s="87" t="s">
-        <v>1807</v>
-      </c>
-      <c r="C163" s="82"/>
-      <c r="D163" s="87"/>
+        <v>1805</v>
+      </c>
     </row>
     <row r="164" spans="1:6" s="13" customFormat="1">
       <c r="A164" s="151" t="s">
-        <v>1808</v>
+        <v>1804</v>
       </c>
       <c r="B164" s="87" t="s">
-        <v>1809</v>
-      </c>
-      <c r="C164" s="82"/>
-      <c r="D164" s="87"/>
+        <v>1802</v>
+      </c>
+      <c r="D164" s="12"/>
     </row>
     <row r="165" spans="1:6" s="13" customFormat="1">
       <c r="A165" s="151" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B165" s="87" t="s">
-        <v>1825</v>
+        <v>1807</v>
       </c>
       <c r="C165" s="82"/>
       <c r="D165" s="87"/>
     </row>
     <row r="166" spans="1:6" s="13" customFormat="1">
       <c r="A166" s="151" t="s">
-        <v>1822</v>
+        <v>1808</v>
       </c>
       <c r="B166" s="87" t="s">
-        <v>1824</v>
+        <v>1809</v>
       </c>
       <c r="C166" s="82"/>
       <c r="D166" s="87"/>
     </row>
     <row r="167" spans="1:6" s="13" customFormat="1">
       <c r="A167" s="151" t="s">
-        <v>1822</v>
+        <v>1808</v>
       </c>
       <c r="B167" s="87" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="C167" s="82"/>
       <c r="D167" s="87"/>
     </row>
     <row r="168" spans="1:6" s="13" customFormat="1">
-      <c r="A168" s="150"/>
+      <c r="A168" s="151" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B168" s="87" t="s">
+        <v>1824</v>
+      </c>
       <c r="C168" s="82"/>
       <c r="D168" s="87"/>
     </row>
     <row r="169" spans="1:6" s="13" customFormat="1">
-      <c r="A169" s="150"/>
-      <c r="B169" s="44" t="s">
-        <v>1823</v>
+      <c r="A169" s="151" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B169" s="87" t="s">
+        <v>1826</v>
       </c>
       <c r="C169" s="82"/>
       <c r="D169" s="87"/>
     </row>
     <row r="170" spans="1:6" s="13" customFormat="1">
       <c r="A170" s="150"/>
-      <c r="B170" s="87" t="s">
+      <c r="C170" s="82"/>
+      <c r="D170" s="87"/>
+    </row>
+    <row r="171" spans="1:6" s="13" customFormat="1">
+      <c r="A171" s="150"/>
+      <c r="B171" s="44" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C171" s="82"/>
+      <c r="D171" s="87"/>
+    </row>
+    <row r="172" spans="1:6" s="13" customFormat="1">
+      <c r="A172" s="150"/>
+      <c r="B172" s="87" t="s">
         <v>1827</v>
       </c>
-      <c r="C170" s="12"/>
-      <c r="D170" s="12"/>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171" s="150"/>
-      <c r="C171" s="12"/>
-      <c r="D171" s="12"/>
-    </row>
-    <row r="172" spans="1:6" s="13" customFormat="1">
-      <c r="A172" s="143"/>
-      <c r="B172" s="13" t="s">
-        <v>1851</v>
-      </c>
-      <c r="C172" s="41"/>
+      <c r="C172" s="12"/>
       <c r="D172" s="12"/>
-      <c r="F172" s="143"/>
-    </row>
-    <row r="173" spans="1:6" s="13" customFormat="1">
-      <c r="A173" s="143"/>
-      <c r="C173" s="41"/>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="150"/>
+      <c r="C173" s="12"/>
       <c r="D173" s="12"/>
-      <c r="F173" s="143"/>
     </row>
     <row r="174" spans="1:6" s="13" customFormat="1">
       <c r="A174" s="143"/>
+      <c r="B174" s="13" t="s">
+        <v>1848</v>
+      </c>
       <c r="C174" s="41"/>
       <c r="D174" s="12"/>
-      <c r="E174" s="150"/>
       <c r="F174" s="143"/>
     </row>
-    <row r="175" spans="1:6">
-      <c r="B175" s="13"/>
+    <row r="175" spans="1:6" s="13" customFormat="1">
+      <c r="A175" s="143"/>
       <c r="C175" s="41"/>
       <c r="D175" s="12"/>
-      <c r="E175" s="150"/>
-    </row>
-    <row r="176" spans="1:6">
-      <c r="B176" s="13"/>
+      <c r="F175" s="143"/>
+    </row>
+    <row r="176" spans="1:6" s="13" customFormat="1">
+      <c r="A176" s="143"/>
       <c r="C176" s="41"/>
       <c r="D176" s="12"/>
       <c r="E176" s="150"/>
-    </row>
-    <row r="177" spans="1:7" s="13" customFormat="1">
-      <c r="A177" s="87" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B177" s="87" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C177" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="D177" s="87" t="s">
-        <v>678</v>
-      </c>
-      <c r="E177" s="86" t="s">
-        <v>745</v>
-      </c>
-      <c r="F177" s="87"/>
-      <c r="G177" s="87"/>
-    </row>
-    <row r="178" spans="1:7">
-      <c r="B178" s="13"/>
+      <c r="F176" s="143"/>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="5"/>
+      <c r="B177" s="13" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C177" s="41"/>
+      <c r="D177" s="12"/>
+      <c r="E177" s="150"/>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="11"/>
+      <c r="B178" s="13" t="s">
+        <v>1940</v>
+      </c>
       <c r="C178" s="41"/>
       <c r="D178" s="12"/>
       <c r="E178" s="150"/>
     </row>
-    <row r="179" spans="1:7">
-      <c r="B179" s="13"/>
-      <c r="C179" s="41"/>
-      <c r="D179" s="12"/>
-      <c r="E179" s="150"/>
-    </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:5">
       <c r="B180" s="13"/>
       <c r="C180" s="41"/>
       <c r="D180" s="12"/>
       <c r="E180" s="150"/>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:5">
       <c r="B181" s="13"/>
       <c r="C181" s="41"/>
       <c r="D181" s="12"/>
       <c r="E181" s="150"/>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:5">
       <c r="B182" s="13"/>
-      <c r="C182" s="12"/>
+      <c r="C182" s="41"/>
       <c r="D182" s="12"/>
       <c r="E182" s="150"/>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:5">
       <c r="B183" s="13"/>
-      <c r="C183" s="12"/>
+      <c r="C183" s="41"/>
       <c r="D183" s="12"/>
       <c r="E183" s="150"/>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:5">
       <c r="B184" s="13"/>
       <c r="C184" s="12"/>
       <c r="D184" s="12"/>
-    </row>
-    <row r="185" spans="1:7">
+      <c r="E184" s="150"/>
+    </row>
+    <row r="185" spans="1:5">
       <c r="B185" s="13"/>
       <c r="C185" s="12"/>
       <c r="D185" s="12"/>
-    </row>
-    <row r="186" spans="1:7">
+      <c r="E185" s="150"/>
+    </row>
+    <row r="186" spans="1:5">
       <c r="B186" s="13"/>
       <c r="C186" s="12"/>
       <c r="D186" s="12"/>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:5">
       <c r="B187" s="13"/>
       <c r="C187" s="12"/>
       <c r="D187" s="12"/>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:5">
       <c r="B188" s="13"/>
       <c r="C188" s="12"/>
       <c r="D188" s="12"/>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:5">
       <c r="B189" s="13"/>
       <c r="C189" s="12"/>
       <c r="D189" s="12"/>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:5">
       <c r="B190" s="13"/>
       <c r="C190" s="12"/>
       <c r="D190" s="12"/>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:5">
       <c r="B191" s="13"/>
       <c r="C191" s="12"/>
       <c r="D191" s="12"/>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:5">
       <c r="B192" s="13"/>
       <c r="C192" s="12"/>
       <c r="D192" s="12"/>
     </row>
-    <row r="193" spans="1:6" s="13" customFormat="1">
+    <row r="193" spans="1:6">
+      <c r="B193" s="13"/>
       <c r="C193" s="12"/>
       <c r="D193" s="12"/>
-      <c r="E193" s="44"/>
-      <c r="F193" s="143"/>
-    </row>
-    <row r="194" spans="1:6" s="13" customFormat="1">
-      <c r="A194" s="143"/>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="B194" s="13"/>
       <c r="C194" s="12"/>
       <c r="D194" s="12"/>
-      <c r="E194" s="44"/>
-      <c r="F194" s="143"/>
     </row>
     <row r="195" spans="1:6" s="13" customFormat="1">
-      <c r="A195" s="143"/>
       <c r="C195" s="12"/>
       <c r="D195" s="12"/>
       <c r="E195" s="44"/>
@@ -17151,15 +19261,19 @@
       <c r="E198" s="44"/>
       <c r="F198" s="143"/>
     </row>
-    <row r="199" spans="1:6">
-      <c r="B199" s="13"/>
+    <row r="199" spans="1:6" s="13" customFormat="1">
+      <c r="A199" s="143"/>
       <c r="C199" s="12"/>
       <c r="D199" s="12"/>
-    </row>
-    <row r="200" spans="1:6">
-      <c r="B200" s="13"/>
+      <c r="E199" s="44"/>
+      <c r="F199" s="143"/>
+    </row>
+    <row r="200" spans="1:6" s="13" customFormat="1">
+      <c r="A200" s="143"/>
       <c r="C200" s="12"/>
       <c r="D200" s="12"/>
+      <c r="E200" s="44"/>
+      <c r="F200" s="143"/>
     </row>
     <row r="201" spans="1:6">
       <c r="B201" s="13"/>
@@ -17192,7 +19306,6 @@
       <c r="D206" s="12"/>
     </row>
     <row r="207" spans="1:6">
-      <c r="A207" s="13"/>
       <c r="B207" s="13"/>
       <c r="C207" s="12"/>
       <c r="D207" s="12"/>
@@ -17209,24 +19322,25 @@
       <c r="D209" s="12"/>
     </row>
     <row r="210" spans="1:4">
-      <c r="A210" s="13"/>
       <c r="B210" s="13"/>
       <c r="C210" s="12"/>
       <c r="D210" s="12"/>
     </row>
     <row r="211" spans="1:4">
+      <c r="A211" s="13"/>
       <c r="B211" s="13"/>
       <c r="C211" s="12"/>
       <c r="D211" s="12"/>
     </row>
     <row r="212" spans="1:4">
+      <c r="A212" s="13"/>
       <c r="B212" s="13"/>
-      <c r="C212" s="41"/>
+      <c r="C212" s="12"/>
       <c r="D212" s="12"/>
     </row>
     <row r="213" spans="1:4">
       <c r="B213" s="13"/>
-      <c r="C213" s="41"/>
+      <c r="C213" s="12"/>
       <c r="D213" s="12"/>
     </row>
     <row r="214" spans="1:4">
@@ -17271,13 +19385,13 @@
     </row>
     <row r="222" spans="1:4">
       <c r="B222" s="13"/>
-      <c r="C222" s="106"/>
-      <c r="D222" s="106"/>
+      <c r="C222" s="41"/>
+      <c r="D222" s="12"/>
     </row>
     <row r="223" spans="1:4">
       <c r="B223" s="13"/>
-      <c r="C223" s="106"/>
-      <c r="D223" s="106"/>
+      <c r="C223" s="41"/>
+      <c r="D223" s="12"/>
     </row>
     <row r="224" spans="1:4">
       <c r="B224" s="13"/>
@@ -17286,13 +19400,13 @@
     </row>
     <row r="225" spans="2:4">
       <c r="B225" s="13"/>
-      <c r="C225" s="41"/>
-      <c r="D225" s="12"/>
+      <c r="C225" s="106"/>
+      <c r="D225" s="106"/>
     </row>
     <row r="226" spans="2:4">
       <c r="B226" s="13"/>
-      <c r="C226" s="41"/>
-      <c r="D226" s="12"/>
+      <c r="C226" s="106"/>
+      <c r="D226" s="106"/>
     </row>
     <row r="227" spans="2:4">
       <c r="B227" s="13"/>
@@ -17336,22 +19450,22 @@
     </row>
     <row r="235" spans="2:4">
       <c r="B235" s="13"/>
-      <c r="C235" s="31"/>
+      <c r="C235" s="41"/>
       <c r="D235" s="12"/>
     </row>
     <row r="236" spans="2:4">
       <c r="B236" s="13"/>
-      <c r="C236" s="31"/>
+      <c r="C236" s="41"/>
       <c r="D236" s="12"/>
     </row>
     <row r="237" spans="2:4">
       <c r="B237" s="13"/>
-      <c r="C237" s="41"/>
+      <c r="C237" s="31"/>
       <c r="D237" s="12"/>
     </row>
     <row r="238" spans="2:4">
       <c r="B238" s="13"/>
-      <c r="C238" s="41"/>
+      <c r="C238" s="31"/>
       <c r="D238" s="12"/>
     </row>
     <row r="239" spans="2:4">
@@ -17364,17 +19478,15 @@
       <c r="C240" s="41"/>
       <c r="D240" s="12"/>
     </row>
-    <row r="241" spans="1:5" s="13" customFormat="1">
-      <c r="A241" s="143"/>
-      <c r="C241" s="104"/>
+    <row r="241" spans="1:5">
+      <c r="B241" s="13"/>
+      <c r="C241" s="41"/>
       <c r="D241" s="12"/>
-      <c r="E241" s="44"/>
-    </row>
-    <row r="242" spans="1:5" s="13" customFormat="1">
-      <c r="A242" s="143"/>
-      <c r="C242" s="104"/>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="B242" s="13"/>
+      <c r="C242" s="41"/>
       <c r="D242" s="12"/>
-      <c r="E242" s="44"/>
     </row>
     <row r="243" spans="1:5" s="13" customFormat="1">
       <c r="A243" s="143"/>
@@ -17384,14 +19496,15 @@
     </row>
     <row r="244" spans="1:5" s="13" customFormat="1">
       <c r="A244" s="143"/>
-      <c r="C244" s="88"/>
-      <c r="D244" s="49"/>
+      <c r="C244" s="104"/>
+      <c r="D244" s="12"/>
       <c r="E244" s="44"/>
     </row>
-    <row r="245" spans="1:5">
-      <c r="B245" s="13"/>
-      <c r="C245" s="88"/>
-      <c r="D245" s="49"/>
+    <row r="245" spans="1:5" s="13" customFormat="1">
+      <c r="A245" s="143"/>
+      <c r="C245" s="104"/>
+      <c r="D245" s="12"/>
+      <c r="E245" s="44"/>
     </row>
     <row r="246" spans="1:5" s="13" customFormat="1">
       <c r="A246" s="143"/>
@@ -17399,11 +19512,10 @@
       <c r="D246" s="49"/>
       <c r="E246" s="44"/>
     </row>
-    <row r="247" spans="1:5" s="13" customFormat="1">
-      <c r="A247" s="143"/>
+    <row r="247" spans="1:5">
+      <c r="B247" s="13"/>
       <c r="C247" s="88"/>
       <c r="D247" s="49"/>
-      <c r="E247" s="44"/>
     </row>
     <row r="248" spans="1:5" s="13" customFormat="1">
       <c r="A248" s="143"/>
@@ -17417,20 +19529,22 @@
       <c r="D249" s="49"/>
       <c r="E249" s="44"/>
     </row>
-    <row r="250" spans="1:5">
-      <c r="B250" s="13"/>
+    <row r="250" spans="1:5" s="13" customFormat="1">
+      <c r="A250" s="143"/>
       <c r="C250" s="88"/>
       <c r="D250" s="49"/>
-    </row>
-    <row r="251" spans="1:5">
-      <c r="B251" s="13"/>
-      <c r="C251" s="104"/>
-      <c r="D251" s="106"/>
+      <c r="E250" s="44"/>
+    </row>
+    <row r="251" spans="1:5" s="13" customFormat="1">
+      <c r="A251" s="143"/>
+      <c r="C251" s="88"/>
+      <c r="D251" s="49"/>
+      <c r="E251" s="44"/>
     </row>
     <row r="252" spans="1:5">
       <c r="B252" s="13"/>
-      <c r="C252" s="104"/>
-      <c r="D252" s="106"/>
+      <c r="C252" s="88"/>
+      <c r="D252" s="49"/>
     </row>
     <row r="253" spans="1:5">
       <c r="B253" s="13"/>
@@ -17447,22 +19561,20 @@
       <c r="C255" s="104"/>
       <c r="D255" s="106"/>
     </row>
-    <row r="256" spans="1:5" s="13" customFormat="1">
-      <c r="A256" s="143"/>
+    <row r="256" spans="1:5">
+      <c r="B256" s="13"/>
       <c r="C256" s="104"/>
       <c r="D256" s="106"/>
-      <c r="E256" s="44"/>
-    </row>
-    <row r="257" spans="1:5" s="13" customFormat="1">
-      <c r="A257" s="143"/>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="B257" s="13"/>
       <c r="C257" s="104"/>
-      <c r="D257" s="12"/>
-      <c r="E257" s="44"/>
+      <c r="D257" s="106"/>
     </row>
     <row r="258" spans="1:5" s="13" customFormat="1">
       <c r="A258" s="143"/>
       <c r="C258" s="104"/>
-      <c r="D258" s="12"/>
+      <c r="D258" s="106"/>
       <c r="E258" s="44"/>
     </row>
     <row r="259" spans="1:5" s="13" customFormat="1">
@@ -17477,32 +19589,32 @@
       <c r="D260" s="12"/>
       <c r="E260" s="44"/>
     </row>
-    <row r="261" spans="1:5">
-      <c r="B261" s="13"/>
+    <row r="261" spans="1:5" s="13" customFormat="1">
+      <c r="A261" s="143"/>
       <c r="C261" s="104"/>
-      <c r="D261" s="106"/>
-    </row>
-    <row r="262" spans="1:5">
-      <c r="B262" s="13"/>
+      <c r="D261" s="12"/>
+      <c r="E261" s="44"/>
+    </row>
+    <row r="262" spans="1:5" s="13" customFormat="1">
+      <c r="A262" s="143"/>
       <c r="C262" s="104"/>
-      <c r="D262" s="106"/>
+      <c r="D262" s="12"/>
+      <c r="E262" s="44"/>
     </row>
     <row r="263" spans="1:5">
       <c r="B263" s="13"/>
       <c r="C263" s="104"/>
       <c r="D263" s="106"/>
     </row>
-    <row r="264" spans="1:5" s="13" customFormat="1">
-      <c r="A264" s="93"/>
+    <row r="264" spans="1:5">
+      <c r="B264" s="13"/>
       <c r="C264" s="104"/>
-      <c r="D264" s="12"/>
-      <c r="E264" s="44"/>
-    </row>
-    <row r="265" spans="1:5" s="13" customFormat="1">
-      <c r="A265" s="93"/>
+      <c r="D264" s="106"/>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="B265" s="13"/>
       <c r="C265" s="104"/>
-      <c r="D265" s="12"/>
-      <c r="E265" s="44"/>
+      <c r="D265" s="106"/>
     </row>
     <row r="266" spans="1:5" s="13" customFormat="1">
       <c r="A266" s="93"/>
@@ -17522,27 +19634,27 @@
       <c r="D268" s="12"/>
       <c r="E268" s="44"/>
     </row>
-    <row r="269" spans="1:5">
-      <c r="B269" s="13"/>
-      <c r="C269" s="88"/>
-      <c r="D269" s="31"/>
-    </row>
-    <row r="270" spans="1:5">
-      <c r="B270" s="13"/>
-      <c r="C270" s="88"/>
-      <c r="D270" s="31"/>
-    </row>
-    <row r="271" spans="1:5" s="13" customFormat="1">
-      <c r="A271" s="143"/>
+    <row r="269" spans="1:5" s="13" customFormat="1">
+      <c r="A269" s="93"/>
+      <c r="C269" s="104"/>
+      <c r="D269" s="12"/>
+      <c r="E269" s="44"/>
+    </row>
+    <row r="270" spans="1:5" s="13" customFormat="1">
+      <c r="A270" s="93"/>
+      <c r="C270" s="104"/>
+      <c r="D270" s="12"/>
+      <c r="E270" s="44"/>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="B271" s="13"/>
       <c r="C271" s="88"/>
       <c r="D271" s="31"/>
-      <c r="E271" s="44"/>
-    </row>
-    <row r="272" spans="1:5" s="13" customFormat="1">
-      <c r="A272" s="143"/>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="B272" s="13"/>
       <c r="C272" s="88"/>
       <c r="D272" s="31"/>
-      <c r="E272" s="44"/>
     </row>
     <row r="273" spans="1:5" s="13" customFormat="1">
       <c r="A273" s="143"/>
@@ -17550,15 +19662,17 @@
       <c r="D273" s="31"/>
       <c r="E273" s="44"/>
     </row>
-    <row r="274" spans="1:5">
-      <c r="B274" s="13"/>
+    <row r="274" spans="1:5" s="13" customFormat="1">
+      <c r="A274" s="143"/>
       <c r="C274" s="88"/>
-      <c r="D274" s="88"/>
-    </row>
-    <row r="275" spans="1:5">
-      <c r="B275" s="13"/>
+      <c r="D274" s="31"/>
+      <c r="E274" s="44"/>
+    </row>
+    <row r="275" spans="1:5" s="13" customFormat="1">
+      <c r="A275" s="143"/>
       <c r="C275" s="88"/>
-      <c r="D275" s="88"/>
+      <c r="D275" s="31"/>
+      <c r="E275" s="44"/>
     </row>
     <row r="276" spans="1:5">
       <c r="B276" s="13"/>
@@ -17566,30 +19680,40 @@
       <c r="D276" s="88"/>
     </row>
     <row r="277" spans="1:5">
-      <c r="A277" s="131"/>
+      <c r="B277" s="13"/>
+      <c r="C277" s="88"/>
+      <c r="D277" s="88"/>
     </row>
     <row r="278" spans="1:5">
-      <c r="A278" s="131"/>
+      <c r="B278" s="13"/>
+      <c r="C278" s="88"/>
+      <c r="D278" s="88"/>
     </row>
     <row r="279" spans="1:5">
       <c r="A279" s="131"/>
     </row>
-    <row r="280" spans="1:5" ht="409.6">
+    <row r="280" spans="1:5">
       <c r="A280" s="131"/>
     </row>
-    <row r="281" spans="1:5" ht="409.6">
+    <row r="281" spans="1:5">
       <c r="A281" s="131"/>
     </row>
-    <row r="282" spans="1:5" ht="409.6">
+    <row r="282" spans="1:5">
       <c r="A282" s="131"/>
     </row>
-    <row r="296" spans="1:1">
-      <c r="A296" s="44"/>
+    <row r="283" spans="1:5">
+      <c r="A283" s="131"/>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="131"/>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" s="44"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A137" r:id="rId1"/>
-    <hyperlink ref="A155" r:id="rId2"/>
+    <hyperlink ref="A157" r:id="rId2"/>
     <hyperlink ref="A146" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17628,20 +19752,20 @@
         <v>1782</v>
       </c>
       <c r="E1" s="154" t="s">
-        <v>1838</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75">
       <c r="A2" s="154"/>
       <c r="B2" s="154"/>
       <c r="C2" s="154" t="s">
-        <v>1834</v>
+        <v>1831</v>
       </c>
       <c r="D2" s="154" t="s">
-        <v>1835</v>
+        <v>1832</v>
       </c>
       <c r="E2" s="154" t="s">
-        <v>1839</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -18953,7 +21077,7 @@
     </row>
     <row r="80" spans="1:5" s="5" customFormat="1">
       <c r="A80" s="143" t="s">
-        <v>1850</v>
+        <v>1847</v>
       </c>
       <c r="B80" s="158" t="s">
         <v>1744</v>
@@ -19276,7 +21400,7 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="143" t="s">
-        <v>1841</v>
+        <v>1838</v>
       </c>
       <c r="B99" s="87" t="s">
         <v>1733</v>
@@ -22136,10 +24260,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P130"/>
+  <dimension ref="A1:P504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView tabSelected="1" topLeftCell="A484" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C497" sqref="C497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -22160,24 +24284,24 @@
         <v>1727</v>
       </c>
       <c r="C1" s="148" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="D1" s="154" t="s">
-        <v>1838</v>
+        <v>1835</v>
       </c>
       <c r="E1" s="148" t="s">
-        <v>1855</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="148" customFormat="1" ht="15.75">
       <c r="C2" s="154" t="s">
-        <v>1835</v>
+        <v>1832</v>
       </c>
       <c r="D2" s="154" t="s">
-        <v>1839</v>
+        <v>1836</v>
       </c>
       <c r="E2" s="154" t="s">
-        <v>1854</v>
+        <v>1851</v>
       </c>
       <c r="F2" s="154"/>
       <c r="G2" s="154"/>
@@ -22333,7 +24457,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="87" t="s">
-        <v>1843</v>
+        <v>1840</v>
       </c>
       <c r="B13" s="87" t="s">
         <v>1027</v>
@@ -22378,7 +24502,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="87" t="s">
-        <v>1848</v>
+        <v>1845</v>
       </c>
       <c r="B16" s="87" t="s">
         <v>1044</v>
@@ -22395,7 +24519,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="87" t="s">
-        <v>1844</v>
+        <v>1841</v>
       </c>
       <c r="B17" s="87" t="s">
         <v>1044</v>
@@ -22426,7 +24550,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="87" t="s">
-        <v>1847</v>
+        <v>1844</v>
       </c>
       <c r="B19" s="87" t="s">
         <v>1044</v>
@@ -22457,7 +24581,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="87" t="s">
-        <v>1849</v>
+        <v>1846</v>
       </c>
       <c r="B21" s="87" t="s">
         <v>1000</v>
@@ -22502,7 +24626,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="87" t="s">
-        <v>1845</v>
+        <v>1842</v>
       </c>
       <c r="B24" s="87" t="s">
         <v>1000</v>
@@ -22575,7 +24699,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="87" t="s">
-        <v>1846</v>
+        <v>1843</v>
       </c>
       <c r="B29" s="87" t="s">
         <v>990</v>
@@ -23595,7 +25719,7 @@
         <v>964</v>
       </c>
       <c r="B101" s="161" t="s">
-        <v>1852</v>
+        <v>1849</v>
       </c>
       <c r="C101" s="82" t="s">
         <v>964</v>
@@ -23609,7 +25733,7 @@
         <v>1220</v>
       </c>
       <c r="B102" s="161" t="s">
-        <v>1852</v>
+        <v>1849</v>
       </c>
       <c r="C102" s="82" t="s">
         <v>1220</v>
@@ -23623,7 +25747,7 @@
         <v>1219</v>
       </c>
       <c r="B103" s="161" t="s">
-        <v>1852</v>
+        <v>1849</v>
       </c>
       <c r="C103" s="82" t="s">
         <v>1219</v>
@@ -23637,7 +25761,7 @@
         <v>108</v>
       </c>
       <c r="B104" s="161" t="s">
-        <v>1852</v>
+        <v>1849</v>
       </c>
       <c r="C104" s="82" t="s">
         <v>108</v>
@@ -23651,7 +25775,7 @@
         <v>1218</v>
       </c>
       <c r="B105" s="161" t="s">
-        <v>1852</v>
+        <v>1849</v>
       </c>
       <c r="C105" s="82" t="s">
         <v>1218</v>
@@ -23777,7 +25901,7 @@
         <v>1761</v>
       </c>
       <c r="B114" s="161" t="s">
-        <v>1853</v>
+        <v>1850</v>
       </c>
       <c r="C114" s="82" t="s">
         <v>1761</v>
@@ -23791,7 +25915,7 @@
         <v>1762</v>
       </c>
       <c r="B115" s="161" t="s">
-        <v>1853</v>
+        <v>1850</v>
       </c>
       <c r="C115" s="82" t="s">
         <v>1762</v>
@@ -23805,7 +25929,7 @@
         <v>1763</v>
       </c>
       <c r="B116" s="161" t="s">
-        <v>1853</v>
+        <v>1850</v>
       </c>
       <c r="C116" s="82" t="s">
         <v>1763</v>
@@ -23819,7 +25943,7 @@
         <v>1765</v>
       </c>
       <c r="B117" s="161" t="s">
-        <v>1853</v>
+        <v>1850</v>
       </c>
       <c r="C117" s="82" t="s">
         <v>1765</v>
@@ -23833,7 +25957,7 @@
         <v>1766</v>
       </c>
       <c r="B118" s="161" t="s">
-        <v>1853</v>
+        <v>1850</v>
       </c>
       <c r="C118" s="82" t="s">
         <v>1766</v>
@@ -23847,7 +25971,7 @@
         <v>1767</v>
       </c>
       <c r="B119" s="161" t="s">
-        <v>1853</v>
+        <v>1850</v>
       </c>
       <c r="C119" s="82" t="s">
         <v>1767</v>
@@ -23856,62 +25980,4357 @@
         <v>1767</v>
       </c>
     </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="157" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B120" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C120" s="168" t="s">
+        <v>2252</v>
+      </c>
+      <c r="D120" s="82"/>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="157" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B121" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C121" s="168" t="s">
+        <v>2253</v>
+      </c>
+      <c r="D121" s="82"/>
+    </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="151" t="s">
+      <c r="A122" s="157" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B122" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C122" s="168" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D122" s="82"/>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="157" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B123" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C123" s="168" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D123" s="82"/>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="157" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B124" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C124" s="143" t="s">
+        <v>2256</v>
+      </c>
+      <c r="D124" s="82"/>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="157" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B125" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C125" s="143" t="s">
+        <v>2257</v>
+      </c>
+      <c r="D125" s="82"/>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="157" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B126" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C126" s="169" t="s">
+        <v>2258</v>
+      </c>
+      <c r="D126" s="82"/>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="157" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B127" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C127" s="169" t="s">
+        <v>2259</v>
+      </c>
+      <c r="D127" s="82"/>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="157" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B128" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C128" s="168" t="s">
+        <v>2260</v>
+      </c>
+      <c r="D128" s="82"/>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="157" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B129" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C129" s="168" t="s">
+        <v>2261</v>
+      </c>
+      <c r="D129" s="82"/>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="157" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B130" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C130" s="168" t="s">
+        <v>2262</v>
+      </c>
+      <c r="D130" s="82"/>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="157" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B131" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C131" s="168" t="s">
+        <v>2263</v>
+      </c>
+      <c r="D131" s="82"/>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="157" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B132" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C132" s="143" t="s">
+        <v>2264</v>
+      </c>
+      <c r="D132" s="82"/>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="157" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B133" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C133" s="143" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D133" s="82"/>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="157" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B134" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C134" s="168" t="s">
+        <v>2266</v>
+      </c>
+      <c r="D134" s="82"/>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="157" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B135" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C135" s="143" t="s">
+        <v>2267</v>
+      </c>
+      <c r="D135" s="82"/>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="157" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B136" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C136" s="143" t="s">
+        <v>2268</v>
+      </c>
+      <c r="D136" s="82"/>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="157" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B137" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C137" s="143" t="s">
+        <v>2269</v>
+      </c>
+      <c r="D137" s="82"/>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="157" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B138" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C138" s="169" t="s">
+        <v>2270</v>
+      </c>
+      <c r="D138" s="82"/>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="157" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B139" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C139" s="168" t="s">
+        <v>2271</v>
+      </c>
+      <c r="D139" s="82"/>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="157" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B140" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C140" s="143" t="s">
+        <v>2272</v>
+      </c>
+      <c r="D140" s="82"/>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="157" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B141" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C141" s="143" t="s">
+        <v>2273</v>
+      </c>
+      <c r="D141" s="82"/>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="157" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B142" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C142" s="169" t="s">
+        <v>2274</v>
+      </c>
+      <c r="D142" s="82"/>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="157" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B143" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C143" s="168" t="s">
+        <v>2275</v>
+      </c>
+      <c r="D143" s="82"/>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="157" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B144" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C144" s="169" t="s">
+        <v>2276</v>
+      </c>
+      <c r="D144" s="82"/>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="157" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B145" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C145" s="169" t="s">
+        <v>2277</v>
+      </c>
+      <c r="D145" s="82"/>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="157" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B146" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C146" s="169" t="s">
+        <v>2278</v>
+      </c>
+      <c r="D146" s="82"/>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="157" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B147" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C147" s="169" t="s">
+        <v>2279</v>
+      </c>
+      <c r="D147" s="82"/>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="157" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B148" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C148" s="168" t="s">
+        <v>2280</v>
+      </c>
+      <c r="D148" s="82"/>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="157" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B149" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C149" s="143" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D149" s="82"/>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="157" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B150" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C150" s="168" t="s">
+        <v>2282</v>
+      </c>
+      <c r="D150" s="82"/>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="157" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B151" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C151" s="143" t="s">
+        <v>2283</v>
+      </c>
+      <c r="D151" s="82"/>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="157" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B152" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C152" s="143" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D152" s="82"/>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="157" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B153" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C153" s="168" t="s">
+        <v>2285</v>
+      </c>
+      <c r="D153" s="82"/>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="157" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B154" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C154" s="169" t="s">
+        <v>2286</v>
+      </c>
+      <c r="D154" s="82"/>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="157" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B155" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C155" s="143" t="s">
+        <v>2287</v>
+      </c>
+      <c r="D155" s="82"/>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="157" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B156" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C156" s="143" t="s">
+        <v>2288</v>
+      </c>
+      <c r="D156" s="82"/>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="157" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B157" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C157" s="168" t="s">
+        <v>2289</v>
+      </c>
+      <c r="D157" s="82"/>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="157" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B158" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C158" s="170" t="s">
+        <v>2290</v>
+      </c>
+      <c r="D158" s="82"/>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="157" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B159" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C159" s="143" t="s">
+        <v>2291</v>
+      </c>
+      <c r="D159" s="82"/>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="157" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B160" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C160" s="143" t="s">
+        <v>2292</v>
+      </c>
+      <c r="D160" s="82"/>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="157" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B161" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C161" s="143" t="s">
+        <v>2293</v>
+      </c>
+      <c r="D161" s="82"/>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="157" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B162" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C162" s="143" t="s">
+        <v>2294</v>
+      </c>
+      <c r="D162" s="82"/>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="157" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B163" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C163" s="169" t="s">
+        <v>2295</v>
+      </c>
+      <c r="D163" s="82"/>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="157" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B164" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C164" s="168" t="s">
+        <v>2296</v>
+      </c>
+      <c r="D164" s="82"/>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="157" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B165" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C165" s="143" t="s">
+        <v>2297</v>
+      </c>
+      <c r="D165" s="82"/>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="157" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B166" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C166" s="143" t="s">
+        <v>2298</v>
+      </c>
+      <c r="D166" s="82"/>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="157" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B167" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C167" s="143" t="s">
+        <v>2299</v>
+      </c>
+      <c r="D167" s="82"/>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="157" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B168" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C168" s="169" t="s">
+        <v>2300</v>
+      </c>
+      <c r="D168" s="82"/>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="157" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B169" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C169" s="169" t="s">
+        <v>2300</v>
+      </c>
+      <c r="D169" s="82"/>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="157" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B170" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C170" s="143" t="s">
+        <v>2301</v>
+      </c>
+      <c r="D170" s="82"/>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="157" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B171" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C171" s="143" t="s">
+        <v>2302</v>
+      </c>
+      <c r="D171" s="82"/>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="157" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B172" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C172" s="143" t="s">
+        <v>2303</v>
+      </c>
+      <c r="D172" s="82"/>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="157" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B173" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C173" s="143" t="s">
+        <v>2304</v>
+      </c>
+      <c r="D173" s="82"/>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="157" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B174" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C174" s="143" t="s">
+        <v>2305</v>
+      </c>
+      <c r="D174" s="82"/>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="157" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B175" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C175" s="143" t="s">
+        <v>2306</v>
+      </c>
+      <c r="D175" s="82"/>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="157" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B176" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C176" s="168" t="s">
+        <v>2307</v>
+      </c>
+      <c r="D176" s="82"/>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="157" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B177" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C177" s="168" t="s">
+        <v>2308</v>
+      </c>
+      <c r="D177" s="82"/>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="157" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B178" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C178" s="143" t="s">
+        <v>2309</v>
+      </c>
+      <c r="D178" s="82"/>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="157" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B179" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C179" s="143" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D179" s="82"/>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="157" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B180" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C180" s="143" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D180" s="82"/>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="157" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B181" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C181" s="168" t="s">
+        <v>2312</v>
+      </c>
+      <c r="D181" s="82"/>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="157" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B182" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C182" s="143" t="s">
+        <v>2313</v>
+      </c>
+      <c r="D182" s="82"/>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="157" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B183" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C183" s="143" t="s">
+        <v>2314</v>
+      </c>
+      <c r="D183" s="82"/>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="157" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B184" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C184" s="143" t="s">
+        <v>2315</v>
+      </c>
+      <c r="D184" s="82"/>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="157" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B185" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C185" s="143" t="s">
+        <v>2316</v>
+      </c>
+      <c r="D185" s="82"/>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="157" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B186" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C186" s="168" t="s">
+        <v>2317</v>
+      </c>
+      <c r="D186" s="82"/>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="157" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B187" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C187" s="168" t="s">
+        <v>2318</v>
+      </c>
+      <c r="D187" s="82"/>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="157" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B188" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C188" s="143" t="s">
+        <v>2319</v>
+      </c>
+      <c r="D188" s="82"/>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="157" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B189" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C189" s="143" t="s">
+        <v>2320</v>
+      </c>
+      <c r="D189" s="82"/>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="157" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B190" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C190" s="168" t="s">
+        <v>2321</v>
+      </c>
+      <c r="D190" s="82"/>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="157" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B191" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C191" s="143" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D191" s="82"/>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="157" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B192" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C192" s="168" t="s">
+        <v>2323</v>
+      </c>
+      <c r="D192" s="82"/>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="157" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B193" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C193" s="168" t="s">
+        <v>2324</v>
+      </c>
+      <c r="D193" s="82"/>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="157" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B194" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C194" s="169" t="s">
+        <v>2325</v>
+      </c>
+      <c r="D194" s="82"/>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="157" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B195" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C195" s="169" t="s">
+        <v>2326</v>
+      </c>
+      <c r="D195" s="82"/>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="157" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B196" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C196" s="169" t="s">
+        <v>2327</v>
+      </c>
+      <c r="D196" s="82"/>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="157" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B197" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C197" s="143" t="s">
+        <v>2328</v>
+      </c>
+      <c r="D197" s="82"/>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="157" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B198" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C198" s="143" t="s">
+        <v>2329</v>
+      </c>
+      <c r="D198" s="82"/>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="157" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B199" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C199" s="169" t="s">
+        <v>2330</v>
+      </c>
+      <c r="D199" s="82"/>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="157" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B200" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C200" s="169" t="s">
+        <v>2331</v>
+      </c>
+      <c r="D200" s="82"/>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="157" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B201" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C201" s="169" t="s">
+        <v>2332</v>
+      </c>
+      <c r="D201" s="82"/>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="157" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B202" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C202" s="143" t="s">
+        <v>2333</v>
+      </c>
+      <c r="D202" s="82"/>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="157" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B203" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C203" s="168" t="s">
+        <v>2334</v>
+      </c>
+      <c r="D203" s="82"/>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="157" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B204" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C204" s="143" t="s">
+        <v>2335</v>
+      </c>
+      <c r="D204" s="82"/>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="157" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B205" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C205" s="143" t="s">
+        <v>2336</v>
+      </c>
+      <c r="D205" s="82"/>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="157" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B206" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C206" s="168" t="s">
+        <v>2337</v>
+      </c>
+      <c r="D206" s="82"/>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="157" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B207" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C207" s="168" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D207" s="82"/>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="157" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B208" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C208" s="143" t="s">
+        <v>2339</v>
+      </c>
+      <c r="D208" s="82"/>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="157" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B209" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C209" s="143" t="s">
+        <v>2340</v>
+      </c>
+      <c r="D209" s="82"/>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="157" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B210" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C210" s="169" t="s">
+        <v>2341</v>
+      </c>
+      <c r="D210" s="82"/>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="157" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B211" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C211" s="143" t="s">
+        <v>2342</v>
+      </c>
+      <c r="D211" s="82"/>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="157" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B212" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C212" s="143" t="s">
+        <v>2343</v>
+      </c>
+      <c r="D212" s="82"/>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="157" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B213" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C213" s="143" t="s">
+        <v>2344</v>
+      </c>
+      <c r="D213" s="82"/>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="157" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B214" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C214" s="143" t="s">
+        <v>2345</v>
+      </c>
+      <c r="D214" s="82"/>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="157" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B215" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C215" s="143" t="s">
+        <v>2346</v>
+      </c>
+      <c r="D215" s="82"/>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="157" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B216" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C216" s="168" t="s">
+        <v>2347</v>
+      </c>
+      <c r="D216" s="82"/>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="157" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B217" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C217" s="143" t="s">
+        <v>2348</v>
+      </c>
+      <c r="D217" s="82"/>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="157" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B218" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C218" s="169" t="s">
+        <v>2349</v>
+      </c>
+      <c r="D218" s="82"/>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="157" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B219" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C219" s="169" t="s">
+        <v>2350</v>
+      </c>
+      <c r="D219" s="82"/>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="157" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B220" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C220" s="168" t="s">
+        <v>2351</v>
+      </c>
+      <c r="D220" s="82"/>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="157" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B221" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C221" s="143" t="s">
+        <v>2352</v>
+      </c>
+      <c r="D221" s="82"/>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="157" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B222" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C222" s="143" t="s">
+        <v>2353</v>
+      </c>
+      <c r="D222" s="82"/>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="157" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B223" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C223" s="168" t="s">
+        <v>2354</v>
+      </c>
+      <c r="D223" s="82"/>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="157" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B224" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C224" s="143" t="s">
+        <v>2355</v>
+      </c>
+      <c r="D224" s="82"/>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="157" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B225" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C225" s="143" t="s">
+        <v>2356</v>
+      </c>
+      <c r="D225" s="82"/>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="157" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B226" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C226" s="169" t="s">
+        <v>2357</v>
+      </c>
+      <c r="D226" s="82"/>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="157" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B227" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C227" s="169" t="s">
+        <v>2358</v>
+      </c>
+      <c r="D227" s="82"/>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="157" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B228" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C228" s="143" t="s">
+        <v>2359</v>
+      </c>
+      <c r="D228" s="82"/>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="157" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B229" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C229" s="143" t="s">
+        <v>2360</v>
+      </c>
+      <c r="D229" s="82"/>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="157" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B230" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C230" s="143" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D230" s="82"/>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="157" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B231" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C231" s="168" t="s">
+        <v>2362</v>
+      </c>
+      <c r="D231" s="82"/>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="157" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B232" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C232" s="143" t="s">
+        <v>2363</v>
+      </c>
+      <c r="D232" s="82"/>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="157" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B233" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C233" s="143" t="s">
+        <v>2364</v>
+      </c>
+      <c r="D233" s="82"/>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="157" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B234" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C234" s="168" t="s">
+        <v>2365</v>
+      </c>
+      <c r="D234" s="82"/>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="157" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B235" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C235" s="143" t="s">
+        <v>2366</v>
+      </c>
+      <c r="D235" s="82"/>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="157" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B236" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C236" s="168" t="s">
+        <v>2367</v>
+      </c>
+      <c r="D236" s="82"/>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="157" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B237" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C237" s="143" t="s">
+        <v>2368</v>
+      </c>
+      <c r="D237" s="82"/>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="157" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B238" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C238" s="168" t="s">
+        <v>2369</v>
+      </c>
+      <c r="D238" s="82"/>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="157" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B239" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C239" s="143" t="s">
+        <v>2370</v>
+      </c>
+      <c r="D239" s="82"/>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="157" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B240" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C240" s="168" t="s">
+        <v>2371</v>
+      </c>
+      <c r="D240" s="82"/>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="157" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B241" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C241" s="168" t="s">
+        <v>2372</v>
+      </c>
+      <c r="D241" s="82"/>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="157" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B242" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C242" s="169" t="s">
+        <v>2373</v>
+      </c>
+      <c r="D242" s="82"/>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="157" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B243" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C243" s="169" t="s">
+        <v>2374</v>
+      </c>
+      <c r="D243" s="82"/>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="157" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B244" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C244" s="169" t="s">
+        <v>2375</v>
+      </c>
+      <c r="D244" s="82"/>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="157" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B245" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C245" s="143" t="s">
+        <v>2376</v>
+      </c>
+      <c r="D245" s="82"/>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="157" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B246" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C246" s="143" t="s">
+        <v>2377</v>
+      </c>
+      <c r="D246" s="82"/>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="157" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B247" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C247" s="143" t="s">
+        <v>2378</v>
+      </c>
+      <c r="D247" s="82"/>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="157" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B248" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C248" s="143" t="s">
+        <v>2379</v>
+      </c>
+      <c r="D248" s="82"/>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="157" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B249" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C249" s="143" t="s">
+        <v>2380</v>
+      </c>
+      <c r="D249" s="82"/>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="157" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B250" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C250" s="143" t="s">
+        <v>2381</v>
+      </c>
+      <c r="D250" s="82"/>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="157" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B251" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C251" s="143" t="s">
+        <v>2382</v>
+      </c>
+      <c r="D251" s="82"/>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="157" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B252" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C252" s="143" t="s">
+        <v>2383</v>
+      </c>
+      <c r="D252" s="82"/>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="157" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B253" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C253" s="143" t="s">
+        <v>2384</v>
+      </c>
+      <c r="D253" s="82"/>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="157" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B254" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C254" s="143" t="s">
+        <v>2385</v>
+      </c>
+      <c r="D254" s="82"/>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="157" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B255" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C255" s="168" t="s">
+        <v>2386</v>
+      </c>
+      <c r="D255" s="82"/>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="157" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B256" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C256" s="168" t="s">
+        <v>2387</v>
+      </c>
+      <c r="D256" s="82"/>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="157" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B257" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C257" s="168" t="s">
+        <v>2388</v>
+      </c>
+      <c r="D257" s="82"/>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="157" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B258" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C258" s="143" t="s">
+        <v>2389</v>
+      </c>
+      <c r="D258" s="82"/>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="157" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B259" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C259" s="143" t="s">
+        <v>2390</v>
+      </c>
+      <c r="D259" s="82"/>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="157" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B260" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C260" s="168" t="s">
+        <v>2391</v>
+      </c>
+      <c r="D260" s="82"/>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="157" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B261" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C261" s="143" t="s">
+        <v>2392</v>
+      </c>
+      <c r="D261" s="82"/>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="157" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B262" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C262" s="143" t="s">
+        <v>2393</v>
+      </c>
+      <c r="D262" s="82"/>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="157" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B263" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C263" s="168" t="s">
+        <v>2394</v>
+      </c>
+      <c r="D263" s="82"/>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="157" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B264" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C264" s="143" t="s">
+        <v>2395</v>
+      </c>
+      <c r="D264" s="82"/>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="157" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B265" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C265" s="143" t="s">
+        <v>2396</v>
+      </c>
+      <c r="D265" s="82"/>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="157" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B266" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C266" s="143" t="s">
+        <v>2397</v>
+      </c>
+      <c r="D266" s="82"/>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="157" t="s">
+        <v>2069</v>
+      </c>
+      <c r="B267" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C267" s="168" t="s">
+        <v>2398</v>
+      </c>
+      <c r="D267" s="82"/>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="157" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B268" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C268" s="169" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D268" s="82"/>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="157" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B269" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C269" s="143" t="s">
+        <v>2400</v>
+      </c>
+      <c r="D269" s="82"/>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="157" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B270" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C270" s="169" t="s">
+        <v>2401</v>
+      </c>
+      <c r="D270" s="82"/>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="157" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B271" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C271" s="169" t="s">
+        <v>2402</v>
+      </c>
+      <c r="D271" s="82"/>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="157" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B272" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C272" s="169" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D272" s="82"/>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="157" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B273" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C273" s="143" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D273" s="82"/>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="157" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B274" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C274" s="169" t="s">
+        <v>2404</v>
+      </c>
+      <c r="D274" s="82"/>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="157" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B275" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C275" s="169" t="s">
+        <v>2405</v>
+      </c>
+      <c r="D275" s="82"/>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="157" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B276" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C276" s="143" t="s">
+        <v>2406</v>
+      </c>
+      <c r="D276" s="82"/>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="157" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B277" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C277" s="143" t="s">
+        <v>2407</v>
+      </c>
+      <c r="D277" s="82"/>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="157" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B278" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C278" s="143" t="s">
+        <v>2408</v>
+      </c>
+      <c r="D278" s="82"/>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="157" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B279" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C279" s="168" t="s">
+        <v>2409</v>
+      </c>
+      <c r="D279" s="82"/>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="157" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B280" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C280" s="143" t="s">
+        <v>2410</v>
+      </c>
+      <c r="D280" s="82"/>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="157" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B281" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C281" s="168" t="s">
+        <v>2411</v>
+      </c>
+      <c r="D281" s="82"/>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="157" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B282" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C282" s="169" t="s">
+        <v>2412</v>
+      </c>
+      <c r="D282" s="82"/>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="157" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B283" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C283" s="169" t="s">
+        <v>2413</v>
+      </c>
+      <c r="D283" s="82"/>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="157" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B284" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C284" s="169" t="s">
+        <v>2414</v>
+      </c>
+      <c r="D284" s="82"/>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="157" t="s">
+        <v>2082</v>
+      </c>
+      <c r="B285" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C285" s="143" t="s">
+        <v>2415</v>
+      </c>
+      <c r="D285" s="82"/>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="157" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B286" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C286" s="143" t="s">
+        <v>2416</v>
+      </c>
+      <c r="D286" s="82"/>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="157" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B287" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C287" s="169" t="s">
+        <v>2417</v>
+      </c>
+      <c r="D287" s="82"/>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="157" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B288" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C288" s="169" t="s">
+        <v>2418</v>
+      </c>
+      <c r="D288" s="82"/>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="157" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B289" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C289" s="143" t="s">
+        <v>2419</v>
+      </c>
+      <c r="D289" s="82"/>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="157" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B290" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C290" s="169" t="s">
+        <v>2420</v>
+      </c>
+      <c r="D290" s="82"/>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="157" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B291" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C291" s="169" t="s">
+        <v>2421</v>
+      </c>
+      <c r="D291" s="82"/>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="157" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B292" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C292" s="169" t="s">
+        <v>2422</v>
+      </c>
+      <c r="D292" s="82"/>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="157" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B293" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C293" s="169" t="s">
+        <v>2423</v>
+      </c>
+      <c r="D293" s="82"/>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="157" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B294" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C294" s="143" t="s">
+        <v>2424</v>
+      </c>
+      <c r="D294" s="82"/>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="157" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B295" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C295" s="143" t="s">
+        <v>2425</v>
+      </c>
+      <c r="D295" s="82"/>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="157" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B296" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C296" s="169" t="s">
+        <v>2426</v>
+      </c>
+      <c r="D296" s="82"/>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="157" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B297" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C297" s="143" t="s">
+        <v>2427</v>
+      </c>
+      <c r="D297" s="82"/>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="157" t="s">
+        <v>2091</v>
+      </c>
+      <c r="B298" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C298" s="168" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D298" s="82"/>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="157" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B299" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C299" s="143" t="s">
+        <v>2429</v>
+      </c>
+      <c r="D299" s="82"/>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="157" t="s">
+        <v>2093</v>
+      </c>
+      <c r="B300" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C300" s="143" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D300" s="82"/>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="157" t="s">
+        <v>2093</v>
+      </c>
+      <c r="B301" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C301" s="168" t="s">
+        <v>2431</v>
+      </c>
+      <c r="D301" s="82"/>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="157" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B302" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C302" s="143" t="s">
+        <v>2432</v>
+      </c>
+      <c r="D302" s="82"/>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="157" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B303" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C303" s="143" t="s">
+        <v>2433</v>
+      </c>
+      <c r="D303" s="82"/>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="157" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B304" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C304" s="143" t="s">
+        <v>2434</v>
+      </c>
+      <c r="D304" s="82"/>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" s="157" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B305" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C305" s="168" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D305" s="82"/>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" s="157" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B306" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C306" s="169" t="s">
+        <v>2436</v>
+      </c>
+      <c r="D306" s="82"/>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" s="157" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B307" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C307" s="169" t="s">
+        <v>2437</v>
+      </c>
+      <c r="D307" s="82"/>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" s="157" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B308" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C308" s="143" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D308" s="82"/>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" s="157" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B309" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C309" s="143" t="s">
+        <v>2439</v>
+      </c>
+      <c r="D309" s="82"/>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" s="157" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B310" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C310" s="169" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D310" s="82"/>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" s="157" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B311" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C311" s="169" t="s">
+        <v>2441</v>
+      </c>
+      <c r="D311" s="82"/>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" s="87" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B312" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C312" s="143" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" s="87" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B313" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C313" s="143" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="87" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B314" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C314" s="143" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" s="87" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B315" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C315" s="143" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" s="87" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B316" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C316" s="143" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="87" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B317" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C317" s="143" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="87" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B318" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C318" s="143" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="87" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B319" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C319" s="143" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="87" t="s">
+        <v>2108</v>
+      </c>
+      <c r="B320" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C320" s="143" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="86" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B321" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C321" s="169" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="87" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B322" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C322" s="169" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="87" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B323" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C323" s="143" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="87" t="s">
+        <v>2111</v>
+      </c>
+      <c r="B324" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C324" s="143" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="87" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B325" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C325" s="168" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="87" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B326" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C326" s="143" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="87" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B327" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C327" s="143" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="87" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B328" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C328" s="168" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="87" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B329" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C329" s="168" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="87" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B330" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C330" s="143" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="87" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B331" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C331" s="169" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="87" t="s">
+        <v>2116</v>
+      </c>
+      <c r="B332" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C332" s="143" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="87" t="s">
+        <v>2117</v>
+      </c>
+      <c r="B333" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C333" s="168" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="87" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B334" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C334" s="168" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="87" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B335" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C335" s="169" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="87" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B336" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C336" s="169" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="87" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B337" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C337" s="168" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="87" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B338" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C338" s="168" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="87" t="s">
+        <v>2122</v>
+      </c>
+      <c r="B339" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C339" s="168" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="87" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B340" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C340" s="168" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="87" t="s">
+        <v>2124</v>
+      </c>
+      <c r="B341" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C341" s="143" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="87" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B342" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C342" s="143" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="87" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B343" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C343" s="143" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="87" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B344" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C344" s="143" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="87" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B345" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C345" s="169" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="87" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B346" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C346" s="143" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="87" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B347" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C347" s="143" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="87" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B348" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C348" s="170" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="87" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B349" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C349" s="143" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="87" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B350" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C350" s="143" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="87" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B351" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C351" s="143" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" s="87" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B352" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C352" s="143" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="87" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B353" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C353" s="168" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="87" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B354" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C354" s="143" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" s="87" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B355" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C355" s="143" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" s="87" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B356" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C356" s="143" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" s="87" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B357" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C357" s="168" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" s="87" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B358" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C358" s="169" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" s="87" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B359" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C359" s="169" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" s="87" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B360" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C360" s="169" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" s="87" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B361" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C361" s="169" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" s="87" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B362" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C362" s="169" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" s="87" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B363" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C363" s="168" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" s="87" t="s">
+        <v>2141</v>
+      </c>
+      <c r="B364" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C364" s="169" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" s="87" t="s">
+        <v>2141</v>
+      </c>
+      <c r="B365" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C365" s="169" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" s="87" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B366" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C366" s="169" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" s="87" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B367" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C367" s="143" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" s="87" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B368" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C368" s="169" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" s="87" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B369" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C369" s="168" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" s="87" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B370" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C370" s="143" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" s="87" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B371" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C371" s="168" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" s="87" t="s">
+        <v>2146</v>
+      </c>
+      <c r="B372" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C372" s="143" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" s="87" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B373" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C373" s="143" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" s="87" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B374" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C374" s="168" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" s="87" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B375" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C375" s="143" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" s="87" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B376" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C376" s="169" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" s="87" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B377" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C377" s="169" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" s="87" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B378" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C378" s="143" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" s="87" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B379" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C379" s="143" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" s="87" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B380" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C380" s="169" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" s="87" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B381" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C381" s="169" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" s="87" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B382" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C382" s="169" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" s="87" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B383" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C383" s="168" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" s="87" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B384" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C384" s="168" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" s="87" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B385" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C385" s="169" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" s="87" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B386" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C386" s="169" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" s="87" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B387" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C387" s="169" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" s="87" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B388" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C388" s="169" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" s="87" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B389" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C389" s="168" t="s">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" s="87" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B390" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C390" s="168" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" s="87" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B391" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C391" s="168" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" s="87" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B392" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C392" s="143" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" s="87" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B393" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C393" s="143" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" s="87" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B394" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C394" s="143" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" s="87" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B395" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C395" s="143" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" s="87" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B396" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C396" s="143" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" s="87" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B397" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C397" s="143" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" s="87" t="s">
+        <v>2166</v>
+      </c>
+      <c r="B398" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C398" s="169" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" s="87" t="s">
+        <v>2166</v>
+      </c>
+      <c r="B399" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C399" s="169" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" s="87" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B400" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C400" s="168" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" s="87" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B401" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C401" s="168" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" s="87" t="s">
+        <v>2168</v>
+      </c>
+      <c r="B402" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C402" s="168" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" s="87" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B403" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C403" s="168" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" s="87" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B404" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C404" s="168" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" s="87" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B405" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C405" s="169" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" s="87" t="s">
+        <v>2171</v>
+      </c>
+      <c r="B406" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C406" s="168" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" s="87" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B407" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C407" s="168" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" s="87" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B408" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C408" s="168" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" s="87" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B409" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C409" s="168" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" s="87" t="s">
+        <v>2175</v>
+      </c>
+      <c r="B410" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C410" s="168" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" s="87" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B411" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C411" s="168" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" s="87" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B412" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C412" s="168" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" s="87" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B413" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C413" s="168" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" s="87" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B414" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C414" s="168" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" s="87" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B415" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C415" s="168" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" s="87" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B416" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C416" s="168" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" s="87" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B417" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C417" s="168" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" s="87" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B418" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C418" s="169" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" s="87" t="s">
+        <v>2183</v>
+      </c>
+      <c r="B419" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C419" s="168" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" s="87" t="s">
+        <v>2184</v>
+      </c>
+      <c r="B420" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C420" s="168" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" s="87" t="s">
+        <v>2185</v>
+      </c>
+      <c r="B421" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C421" s="168" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" s="87" t="s">
+        <v>2186</v>
+      </c>
+      <c r="B422" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C422" s="168" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" s="87" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B423" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C423" s="168" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" s="87" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B424" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C424" s="168" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" s="87" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B425" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C425" s="168" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" s="87" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B426" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C426" s="168" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" s="87" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B427" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C427" s="169" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" s="87" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B428" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C428" s="169" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" s="87" t="s">
+        <v>2192</v>
+      </c>
+      <c r="B429" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C429" s="168" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" s="87" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B430" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C430" s="169" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" s="87" t="s">
+        <v>2194</v>
+      </c>
+      <c r="B431" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C431" s="168" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" s="87" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B432" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C432" s="169" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" s="87" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B433" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C433" s="168" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" s="87" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B434" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C434" s="169" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" s="87" t="s">
+        <v>2197</v>
+      </c>
+      <c r="B435" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C435" s="168" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" s="87" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B436" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C436" s="168" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" s="87" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B437" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C437" s="168" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" s="87" t="s">
+        <v>2200</v>
+      </c>
+      <c r="B438" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C438" s="168" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" s="87" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B439" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C439" s="168" t="s">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" s="87" t="s">
+        <v>2202</v>
+      </c>
+      <c r="B440" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C440" s="168" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" s="87" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B441" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C441" s="168" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" s="87" t="s">
+        <v>2204</v>
+      </c>
+      <c r="B442" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C442" s="168" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" s="87" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B443" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C443" s="168" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" s="87" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B444" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C444" s="168" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" s="87" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B445" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C445" s="168" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" s="87" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B446" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C446" s="168" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" s="87" t="s">
+        <v>2208</v>
+      </c>
+      <c r="B447" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C447" s="168" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" s="87" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B448" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C448" s="168" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" s="87" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B449" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C449" s="169" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" s="87" t="s">
+        <v>2211</v>
+      </c>
+      <c r="B450" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C450" s="169" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" s="87" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B451" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C451" s="169" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" s="87" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B452" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C452" s="169" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" s="87" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B453" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C453" s="169" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" s="87" t="s">
+        <v>2215</v>
+      </c>
+      <c r="B454" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C454" s="169" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" s="87" t="s">
+        <v>2216</v>
+      </c>
+      <c r="B455" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C455" s="169" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" s="87" t="s">
+        <v>2217</v>
+      </c>
+      <c r="B456" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C456" s="169" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" s="87" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B457" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C457" s="169" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" s="87" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B458" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C458" s="169" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" s="87" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B459" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C459" s="169" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" s="87" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B460" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C460" s="169" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" s="87" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B461" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C461" s="169" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" s="87" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B462" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C462" s="169" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" s="87" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B463" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C463" s="143" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" s="87" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B464" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C464" s="169" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" s="87" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B465" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C465" s="169" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" s="87" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B466" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C466" s="169" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" s="87" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B467" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C467" s="169" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" s="87" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B468" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C468" s="169" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" s="87" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B469" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C469" s="169" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" s="87" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B470" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C470" s="169" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" s="87" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B471" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C471" s="169" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472" s="87" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B472" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C472" s="169" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" s="87" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B473" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C473" s="169" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" s="87" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B474" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C474" s="169" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" s="87" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B475" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C475" s="169" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" s="87" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B476" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C476" s="169" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" s="87" t="s">
+        <v>2237</v>
+      </c>
+      <c r="B477" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C477" s="169" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" s="87" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B478" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C478" s="169" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" s="87" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B479" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C479" s="169" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" s="87" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B480" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C480" s="169" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" s="87" t="s">
+        <v>2240</v>
+      </c>
+      <c r="B481" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C481" s="169" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" s="87" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B482" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C482" s="169" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483" s="87" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B483" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C483" s="169" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484" s="87" t="s">
+        <v>2243</v>
+      </c>
+      <c r="B484" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C484" s="169" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485" s="87" t="s">
+        <v>2244</v>
+      </c>
+      <c r="B485" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C485" s="169" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486" s="87" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B486" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C486" s="169" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487" s="87" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B487" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C487" s="169" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488" s="87" t="s">
+        <v>2247</v>
+      </c>
+      <c r="B488" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C488" s="169" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" s="87" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B489" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C489" s="169" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490" s="87" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B490" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C490" s="169" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" s="87" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B491" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C491" s="169" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492" s="87" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B492" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C492" s="169" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496" s="171" t="s">
         <v>1800</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="151" t="s">
+    <row r="497" spans="1:3">
+      <c r="A497" s="151" t="s">
         <v>1801</v>
       </c>
-      <c r="B123" s="87" t="s">
-        <v>1831</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="151" t="s">
+      <c r="B497" s="87" t="s">
+        <v>2622</v>
+      </c>
+      <c r="C497" s="106" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498" s="151" t="s">
         <v>1803</v>
       </c>
-      <c r="B124" s="87" t="s">
-        <v>1832</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="151" t="s">
+      <c r="B498" s="87" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499" s="151" t="s">
         <v>1804</v>
       </c>
-      <c r="B125" s="87" t="s">
+      <c r="B499" s="87" t="s">
         <v>1807</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="151" t="s">
+    <row r="500" spans="1:3">
+      <c r="A500" s="151" t="s">
         <v>1806</v>
       </c>
-      <c r="B126" s="87" t="s">
+      <c r="B500" s="87" t="s">
         <v>1809</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="151" t="s">
+    <row r="501" spans="1:3">
+      <c r="A501" s="151" t="s">
         <v>1806</v>
       </c>
-      <c r="B127" s="87" t="s">
+      <c r="B501" s="87" t="s">
         <v>1825</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="151"/>
-    </row>
-    <row r="129" spans="2:2">
-      <c r="B129" s="86" t="s">
+    <row r="503" spans="1:3">
+      <c r="B503" s="87" t="s">
         <v>1823</v>
       </c>
     </row>
-    <row r="130" spans="2:2">
-      <c r="B130" s="87" t="s">
-        <v>1833</v>
+    <row r="504" spans="1:3">
+      <c r="B504" s="87" t="s">
+        <v>2624</v>
       </c>
     </row>
   </sheetData>
@@ -23950,24 +30369,24 @@
   <sheetData>
     <row r="1" spans="1:5" s="83" customFormat="1">
       <c r="A1" s="83" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="B1" s="83" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="C1" s="83" t="s">
-        <v>1919</v>
+        <v>1916</v>
       </c>
       <c r="D1" s="83" t="s">
-        <v>1920</v>
+        <v>1917</v>
       </c>
       <c r="E1" s="83" t="s">
-        <v>1914</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>1868</v>
+        <v>1865</v>
       </c>
       <c r="B2" t="s">
         <v>544</v>
@@ -23981,7 +30400,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>1885</v>
+        <v>1882</v>
       </c>
       <c r="B3" t="s">
         <v>532</v>
@@ -23995,7 +30414,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>1881</v>
+        <v>1878</v>
       </c>
       <c r="B4" t="s">
         <v>535</v>
@@ -24023,7 +30442,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>1882</v>
+        <v>1879</v>
       </c>
       <c r="B6" t="s">
         <v>540</v>
@@ -24107,7 +30526,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
       <c r="B12" t="s">
         <v>555</v>
@@ -24121,7 +30540,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>1897</v>
+        <v>1894</v>
       </c>
       <c r="B13" t="s">
         <v>556</v>
@@ -24135,7 +30554,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
       <c r="B14" t="s">
         <v>557</v>
@@ -24149,7 +30568,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>1899</v>
+        <v>1896</v>
       </c>
       <c r="B15" t="s">
         <v>560</v>
@@ -24163,7 +30582,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>1911</v>
+        <v>1908</v>
       </c>
       <c r="B16" t="s">
         <v>562</v>
@@ -24191,7 +30610,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>1884</v>
+        <v>1881</v>
       </c>
       <c r="B18" t="s">
         <v>566</v>
@@ -24205,7 +30624,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>1878</v>
+        <v>1875</v>
       </c>
       <c r="B19" t="s">
         <v>567</v>
@@ -24219,7 +30638,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>1880</v>
+        <v>1877</v>
       </c>
       <c r="B20" t="s">
         <v>568</v>
@@ -24233,7 +30652,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>1879</v>
+        <v>1876</v>
       </c>
       <c r="B21" t="s">
         <v>569</v>
@@ -24600,7 +31019,7 @@
         <v>179</v>
       </c>
       <c r="B47" t="s">
-        <v>1901</v>
+        <v>1898</v>
       </c>
       <c r="C47" s="143" t="s">
         <v>722</v>
@@ -24684,7 +31103,7 @@
         <v>177</v>
       </c>
       <c r="B53" t="s">
-        <v>1900</v>
+        <v>1897</v>
       </c>
       <c r="C53" s="143" t="s">
         <v>727</v>
@@ -24877,7 +31296,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>1877</v>
+        <v>1874</v>
       </c>
       <c r="B67" t="s">
         <v>406</v>
@@ -24934,7 +31353,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>1874</v>
+        <v>1871</v>
       </c>
       <c r="B71" t="s">
         <v>359</v>
@@ -24948,7 +31367,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="B72" t="s">
         <v>460</v>
@@ -24962,7 +31381,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="143" t="s">
-        <v>1873</v>
+        <v>1870</v>
       </c>
       <c r="B73" s="143" t="s">
         <v>375</v>
@@ -24976,7 +31395,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="143" t="s">
-        <v>1875</v>
+        <v>1872</v>
       </c>
       <c r="B74" s="143" t="s">
         <v>376</v>
@@ -25033,7 +31452,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>1910</v>
+        <v>1907</v>
       </c>
       <c r="B78" t="s">
         <v>399</v>
@@ -25159,7 +31578,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="B87" t="s">
         <v>762</v>
@@ -25227,7 +31646,7 @@
         <v>1616</v>
       </c>
       <c r="E91" s="164" t="s">
-        <v>1916</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -25316,7 +31735,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>1892</v>
+        <v>1889</v>
       </c>
       <c r="B98" t="s">
         <v>802</v>
@@ -25325,7 +31744,7 @@
         <v>881</v>
       </c>
       <c r="D98" s="143" t="s">
-        <v>1850</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -25358,7 +31777,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="143" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="B101" s="143" t="s">
         <v>808</v>
@@ -25387,7 +31806,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>1871</v>
+        <v>1868</v>
       </c>
       <c r="B103" t="s">
         <v>813</v>
@@ -25543,7 +31962,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>1894</v>
+        <v>1891</v>
       </c>
       <c r="B114" t="s">
         <v>818</v>
@@ -25725,7 +32144,7 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="B127" t="s">
         <v>768</v>
@@ -25739,10 +32158,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>1866</v>
+        <v>1863</v>
       </c>
       <c r="B128" t="s">
-        <v>1867</v>
+        <v>1864</v>
       </c>
       <c r="C128" s="143" t="s">
         <v>913</v>
@@ -25767,7 +32186,7 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>1896</v>
+        <v>1893</v>
       </c>
       <c r="B130" t="s">
         <v>865</v>
@@ -25784,7 +32203,7 @@
         <v>1455</v>
       </c>
       <c r="B131" t="s">
-        <v>1883</v>
+        <v>1880</v>
       </c>
       <c r="C131" s="143" t="s">
         <v>916</v>
@@ -25823,7 +32242,7 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>1898</v>
+        <v>1895</v>
       </c>
       <c r="B134" t="s">
         <v>838</v>
@@ -25837,7 +32256,7 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>1876</v>
+        <v>1873</v>
       </c>
       <c r="B135" t="s">
         <v>779</v>
@@ -25860,12 +32279,12 @@
         <v>921</v>
       </c>
       <c r="D136" s="143" t="s">
-        <v>1852</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="B137" t="s">
         <v>777</v>
@@ -25879,7 +32298,7 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>1890</v>
+        <v>1887</v>
       </c>
       <c r="B138" t="s">
         <v>771</v>
@@ -25907,7 +32326,7 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="164" t="s">
-        <v>1893</v>
+        <v>1890</v>
       </c>
       <c r="B140" s="164" t="s">
         <v>766</v>
@@ -25919,7 +32338,7 @@
         <v>1226</v>
       </c>
       <c r="E140" s="164" t="s">
-        <v>1923</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -25980,13 +32399,13 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="145" t="s">
-        <v>1869</v>
+        <v>1866</v>
       </c>
       <c r="B145" s="145" t="s">
-        <v>1870</v>
+        <v>1867</v>
       </c>
       <c r="E145" t="s">
-        <v>1915</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -25997,7 +32416,7 @@
         <v>801</v>
       </c>
       <c r="E146" t="s">
-        <v>1913</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -26008,7 +32427,7 @@
         <v>847</v>
       </c>
       <c r="E147" t="s">
-        <v>1913</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -26016,32 +32435,32 @@
         <v>1489</v>
       </c>
       <c r="B148" s="145" t="s">
-        <v>1870</v>
+        <v>1867</v>
       </c>
       <c r="E148" t="s">
-        <v>1915</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="163" t="s">
-        <v>1886</v>
+        <v>1883</v>
       </c>
       <c r="B149" s="163" t="s">
-        <v>1887</v>
+        <v>1884</v>
       </c>
       <c r="E149" t="s">
-        <v>1912</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="163" t="s">
-        <v>1888</v>
+        <v>1885</v>
       </c>
       <c r="B150" s="163" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="E150" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -26049,23 +32468,23 @@
         <v>1497</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>1870</v>
+        <v>1867</v>
       </c>
       <c r="C151" s="13"/>
       <c r="E151" t="s">
-        <v>1915</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="13" t="s">
-        <v>1891</v>
+        <v>1888</v>
       </c>
       <c r="B152" s="13" t="s">
         <v>411</v>
       </c>
       <c r="C152" s="13"/>
       <c r="E152" t="s">
-        <v>1918</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -26076,51 +32495,51 @@
         <v>416</v>
       </c>
       <c r="E153" t="s">
-        <v>1921</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>1902</v>
+        <v>1899</v>
       </c>
       <c r="B154" t="s">
-        <v>1903</v>
+        <v>1900</v>
       </c>
       <c r="E154" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>1904</v>
+        <v>1901</v>
       </c>
       <c r="B155" t="s">
-        <v>1905</v>
+        <v>1902</v>
       </c>
       <c r="E155" t="s">
-        <v>1922</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>1906</v>
+        <v>1903</v>
       </c>
       <c r="B156" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="E156" t="s">
-        <v>1924</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>1908</v>
+        <v>1905</v>
       </c>
       <c r="B157" t="s">
-        <v>1909</v>
+        <v>1906</v>
       </c>
       <c r="E157" t="s">
-        <v>1922</v>
+        <v>1919</v>
       </c>
     </row>
   </sheetData>
@@ -38992,10 +45411,10 @@
         <v>1235</v>
       </c>
       <c r="L106" s="143" t="s">
-        <v>1841</v>
+        <v>1838</v>
       </c>
       <c r="M106" s="143" t="s">
-        <v>1841</v>
+        <v>1838</v>
       </c>
       <c r="N106" s="10" t="s">
         <v>316</v>
@@ -43601,7 +50020,7 @@
         <v>181</v>
       </c>
       <c r="I222" s="63" t="s">
-        <v>1842</v>
+        <v>1839</v>
       </c>
       <c r="J222" s="3" t="s">
         <v>197</v>
@@ -47421,7 +53840,7 @@
         <v>1235</v>
       </c>
       <c r="H106" s="143" t="s">
-        <v>1841</v>
+        <v>1838</v>
       </c>
       <c r="I106" s="10" t="s">
         <v>316</v>
@@ -50179,7 +56598,7 @@
         <v>181</v>
       </c>
       <c r="E222" s="63" t="s">
-        <v>1842</v>
+        <v>1839</v>
       </c>
       <c r="F222" s="3" t="s">
         <v>197</v>

--- a/Load/src/ontology/ICEMR/PRISM_metadata.xlsx
+++ b/Load/src/ontology/ICEMR/PRISM_metadata.xlsx
@@ -4,31 +4,32 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="24240" windowHeight="11595" tabRatio="922" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="24240" windowHeight="11595" tabRatio="922"/>
   </bookViews>
   <sheets>
     <sheet name="PRISM classes" sheetId="19" r:id="rId1"/>
     <sheet name="PRISM individuals" sheetId="20" r:id="rId2"/>
-    <sheet name="dataDictionary2display" sheetId="22" r:id="rId3"/>
-    <sheet name="Proposed Revision" sheetId="4" r:id="rId4"/>
-    <sheet name="Proposed Revision_ontology" sheetId="5" r:id="rId5"/>
-    <sheet name="Proposed Revision_ontology IRIs" sheetId="18" r:id="rId6"/>
-    <sheet name="PRISMCuratedRelationships" sheetId="8" r:id="rId7"/>
-    <sheet name="PRISMCuratedSynonyms" sheetId="11" r:id="rId8"/>
-    <sheet name="PRISMCuratedTerms" sheetId="12" r:id="rId9"/>
-    <sheet name="duplicate" sheetId="21" r:id="rId10"/>
+    <sheet name="hospital mapping" sheetId="23" r:id="rId3"/>
+    <sheet name="dataDictionary2display" sheetId="22" r:id="rId4"/>
+    <sheet name="Proposed Revision" sheetId="4" r:id="rId5"/>
+    <sheet name="Proposed Revision_ontology" sheetId="5" r:id="rId6"/>
+    <sheet name="Proposed Revision_ontology IRIs" sheetId="18" r:id="rId7"/>
+    <sheet name="PRISMCuratedRelationships" sheetId="8" r:id="rId8"/>
+    <sheet name="PRISMCuratedSynonyms" sheetId="11" r:id="rId9"/>
+    <sheet name="PRISMCuratedTerms" sheetId="12" r:id="rId10"/>
+    <sheet name="duplicate" sheetId="21" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Proposed Revision'!$A$3:$Y$194</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Proposed Revision_ontology'!$A$3:$T$271</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Proposed Revision_ontology IRIs'!$A$3:$K$278</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Proposed Revision'!$A$3:$Y$194</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Proposed Revision_ontology'!$A$3:$T$271</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Proposed Revision_ontology IRIs'!$A$3:$K$278</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13645" uniqueCount="2626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13681" uniqueCount="2644">
   <si>
     <t>abdominal pain</t>
   </si>
@@ -10683,6 +10684,60 @@
   </si>
   <si>
     <t>When IRI is not provided, the temporal term will be generated with assigned ID like TEMP_XXXXX. These terms also has corresponding ontology terms as Related Synonym listed in Column E</t>
+  </si>
+  <si>
+    <t>bwindi hospital</t>
+  </si>
+  <si>
+    <t>jinja hospital</t>
+  </si>
+  <si>
+    <t>kauka healthy centre</t>
+  </si>
+  <si>
+    <t>kihihi h c iv</t>
+  </si>
+  <si>
+    <t>kihihi h/c</t>
+  </si>
+  <si>
+    <t>kihihi h/c iv</t>
+  </si>
+  <si>
+    <t>kihihi hc</t>
+  </si>
+  <si>
+    <t>kihihi hc iv</t>
+  </si>
+  <si>
+    <t>kihihi health centre 1v</t>
+  </si>
+  <si>
+    <t>kihihi health centre iv</t>
+  </si>
+  <si>
+    <t>nagonera h/c iv</t>
+  </si>
+  <si>
+    <t>nagongera h/c iv</t>
+  </si>
+  <si>
+    <t>nagongera h/civ</t>
+  </si>
+  <si>
+    <t>nagongera hc iv</t>
+  </si>
+  <si>
+    <t>nagongera hciv</t>
+  </si>
+  <si>
+    <t>nagongera health centre iv</t>
+  </si>
+  <si>
+    <t>tdh</t>
+  </si>
+  <si>
+    <t>tororo hospital</t>
   </si>
 </sst>
 </file>
@@ -15602,7 +15657,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -15612,7 +15667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G298"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A134" sqref="A134"/>
     </sheetView>
@@ -19722,6 +19777,579 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="32.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" customWidth="1"/>
+    <col min="3" max="3" width="63.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C3" t="s">
+        <v>602</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1555</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1556</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>456</v>
+      </c>
+      <c r="B6" t="s">
+        <v>456</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1557</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>457</v>
+      </c>
+      <c r="B7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>455</v>
+      </c>
+      <c r="B8" t="s">
+        <v>455</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1559</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>331</v>
+      </c>
+      <c r="B9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C9" t="s">
+        <v>676</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>329</v>
+      </c>
+      <c r="B10" t="s">
+        <v>329</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>330</v>
+      </c>
+      <c r="B11" t="s">
+        <v>330</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>335</v>
+      </c>
+      <c r="B12" t="s">
+        <v>335</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>332</v>
+      </c>
+      <c r="B13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>333</v>
+      </c>
+      <c r="B14" t="s">
+        <v>333</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>334</v>
+      </c>
+      <c r="B15" t="s">
+        <v>334</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>336</v>
+      </c>
+      <c r="B16" t="s">
+        <v>336</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>337</v>
+      </c>
+      <c r="B17" t="s">
+        <v>337</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>465</v>
+      </c>
+      <c r="B18" t="s">
+        <v>465</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>428</v>
+      </c>
+      <c r="B19" t="s">
+        <v>428</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>521</v>
+      </c>
+      <c r="B20" t="s">
+        <v>521</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>223</v>
+      </c>
+      <c r="B21" t="s">
+        <v>223</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>226</v>
+      </c>
+      <c r="B22" t="s">
+        <v>226</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>840</v>
+      </c>
+      <c r="B23" t="s">
+        <v>840</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>518</v>
+      </c>
+      <c r="B24" t="s">
+        <v>518</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>788</v>
+      </c>
+      <c r="B25" t="s">
+        <v>788</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>430</v>
+      </c>
+      <c r="B26" t="s">
+        <v>430</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>322</v>
+      </c>
+      <c r="B27" t="s">
+        <v>322</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>519</v>
+      </c>
+      <c r="B28" t="s">
+        <v>519</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>231</v>
+      </c>
+      <c r="B29" t="s">
+        <v>231</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>839</v>
+      </c>
+      <c r="B30" t="s">
+        <v>839</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>520</v>
+      </c>
+      <c r="B31" t="s">
+        <v>520</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1480</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>431</v>
+      </c>
+      <c r="B35" t="s">
+        <v>431</v>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>786</v>
+      </c>
+      <c r="B36" t="s">
+        <v>786</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>314</v>
+      </c>
+      <c r="B37" t="s">
+        <v>314</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>315</v>
+      </c>
+      <c r="B38" t="s">
+        <v>315</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>313</v>
+      </c>
+      <c r="B39" t="s">
+        <v>313</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>787</v>
+      </c>
+      <c r="B40" t="s">
+        <v>787</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>523</v>
+      </c>
+      <c r="B41" t="s">
+        <v>523</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>836</v>
+      </c>
+      <c r="B42" t="s">
+        <v>836</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>524</v>
+      </c>
+      <c r="B43" t="s">
+        <v>524</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>522</v>
+      </c>
+      <c r="B44" t="s">
+        <v>522</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>807</v>
+      </c>
+      <c r="B45" t="s">
+        <v>807</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B46" t="s">
+        <v>343</v>
+      </c>
+      <c r="C46" t="s">
+        <v>601</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1468</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E265"/>
   <sheetViews>
@@ -24262,14 +24890,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A484" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C497" sqref="C497"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="48" style="87" customWidth="1"/>
-    <col min="2" max="2" width="55.85546875" style="87" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" style="87" customWidth="1"/>
     <col min="3" max="3" width="38.7109375" style="87" customWidth="1"/>
     <col min="4" max="4" width="29.42578125" style="87" customWidth="1"/>
     <col min="5" max="5" width="43.42578125" style="87" customWidth="1"/>
@@ -30352,6 +30978,169 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>2626</v>
+      </c>
+      <c r="B1" s="87" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B2" s="87" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B3" s="87" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>2629</v>
+      </c>
+      <c r="B4" s="87" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2630</v>
+      </c>
+      <c r="B5" s="87" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2631</v>
+      </c>
+      <c r="B6" s="87" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>2632</v>
+      </c>
+      <c r="B7" s="87" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B8" s="87" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>2634</v>
+      </c>
+      <c r="B9" s="87" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B10" s="87" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>2636</v>
+      </c>
+      <c r="B11" s="87" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>2637</v>
+      </c>
+      <c r="B12" s="87" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>2638</v>
+      </c>
+      <c r="B13" s="87" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>2639</v>
+      </c>
+      <c r="B14" s="87" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B15" s="87" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>2641</v>
+      </c>
+      <c r="B16" s="87" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>2642</v>
+      </c>
+      <c r="B17" s="87" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>2643</v>
+      </c>
+      <c r="B18" s="87" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E157"/>
   <sheetViews>
     <sheetView topLeftCell="A136" workbookViewId="0">
@@ -32551,7 +33340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y204"/>
   <sheetViews>
@@ -41989,7 +42778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T287"/>
   <sheetViews>
@@ -51560,7 +52349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K294"/>
   <sheetViews>
@@ -57730,7 +58519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L235"/>
   <sheetViews>
@@ -65455,7 +66244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C182"/>
   <sheetViews>
@@ -67478,577 +68267,4 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F47"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" customWidth="1"/>
-    <col min="3" max="3" width="63.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1549</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1550</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1551</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1552</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1553</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1554</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>342</v>
-      </c>
-      <c r="B3" t="s">
-        <v>342</v>
-      </c>
-      <c r="C3" t="s">
-        <v>602</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>339</v>
-      </c>
-      <c r="B4" t="s">
-        <v>339</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1555</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>341</v>
-      </c>
-      <c r="B5" t="s">
-        <v>341</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1556</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>456</v>
-      </c>
-      <c r="B6" t="s">
-        <v>456</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1557</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>457</v>
-      </c>
-      <c r="B7" t="s">
-        <v>457</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1558</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>455</v>
-      </c>
-      <c r="B8" t="s">
-        <v>455</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1559</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>331</v>
-      </c>
-      <c r="B9" t="s">
-        <v>331</v>
-      </c>
-      <c r="C9" t="s">
-        <v>676</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>329</v>
-      </c>
-      <c r="B10" t="s">
-        <v>329</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>330</v>
-      </c>
-      <c r="B11" t="s">
-        <v>330</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>335</v>
-      </c>
-      <c r="B12" t="s">
-        <v>335</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B13" t="s">
-        <v>332</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>333</v>
-      </c>
-      <c r="B14" t="s">
-        <v>333</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>334</v>
-      </c>
-      <c r="B15" t="s">
-        <v>334</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>336</v>
-      </c>
-      <c r="B16" t="s">
-        <v>336</v>
-      </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>337</v>
-      </c>
-      <c r="B17" t="s">
-        <v>337</v>
-      </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>465</v>
-      </c>
-      <c r="B18" t="s">
-        <v>465</v>
-      </c>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>428</v>
-      </c>
-      <c r="B19" t="s">
-        <v>428</v>
-      </c>
-      <c r="F19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>521</v>
-      </c>
-      <c r="B20" t="s">
-        <v>521</v>
-      </c>
-      <c r="F20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>223</v>
-      </c>
-      <c r="B21" t="s">
-        <v>223</v>
-      </c>
-      <c r="F21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>226</v>
-      </c>
-      <c r="B22" t="s">
-        <v>226</v>
-      </c>
-      <c r="F22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>840</v>
-      </c>
-      <c r="B23" t="s">
-        <v>840</v>
-      </c>
-      <c r="F23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>518</v>
-      </c>
-      <c r="B24" t="s">
-        <v>518</v>
-      </c>
-      <c r="F24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>788</v>
-      </c>
-      <c r="B25" t="s">
-        <v>788</v>
-      </c>
-      <c r="F25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>430</v>
-      </c>
-      <c r="B26" t="s">
-        <v>430</v>
-      </c>
-      <c r="F26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>322</v>
-      </c>
-      <c r="B27" t="s">
-        <v>322</v>
-      </c>
-      <c r="F27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>519</v>
-      </c>
-      <c r="B28" t="s">
-        <v>519</v>
-      </c>
-      <c r="F28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>231</v>
-      </c>
-      <c r="B29" t="s">
-        <v>231</v>
-      </c>
-      <c r="F29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>839</v>
-      </c>
-      <c r="B30" t="s">
-        <v>839</v>
-      </c>
-      <c r="F30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>520</v>
-      </c>
-      <c r="B31" t="s">
-        <v>520</v>
-      </c>
-      <c r="F31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>1454</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1454</v>
-      </c>
-      <c r="F32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>1480</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1480</v>
-      </c>
-      <c r="F33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>1456</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1456</v>
-      </c>
-      <c r="F34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>431</v>
-      </c>
-      <c r="B35" t="s">
-        <v>431</v>
-      </c>
-      <c r="F35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>786</v>
-      </c>
-      <c r="B36" t="s">
-        <v>786</v>
-      </c>
-      <c r="F36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>314</v>
-      </c>
-      <c r="B37" t="s">
-        <v>314</v>
-      </c>
-      <c r="F37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>315</v>
-      </c>
-      <c r="B38" t="s">
-        <v>315</v>
-      </c>
-      <c r="F38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>313</v>
-      </c>
-      <c r="B39" t="s">
-        <v>313</v>
-      </c>
-      <c r="F39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
-        <v>787</v>
-      </c>
-      <c r="B40" t="s">
-        <v>787</v>
-      </c>
-      <c r="F40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>523</v>
-      </c>
-      <c r="B41" t="s">
-        <v>523</v>
-      </c>
-      <c r="F41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>836</v>
-      </c>
-      <c r="B42" t="s">
-        <v>836</v>
-      </c>
-      <c r="F42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>524</v>
-      </c>
-      <c r="B43" t="s">
-        <v>524</v>
-      </c>
-      <c r="F43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
-        <v>522</v>
-      </c>
-      <c r="B44" t="s">
-        <v>522</v>
-      </c>
-      <c r="F44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
-        <v>807</v>
-      </c>
-      <c r="B45" t="s">
-        <v>807</v>
-      </c>
-      <c r="F45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
-        <v>1560</v>
-      </c>
-      <c r="B46" t="s">
-        <v>343</v>
-      </c>
-      <c r="C46" t="s">
-        <v>601</v>
-      </c>
-      <c r="F46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
-        <v>1468</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1468</v>
-      </c>
-      <c r="F47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>